--- a/data/home-sales.xlsx
+++ b/data/home-sales.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IanMcLean\McLean Capital Dropbox\Ian McLean\_Website + data + articles\___Real CPI website\___CANADA\_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A7D4D5B-913D-4A51-AF18-22904AE79DC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10831F8E-B272-4264-9BCD-B77E199E5C9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -377,7 +377,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D62"/>
+  <dimension ref="A1:C62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -387,7 +387,7 @@
     <col min="2" max="2" width="8.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -398,395 +398,372 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>45627</v>
       </c>
       <c r="B2" s="4">
-        <v>43.2</v>
+        <v>43200</v>
       </c>
       <c r="C2">
         <f t="shared" ref="C2:C37" si="0">(B2/B14-1)*100</f>
         <v>11.917098445595853</v>
       </c>
-      <c r="D2" s="4"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="4">
-        <v>45.9</v>
+        <v>45900</v>
       </c>
       <c r="C3">
         <f t="shared" si="0"/>
-        <v>30.397727272727249</v>
-      </c>
-      <c r="D3" s="4"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>30.39772727272727</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>45566</v>
       </c>
       <c r="B4" s="4">
-        <v>44.2</v>
+        <v>44200</v>
       </c>
       <c r="C4">
         <f t="shared" si="0"/>
-        <v>24.858757062146907</v>
-      </c>
-      <c r="D4" s="4"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>24.858757062146886</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>45536</v>
       </c>
       <c r="B5" s="4">
-        <v>41.2</v>
+        <v>41200</v>
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
         <v>6.7357512953367893</v>
       </c>
-      <c r="D5" s="4"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>45505</v>
       </c>
       <c r="B6" s="4">
-        <v>40.4</v>
+        <v>40400</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
         <v>1.5075376884422065</v>
       </c>
-      <c r="D6" s="4"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>45474</v>
       </c>
       <c r="B7" s="4">
-        <v>39.6</v>
+        <v>39600</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>-4.1162227602905439</v>
-      </c>
-      <c r="D7" s="4"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-4.1162227602905554</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>45444</v>
       </c>
       <c r="B8" s="5">
-        <v>39.799999999999997</v>
+        <v>39800</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
-        <v>-4.3269230769230838</v>
-      </c>
-      <c r="D8" s="4"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-4.3269230769230731</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>45413</v>
       </c>
       <c r="B9" s="5">
-        <v>38.299999999999997</v>
+        <v>38300</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>-8.1534772182254365</v>
-      </c>
-      <c r="D9" s="4"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-8.153477218225424</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>45383</v>
       </c>
       <c r="B10" s="5">
-        <v>38.4</v>
+        <v>38400</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>-3.0303030303030387</v>
-      </c>
-      <c r="D10" s="4"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-3.0303030303030276</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>45352</v>
       </c>
       <c r="B11" s="5">
-        <v>39.700000000000003</v>
+        <v>39700</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
         <v>11.204481792717091</v>
       </c>
-      <c r="D11" s="4"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>45323</v>
       </c>
       <c r="B12" s="5">
-        <v>39.4</v>
+        <v>39400</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
         <v>12.571428571428566</v>
       </c>
-      <c r="D12" s="4"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>45292</v>
       </c>
       <c r="B13" s="5">
-        <v>40.299999999999997</v>
+        <v>40300</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
-        <v>12.885154061624625</v>
-      </c>
-      <c r="D13" s="4"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12.885154061624648</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>45261</v>
       </c>
       <c r="B14" s="5">
-        <v>38.6</v>
+        <v>38600</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
         <v>8.1232492997198804</v>
       </c>
-      <c r="D14" s="4"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>45231</v>
       </c>
       <c r="B15" s="5">
-        <v>35.200000000000003</v>
+        <v>35200</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
-        <v>-1.1235955056179692</v>
-      </c>
-      <c r="D15" s="4"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-1.1235955056179803</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>45200</v>
       </c>
       <c r="B16" s="5">
-        <v>35.4</v>
+        <v>35400</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
         <v>-2.7472527472527486</v>
       </c>
-      <c r="D16" s="4"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>45170</v>
       </c>
       <c r="B17" s="5">
-        <v>38.6</v>
+        <v>38600</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
         <v>6.6298342541436517</v>
       </c>
-      <c r="D17" s="4"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>45139</v>
       </c>
       <c r="B18" s="5">
-        <v>39.799999999999997</v>
+        <v>39800</v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
         <v>6.7024128686327122</v>
       </c>
-      <c r="D18" s="4"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>45108</v>
       </c>
       <c r="B19" s="5">
-        <v>41.3</v>
+        <v>41300</v>
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
         <v>9.840425531914887</v>
       </c>
-      <c r="D19" s="4"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>45078</v>
       </c>
       <c r="B20" s="5">
-        <v>41.6</v>
+        <v>41600</v>
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
         <v>6.1224489795918435</v>
       </c>
-      <c r="D20" s="4"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>45047</v>
       </c>
       <c r="B21" s="5">
-        <v>41.7</v>
+        <v>41700</v>
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>-0.47732696897373472</v>
-      </c>
-      <c r="D21" s="4"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.47732696897374582</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>45017</v>
       </c>
       <c r="B22" s="5">
-        <v>39.6</v>
+        <v>39600</v>
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
         <v>-15.021459227467815</v>
       </c>
-      <c r="D22" s="4"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>44986</v>
       </c>
       <c r="B23" s="5">
-        <v>35.700000000000003</v>
+        <v>35700</v>
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
         <v>-33.519553072625698</v>
       </c>
-      <c r="D23" s="4"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>44958</v>
       </c>
       <c r="B24" s="5">
-        <v>35</v>
+        <v>35000</v>
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
         <v>-39.862542955326461</v>
       </c>
-      <c r="D24" s="4"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>44927</v>
       </c>
       <c r="B25" s="1">
-        <v>35.700000000000003</v>
+        <v>35700</v>
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
         <v>-37.478108581436075</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>44896</v>
       </c>
       <c r="B26" s="1">
-        <v>35.700000000000003</v>
+        <v>35700</v>
       </c>
       <c r="C26">
         <f t="shared" si="0"/>
         <v>-37.037037037037038</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>44866</v>
       </c>
       <c r="B27" s="1">
-        <v>35.6</v>
+        <v>35600</v>
       </c>
       <c r="C27">
         <f t="shared" si="0"/>
         <v>-39.041095890410958</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>44835</v>
       </c>
       <c r="B28" s="1">
-        <v>36.4</v>
+        <v>36400</v>
       </c>
       <c r="C28">
         <f t="shared" si="0"/>
         <v>-36.585365853658537</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>44805</v>
       </c>
       <c r="B29" s="1">
-        <v>36.200000000000003</v>
+        <v>36200</v>
       </c>
       <c r="C29">
         <f t="shared" si="0"/>
-        <v>-32.588454376163867</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-32.588454376163881</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>44774</v>
       </c>
       <c r="B30" s="1">
-        <v>37.299999999999997</v>
+        <v>37300</v>
       </c>
       <c r="C30">
         <f t="shared" si="0"/>
         <v>-28.131021194605012</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>44743</v>
       </c>
       <c r="B31" s="1">
-        <v>37.6</v>
+        <v>37600</v>
       </c>
       <c r="C31">
         <f t="shared" si="0"/>
-        <v>-27.413127413127402</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-27.413127413127413</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>44713</v>
       </c>
       <c r="B32" s="1">
-        <v>39.200000000000003</v>
+        <v>39200</v>
       </c>
       <c r="C32">
         <f t="shared" si="0"/>
@@ -798,11 +775,11 @@
         <v>44682</v>
       </c>
       <c r="B33" s="1">
-        <v>41.9</v>
+        <v>41900</v>
       </c>
       <c r="C33">
         <f t="shared" si="0"/>
-        <v>-26.102292768959444</v>
+        <v>-26.102292768959433</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -810,7 +787,7 @@
         <v>44652</v>
       </c>
       <c r="B34" s="1">
-        <v>46.6</v>
+        <v>46600</v>
       </c>
       <c r="C34">
         <f t="shared" si="0"/>
@@ -822,11 +799,11 @@
         <v>44621</v>
       </c>
       <c r="B35" s="1">
-        <v>53.7</v>
+        <v>53700</v>
       </c>
       <c r="C35">
         <f t="shared" si="0"/>
-        <v>-19.004524886877817</v>
+        <v>-19.004524886877828</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -834,11 +811,11 @@
         <v>44593</v>
       </c>
       <c r="B36" s="1">
-        <v>58.2</v>
+        <v>58200</v>
       </c>
       <c r="C36">
         <f t="shared" si="0"/>
-        <v>-7.4721780604133485</v>
+        <v>-7.4721780604133592</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -846,7 +823,7 @@
         <v>44562</v>
       </c>
       <c r="B37" s="1">
-        <v>57.1</v>
+        <v>57100</v>
       </c>
       <c r="C37">
         <f t="shared" si="0"/>
@@ -858,7 +835,7 @@
         <v>44531</v>
       </c>
       <c r="B38" s="1">
-        <v>56.7</v>
+        <v>56700</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -866,7 +843,7 @@
         <v>44501</v>
       </c>
       <c r="B39" s="1">
-        <v>58.4</v>
+        <v>58400</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -874,7 +851,7 @@
         <v>44470</v>
       </c>
       <c r="B40" s="1">
-        <v>57.4</v>
+        <v>57400</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -882,7 +859,7 @@
         <v>44440</v>
       </c>
       <c r="B41" s="1">
-        <v>53.7</v>
+        <v>53700</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -890,7 +867,7 @@
         <v>44409</v>
       </c>
       <c r="B42" s="1">
-        <v>51.9</v>
+        <v>51900</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -898,7 +875,7 @@
         <v>44378</v>
       </c>
       <c r="B43" s="1">
-        <v>51.8</v>
+        <v>51800</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -906,7 +883,7 @@
         <v>44348</v>
       </c>
       <c r="B44" s="1">
-        <v>52.4</v>
+        <v>52400</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -914,7 +891,7 @@
         <v>44317</v>
       </c>
       <c r="B45" s="1">
-        <v>56.7</v>
+        <v>56700</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -922,7 +899,7 @@
         <v>44287</v>
       </c>
       <c r="B46" s="1">
-        <v>60.3</v>
+        <v>60300</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -930,7 +907,7 @@
         <v>44256</v>
       </c>
       <c r="B47" s="1">
-        <v>66.3</v>
+        <v>66300</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -938,7 +915,7 @@
         <v>44228</v>
       </c>
       <c r="B48" s="1">
-        <v>62.9</v>
+        <v>62900</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -946,7 +923,7 @@
         <v>44197</v>
       </c>
       <c r="B49" s="1">
-        <v>62.5</v>
+        <v>62500</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">

--- a/data/home-sales.xlsx
+++ b/data/home-sales.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IanMcLean\McLean Capital Dropbox\Ian McLean\_Website + data + articles\___Real CPI website\___CANADA\_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAC8BC9A-855F-4F76-8142-59AEEEA40888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DF4250D-3F66-42B8-87E6-7BF83F37FAEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -376,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C61"/>
+  <dimension ref="A1:C62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -398,596 +398,667 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2">
         <v>43239</v>
       </c>
       <c r="C2">
-        <v>22.838068181818173</v>
+        <f>(B2/B14-1)*100</f>
+        <v>12.018134715025909</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>45566</v>
+        <v>45597</v>
       </c>
       <c r="B3" s="4">
-        <v>44200</v>
+        <v>45900</v>
       </c>
       <c r="C3">
-        <v>24.858757062146886</v>
+        <f t="shared" ref="C2:C33" si="0">(B3/B15-1)*100</f>
+        <v>30.39772727272727</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>45536</v>
+        <v>45566</v>
       </c>
       <c r="B4" s="4">
-        <v>41200</v>
+        <v>44200</v>
       </c>
       <c r="C4">
-        <v>6.7357512953367893</v>
+        <f t="shared" si="0"/>
+        <v>24.858757062146886</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="B5" s="4">
-        <v>40400</v>
+        <v>41200</v>
       </c>
       <c r="C5">
-        <v>1.5075376884422065</v>
+        <f t="shared" si="0"/>
+        <v>6.7357512953367893</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="B6" s="4">
-        <v>39600</v>
+        <v>40400</v>
       </c>
       <c r="C6">
-        <v>-4.1162227602905554</v>
+        <f t="shared" si="0"/>
+        <v>1.5075376884422065</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
-        <v>45444</v>
-      </c>
-      <c r="B7" s="5">
-        <v>39800</v>
+        <v>45474</v>
+      </c>
+      <c r="B7" s="4">
+        <v>39600</v>
       </c>
       <c r="C7">
-        <v>-4.3269230769230731</v>
+        <f t="shared" si="0"/>
+        <v>-4.1162227602905554</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="B8" s="5">
-        <v>38300</v>
+        <v>39800</v>
       </c>
       <c r="C8">
-        <v>-8.153477218225424</v>
+        <f t="shared" si="0"/>
+        <v>-4.3269230769230731</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="B9" s="5">
-        <v>38400</v>
+        <v>38300</v>
       </c>
       <c r="C9">
-        <v>-3.0303030303030276</v>
+        <f t="shared" si="0"/>
+        <v>-8.153477218225424</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="B10" s="5">
-        <v>39700</v>
+        <v>38400</v>
       </c>
       <c r="C10">
-        <v>11.204481792717091</v>
+        <f t="shared" si="0"/>
+        <v>-3.0303030303030276</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="B11" s="5">
-        <v>39400</v>
+        <v>39700</v>
       </c>
       <c r="C11">
-        <v>12.571428571428566</v>
+        <f t="shared" si="0"/>
+        <v>11.204481792717091</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="B12" s="5">
-        <v>40300</v>
+        <v>39400</v>
       </c>
       <c r="C12">
-        <v>12.885154061624648</v>
+        <f t="shared" si="0"/>
+        <v>12.571428571428566</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <v>45261</v>
+        <v>45292</v>
       </c>
       <c r="B13" s="5">
-        <v>38600</v>
+        <v>40300</v>
       </c>
       <c r="C13">
-        <v>8.1232492997198804</v>
+        <f t="shared" si="0"/>
+        <v>12.885154061624648</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="B14" s="5">
-        <v>35200</v>
+        <v>38600</v>
       </c>
       <c r="C14">
-        <v>-1.1235955056179803</v>
+        <f t="shared" si="0"/>
+        <v>8.1232492997198804</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
-        <v>45200</v>
+        <v>45231</v>
       </c>
       <c r="B15" s="5">
-        <v>35400</v>
+        <v>35200</v>
       </c>
       <c r="C15">
-        <v>-2.7472527472527486</v>
+        <f t="shared" si="0"/>
+        <v>-1.1235955056179803</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B16" s="5">
-        <v>38600</v>
+        <v>35400</v>
       </c>
       <c r="C16">
-        <v>6.6298342541436517</v>
+        <f t="shared" si="0"/>
+        <v>-2.7472527472527486</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B17" s="5">
-        <v>39800</v>
+        <v>38600</v>
       </c>
       <c r="C17">
-        <v>6.7024128686327122</v>
+        <f t="shared" si="0"/>
+        <v>6.6298342541436517</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B18" s="5">
-        <v>41300</v>
+        <v>39800</v>
       </c>
       <c r="C18">
-        <v>9.840425531914887</v>
+        <f t="shared" si="0"/>
+        <v>6.7024128686327122</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B19" s="5">
-        <v>41600</v>
+        <v>41300</v>
       </c>
       <c r="C19">
-        <v>6.1224489795918435</v>
+        <f t="shared" si="0"/>
+        <v>9.840425531914887</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B20" s="5">
-        <v>41700</v>
+        <v>41600</v>
       </c>
       <c r="C20">
-        <v>-0.47732696897374582</v>
+        <f t="shared" si="0"/>
+        <v>6.1224489795918435</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B21" s="5">
-        <v>39600</v>
+        <v>41700</v>
       </c>
       <c r="C21">
-        <v>-15.021459227467815</v>
+        <f t="shared" si="0"/>
+        <v>-0.47732696897374582</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B22" s="5">
-        <v>35700</v>
+        <v>39600</v>
       </c>
       <c r="C22">
-        <v>-33.519553072625698</v>
+        <f t="shared" si="0"/>
+        <v>-15.021459227467815</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
-        <v>44958</v>
+        <v>44986</v>
       </c>
       <c r="B23" s="5">
-        <v>35000</v>
+        <v>35700</v>
       </c>
       <c r="C23">
-        <v>-39.862542955326461</v>
+        <f t="shared" si="0"/>
+        <v>-33.519553072625698</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
-        <v>44927</v>
-      </c>
-      <c r="B24" s="1">
-        <v>35700</v>
+        <v>44958</v>
+      </c>
+      <c r="B24" s="5">
+        <v>35000</v>
       </c>
       <c r="C24">
-        <v>-37.478108581436075</v>
+        <f t="shared" si="0"/>
+        <v>-39.862542955326461</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
-        <v>44896</v>
+        <v>44927</v>
       </c>
       <c r="B25" s="1">
         <v>35700</v>
       </c>
       <c r="C25">
-        <v>-37.037037037037038</v>
+        <f t="shared" si="0"/>
+        <v>-37.478108581436075</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
-        <v>44866</v>
+        <v>44896</v>
       </c>
       <c r="B26" s="1">
-        <v>35600</v>
+        <v>35700</v>
       </c>
       <c r="C26">
-        <v>-39.041095890410958</v>
+        <f t="shared" si="0"/>
+        <v>-37.037037037037038</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
-        <v>44835</v>
+        <v>44866</v>
       </c>
       <c r="B27" s="1">
-        <v>36400</v>
+        <v>35600</v>
       </c>
       <c r="C27">
-        <v>-36.585365853658537</v>
+        <f t="shared" si="0"/>
+        <v>-39.041095890410958</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
-        <v>44805</v>
+        <v>44835</v>
       </c>
       <c r="B28" s="1">
-        <v>36200</v>
+        <v>36400</v>
       </c>
       <c r="C28">
-        <v>-32.588454376163881</v>
+        <f t="shared" si="0"/>
+        <v>-36.585365853658537</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
-        <v>44774</v>
+        <v>44805</v>
       </c>
       <c r="B29" s="1">
-        <v>37300</v>
+        <v>36200</v>
       </c>
       <c r="C29">
-        <v>-28.131021194605012</v>
+        <f t="shared" si="0"/>
+        <v>-32.588454376163881</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="B30" s="1">
-        <v>37600</v>
+        <v>37300</v>
       </c>
       <c r="C30">
-        <v>-27.413127413127413</v>
+        <f t="shared" si="0"/>
+        <v>-28.131021194605012</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="B31" s="1">
-        <v>39200</v>
+        <v>37600</v>
       </c>
       <c r="C31">
-        <v>-25.190839694656486</v>
+        <f t="shared" si="0"/>
+        <v>-27.413127413127413</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="B32" s="1">
-        <v>41900</v>
+        <v>39200</v>
       </c>
       <c r="C32">
-        <v>-26.102292768959433</v>
+        <f t="shared" si="0"/>
+        <v>-25.190839694656486</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="B33" s="1">
-        <v>46600</v>
+        <v>41900</v>
       </c>
       <c r="C33">
-        <v>-22.719734660033165</v>
+        <f t="shared" si="0"/>
+        <v>-26.102292768959433</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
-        <v>44621</v>
+        <v>44652</v>
       </c>
       <c r="B34" s="1">
-        <v>53700</v>
+        <v>46600</v>
       </c>
       <c r="C34">
-        <v>-19.004524886877828</v>
+        <f t="shared" ref="C34:C65" si="1">(B34/B46-1)*100</f>
+        <v>-22.719734660033165</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="B35" s="1">
-        <v>58200</v>
+        <v>53700</v>
       </c>
       <c r="C35">
-        <v>-7.4721780604133592</v>
+        <f t="shared" si="1"/>
+        <v>-19.004524886877828</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="B36" s="1">
-        <v>57100</v>
+        <v>58200</v>
       </c>
       <c r="C36">
-        <v>-8.6400000000000041</v>
+        <f t="shared" si="1"/>
+        <v>-7.4721780604133592</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="B37" s="1">
-        <v>56700</v>
-      </c>
-      <c r="C37" t="e">
-        <v>#DIV/0!</v>
+        <v>57100</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="1"/>
+        <v>-8.6400000000000041</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="B38" s="1">
-        <v>58400</v>
+        <v>56700</v>
       </c>
       <c r="C38" t="e">
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
-        <v>44470</v>
+        <v>44501</v>
       </c>
       <c r="B39" s="1">
-        <v>57400</v>
+        <v>58400</v>
       </c>
       <c r="C39" t="e">
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
-        <v>44440</v>
+        <v>44470</v>
       </c>
       <c r="B40" s="1">
-        <v>53700</v>
+        <v>57400</v>
       </c>
       <c r="C40" t="e">
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
-        <v>44409</v>
+        <v>44440</v>
       </c>
       <c r="B41" s="1">
-        <v>51900</v>
+        <v>53700</v>
       </c>
       <c r="C41" t="e">
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
-        <v>44378</v>
+        <v>44409</v>
       </c>
       <c r="B42" s="1">
-        <v>51800</v>
+        <v>51900</v>
       </c>
       <c r="C42" t="e">
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
-        <v>44348</v>
+        <v>44378</v>
       </c>
       <c r="B43" s="1">
-        <v>52400</v>
+        <v>51800</v>
       </c>
       <c r="C43" t="e">
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
-        <v>44317</v>
+        <v>44348</v>
       </c>
       <c r="B44" s="1">
-        <v>56700</v>
+        <v>52400</v>
       </c>
       <c r="C44" t="e">
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
-        <v>44287</v>
+        <v>44317</v>
       </c>
       <c r="B45" s="1">
-        <v>60300</v>
+        <v>56700</v>
       </c>
       <c r="C45" t="e">
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
-        <v>44256</v>
+        <v>44287</v>
       </c>
       <c r="B46" s="1">
-        <v>66300</v>
+        <v>60300</v>
       </c>
       <c r="C46" t="e">
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
-        <v>44228</v>
+        <v>44256</v>
       </c>
       <c r="B47" s="1">
-        <v>62900</v>
+        <v>66300</v>
       </c>
       <c r="C47" t="e">
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
+        <v>44228</v>
+      </c>
+      <c r="B48" s="1">
+        <v>62900</v>
+      </c>
+      <c r="C48" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
         <v>44197</v>
       </c>
-      <c r="B48" s="1">
+      <c r="B49" s="1">
         <v>62500</v>
       </c>
-      <c r="C48" t="e">
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="3"/>
       <c r="C49" t="e">
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
       <c r="C50" t="e">
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
       <c r="C51" t="e">
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
       <c r="C52" t="e">
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
       <c r="C53" t="e">
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
       <c r="C54" t="e">
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
       <c r="C55" t="e">
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
       <c r="C56" t="e">
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
       <c r="C57" t="e">
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
       <c r="C58" t="e">
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
       <c r="C59" t="e">
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
       <c r="C60" t="e">
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
+      <c r="C61" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/home-sales.xlsx
+++ b/data/home-sales.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IanMcLean\McLean Capital Dropbox\Ian McLean\_Website + data + articles\___Real CPI website\___CANADA\_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DF4250D-3F66-42B8-87E6-7BF83F37FAEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A92FF054-ED16-41E9-A5EB-95ECF2684C5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -83,7 +83,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -96,6 +96,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -398,7 +399,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B2">
@@ -410,19 +411,19 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="A3" s="6">
         <v>45597</v>
       </c>
       <c r="B3" s="4">
         <v>45900</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C2:C33" si="0">(B3/B15-1)*100</f>
+        <f t="shared" ref="C3:C33" si="0">(B3/B15-1)*100</f>
         <v>30.39772727272727</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="A4" s="6">
         <v>45566</v>
       </c>
       <c r="B4" s="4">
@@ -434,7 +435,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="A5" s="6">
         <v>45536</v>
       </c>
       <c r="B5" s="4">
@@ -446,7 +447,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="A6" s="6">
         <v>45505</v>
       </c>
       <c r="B6" s="4">
@@ -458,7 +459,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="A7" s="6">
         <v>45474</v>
       </c>
       <c r="B7" s="4">
@@ -470,7 +471,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="A8" s="6">
         <v>45444</v>
       </c>
       <c r="B8" s="5">
@@ -482,7 +483,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+      <c r="A9" s="6">
         <v>45413</v>
       </c>
       <c r="B9" s="5">
@@ -494,7 +495,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+      <c r="A10" s="6">
         <v>45383</v>
       </c>
       <c r="B10" s="5">
@@ -506,7 +507,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+      <c r="A11" s="6">
         <v>45352</v>
       </c>
       <c r="B11" s="5">
@@ -518,7 +519,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+      <c r="A12" s="6">
         <v>45323</v>
       </c>
       <c r="B12" s="5">
@@ -530,7 +531,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+      <c r="A13" s="6">
         <v>45292</v>
       </c>
       <c r="B13" s="5">
@@ -542,7 +543,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+      <c r="A14" s="6">
         <v>45261</v>
       </c>
       <c r="B14" s="5">
@@ -554,7 +555,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
+      <c r="A15" s="6">
         <v>45231</v>
       </c>
       <c r="B15" s="5">
@@ -566,7 +567,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
+      <c r="A16" s="6">
         <v>45200</v>
       </c>
       <c r="B16" s="5">
@@ -578,7 +579,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
+      <c r="A17" s="6">
         <v>45170</v>
       </c>
       <c r="B17" s="5">
@@ -590,7 +591,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
+      <c r="A18" s="6">
         <v>45139</v>
       </c>
       <c r="B18" s="5">
@@ -602,7 +603,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
+      <c r="A19" s="6">
         <v>45108</v>
       </c>
       <c r="B19" s="5">
@@ -614,7 +615,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
+      <c r="A20" s="6">
         <v>45078</v>
       </c>
       <c r="B20" s="5">
@@ -626,7 +627,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
+      <c r="A21" s="6">
         <v>45047</v>
       </c>
       <c r="B21" s="5">
@@ -638,7 +639,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
+      <c r="A22" s="6">
         <v>45017</v>
       </c>
       <c r="B22" s="5">
@@ -650,7 +651,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
+      <c r="A23" s="6">
         <v>44986</v>
       </c>
       <c r="B23" s="5">
@@ -662,7 +663,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
+      <c r="A24" s="6">
         <v>44958</v>
       </c>
       <c r="B24" s="5">
@@ -674,7 +675,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
+      <c r="A25" s="6">
         <v>44927</v>
       </c>
       <c r="B25" s="1">
@@ -686,7 +687,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
+      <c r="A26" s="6">
         <v>44896</v>
       </c>
       <c r="B26" s="1">
@@ -698,7 +699,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
+      <c r="A27" s="6">
         <v>44866</v>
       </c>
       <c r="B27" s="1">
@@ -710,7 +711,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
+      <c r="A28" s="6">
         <v>44835</v>
       </c>
       <c r="B28" s="1">
@@ -722,7 +723,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
+      <c r="A29" s="6">
         <v>44805</v>
       </c>
       <c r="B29" s="1">
@@ -734,7 +735,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
+      <c r="A30" s="6">
         <v>44774</v>
       </c>
       <c r="B30" s="1">
@@ -746,7 +747,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
+      <c r="A31" s="6">
         <v>44743</v>
       </c>
       <c r="B31" s="1">
@@ -758,7 +759,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
+      <c r="A32" s="6">
         <v>44713</v>
       </c>
       <c r="B32" s="1">
@@ -770,7 +771,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="3">
+      <c r="A33" s="6">
         <v>44682</v>
       </c>
       <c r="B33" s="1">
@@ -782,19 +783,19 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="3">
+      <c r="A34" s="6">
         <v>44652</v>
       </c>
       <c r="B34" s="1">
         <v>46600</v>
       </c>
       <c r="C34">
-        <f t="shared" ref="C34:C65" si="1">(B34/B46-1)*100</f>
+        <f t="shared" ref="C34:C61" si="1">(B34/B46-1)*100</f>
         <v>-22.719734660033165</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="3">
+      <c r="A35" s="6">
         <v>44621</v>
       </c>
       <c r="B35" s="1">
@@ -806,7 +807,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="3">
+      <c r="A36" s="6">
         <v>44593</v>
       </c>
       <c r="B36" s="1">
@@ -818,7 +819,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="3">
+      <c r="A37" s="6">
         <v>44562</v>
       </c>
       <c r="B37" s="1">
@@ -830,7 +831,7 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="3">
+      <c r="A38" s="6">
         <v>44531</v>
       </c>
       <c r="B38" s="1">
@@ -842,7 +843,7 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="3">
+      <c r="A39" s="6">
         <v>44501</v>
       </c>
       <c r="B39" s="1">
@@ -854,7 +855,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="3">
+      <c r="A40" s="6">
         <v>44470</v>
       </c>
       <c r="B40" s="1">
@@ -866,7 +867,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="3">
+      <c r="A41" s="6">
         <v>44440</v>
       </c>
       <c r="B41" s="1">
@@ -878,7 +879,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="3">
+      <c r="A42" s="6">
         <v>44409</v>
       </c>
       <c r="B42" s="1">
@@ -890,7 +891,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="3">
+      <c r="A43" s="6">
         <v>44378</v>
       </c>
       <c r="B43" s="1">
@@ -902,7 +903,7 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="3">
+      <c r="A44" s="6">
         <v>44348</v>
       </c>
       <c r="B44" s="1">
@@ -914,7 +915,7 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="3">
+      <c r="A45" s="6">
         <v>44317</v>
       </c>
       <c r="B45" s="1">
@@ -926,7 +927,7 @@
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="3">
+      <c r="A46" s="6">
         <v>44287</v>
       </c>
       <c r="B46" s="1">
@@ -938,7 +939,7 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="3">
+      <c r="A47" s="6">
         <v>44256</v>
       </c>
       <c r="B47" s="1">
@@ -950,7 +951,7 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="3">
+      <c r="A48" s="6">
         <v>44228</v>
       </c>
       <c r="B48" s="1">
@@ -962,7 +963,7 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="3">
+      <c r="A49" s="6">
         <v>44197</v>
       </c>
       <c r="B49" s="1">

--- a/data/home-sales.xlsx
+++ b/data/home-sales.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IanMcLean\McLean Capital Dropbox\Ian McLean\_Website + data + articles\___Real CPI website\___CANADA\_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A92FF054-ED16-41E9-A5EB-95ECF2684C5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A710080-2853-4C6E-B2FD-1FD946510DC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -384,7 +384,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.85546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -837,10 +837,6 @@
       <c r="B38" s="1">
         <v>56700</v>
       </c>
-      <c r="C38" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
@@ -849,10 +845,6 @@
       <c r="B39" s="1">
         <v>58400</v>
       </c>
-      <c r="C39" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
@@ -861,10 +853,6 @@
       <c r="B40" s="1">
         <v>57400</v>
       </c>
-      <c r="C40" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
@@ -873,10 +861,6 @@
       <c r="B41" s="1">
         <v>53700</v>
       </c>
-      <c r="C41" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
@@ -885,10 +869,6 @@
       <c r="B42" s="1">
         <v>51900</v>
       </c>
-      <c r="C42" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
@@ -897,10 +877,6 @@
       <c r="B43" s="1">
         <v>51800</v>
       </c>
-      <c r="C43" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
@@ -909,10 +885,6 @@
       <c r="B44" s="1">
         <v>52400</v>
       </c>
-      <c r="C44" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
@@ -921,10 +893,6 @@
       <c r="B45" s="1">
         <v>56700</v>
       </c>
-      <c r="C45" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
@@ -933,10 +901,6 @@
       <c r="B46" s="1">
         <v>60300</v>
       </c>
-      <c r="C46" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
@@ -945,10 +909,6 @@
       <c r="B47" s="1">
         <v>66300</v>
       </c>
-      <c r="C47" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
@@ -957,108 +917,52 @@
       <c r="B48" s="1">
         <v>62900</v>
       </c>
-      <c r="C48" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
         <v>44197</v>
       </c>
       <c r="B49" s="1">
         <v>62500</v>
       </c>
-      <c r="C49" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
-      <c r="C50" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
-      <c r="C51" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
-      <c r="C52" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
-      <c r="C53" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
-      <c r="C54" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
-      <c r="C55" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
-      <c r="C56" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
-      <c r="C57" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
-      <c r="C58" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
-      <c r="C59" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
-      <c r="C60" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
-      <c r="C61" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="3"/>
     </row>
   </sheetData>

--- a/data/home-sales.xlsx
+++ b/data/home-sales.xlsx
@@ -1,71 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IanMcLean\McLean Capital Dropbox\Ian McLean\_Website + data + articles\___Real CPI website\___CANADA\_Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A710080-2853-4C6E-B2FD-1FD946510DC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Data" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="191029" fullCalcOnLoad="1" concurrentCalc="0"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>% Change vs Last Year</t>
-  </si>
-  <si>
-    <t>2024-12-01</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -84,33 +48,92 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -376,594 +399,718 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C62"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="2" bestFit="1" customWidth="1"/>
+    <col width="17.85546875" customWidth="1" style="2" min="1" max="1"/>
+    <col width="9.140625" bestFit="1" customWidth="1" style="2" min="2" max="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2">
-        <v>43239</v>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>% Change vs Last Year</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2025-01-01</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>66.8</v>
       </c>
       <c r="C2">
         <f>(B2/B14-1)*100</f>
-        <v>12.018134715025909</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="6" t="inlineStr">
+        <is>
+          <t>2024-12-01</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>43239</v>
+      </c>
+      <c r="C3">
+        <f>(B3/B15-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="6" t="n">
         <v>45597</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B4" s="4" t="n">
         <v>45900</v>
       </c>
-      <c r="C3">
-        <f t="shared" ref="C3:C33" si="0">(B3/B15-1)*100</f>
-        <v>30.39772727272727</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+      <c r="C4">
+        <f>(B4/B16-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="6" t="n">
         <v>45566</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B5" s="4" t="n">
         <v>44200</v>
       </c>
-      <c r="C4">
-        <f t="shared" si="0"/>
-        <v>24.858757062146886</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="C5">
+        <f>(B5/B17-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="6" t="n">
         <v>45536</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B6" s="4" t="n">
         <v>41200</v>
       </c>
-      <c r="C5">
-        <f t="shared" si="0"/>
-        <v>6.7357512953367893</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+      <c r="C6">
+        <f>(B6/B18-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="6" t="n">
         <v>45505</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B7" s="4" t="n">
         <v>40400</v>
       </c>
-      <c r="C6">
-        <f t="shared" si="0"/>
-        <v>1.5075376884422065</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+      <c r="C7">
+        <f>(B7/B19-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="6" t="n">
         <v>45474</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B8" s="4" t="n">
         <v>39600</v>
       </c>
-      <c r="C7">
-        <f t="shared" si="0"/>
-        <v>-4.1162227602905554</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+      <c r="C8">
+        <f>(B8/B20-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="6" t="n">
         <v>45444</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B9" s="5" t="n">
         <v>39800</v>
       </c>
-      <c r="C8">
-        <f t="shared" si="0"/>
-        <v>-4.3269230769230731</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+      <c r="C9">
+        <f>(B9/B21-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="6" t="n">
         <v>45413</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B10" s="5" t="n">
         <v>38300</v>
       </c>
-      <c r="C9">
-        <f t="shared" si="0"/>
-        <v>-8.153477218225424</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
+      <c r="C10">
+        <f>(B10/B22-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="6" t="n">
         <v>45383</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B11" s="5" t="n">
         <v>38400</v>
       </c>
-      <c r="C10">
-        <f t="shared" si="0"/>
-        <v>-3.0303030303030276</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
+      <c r="C11">
+        <f>(B11/B23-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="6" t="n">
         <v>45352</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B12" s="5" t="n">
         <v>39700</v>
       </c>
-      <c r="C11">
-        <f t="shared" si="0"/>
-        <v>11.204481792717091</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
+      <c r="C12">
+        <f>(B12/B24-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="6" t="n">
         <v>45323</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B13" s="5" t="n">
         <v>39400</v>
       </c>
-      <c r="C12">
-        <f t="shared" si="0"/>
-        <v>12.571428571428566</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
+      <c r="C13">
+        <f>(B13/B25-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="6" t="n">
         <v>45292</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B14" s="5" t="n">
         <v>40300</v>
       </c>
-      <c r="C13">
-        <f t="shared" si="0"/>
-        <v>12.885154061624648</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
+      <c r="C14">
+        <f>(B14/B26-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="6" t="n">
         <v>45261</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B15" s="5" t="n">
         <v>38600</v>
       </c>
-      <c r="C14">
-        <f t="shared" si="0"/>
-        <v>8.1232492997198804</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
+      <c r="C15">
+        <f>(B15/B27-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="6" t="n">
         <v>45231</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B16" s="5" t="n">
         <v>35200</v>
       </c>
-      <c r="C15">
-        <f t="shared" si="0"/>
-        <v>-1.1235955056179803</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
+      <c r="C16">
+        <f>(B16/B28-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="6" t="n">
         <v>45200</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B17" s="5" t="n">
         <v>35400</v>
       </c>
-      <c r="C16">
-        <f t="shared" si="0"/>
-        <v>-2.7472527472527486</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
+      <c r="C17">
+        <f>(B17/B29-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="6" t="n">
         <v>45170</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B18" s="5" t="n">
         <v>38600</v>
       </c>
-      <c r="C17">
-        <f t="shared" si="0"/>
-        <v>6.6298342541436517</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
+      <c r="C18">
+        <f>(B18/B30-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="6" t="n">
         <v>45139</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B19" s="5" t="n">
         <v>39800</v>
       </c>
-      <c r="C18">
-        <f t="shared" si="0"/>
-        <v>6.7024128686327122</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
+      <c r="C19">
+        <f>(B19/B31-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="6" t="n">
         <v>45108</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B20" s="5" t="n">
         <v>41300</v>
       </c>
-      <c r="C19">
-        <f t="shared" si="0"/>
-        <v>9.840425531914887</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
+      <c r="C20">
+        <f>(B20/B32-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="6" t="n">
         <v>45078</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B21" s="5" t="n">
         <v>41600</v>
       </c>
-      <c r="C20">
-        <f t="shared" si="0"/>
-        <v>6.1224489795918435</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
+      <c r="C21">
+        <f>(B21/B33-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="6" t="n">
         <v>45047</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B22" s="5" t="n">
         <v>41700</v>
       </c>
-      <c r="C21">
-        <f t="shared" si="0"/>
-        <v>-0.47732696897374582</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
+      <c r="C22">
+        <f>(B22/B34-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="6" t="n">
         <v>45017</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B23" s="5" t="n">
         <v>39600</v>
       </c>
-      <c r="C22">
-        <f t="shared" si="0"/>
-        <v>-15.021459227467815</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="6">
+      <c r="C23">
+        <f>(B23/B35-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="6" t="n">
         <v>44986</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B24" s="5" t="n">
         <v>35700</v>
       </c>
-      <c r="C23">
-        <f t="shared" si="0"/>
-        <v>-33.519553072625698</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="6">
+      <c r="C24">
+        <f>(B24/B36-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="6" t="n">
         <v>44958</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B25" s="5" t="n">
         <v>35000</v>
       </c>
-      <c r="C24">
-        <f t="shared" si="0"/>
-        <v>-39.862542955326461</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="6">
+      <c r="C25">
+        <f>(B25/B37-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="6" t="n">
         <v>44927</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B26" s="1" t="n">
         <v>35700</v>
       </c>
-      <c r="C25">
-        <f t="shared" si="0"/>
-        <v>-37.478108581436075</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="6">
+      <c r="C26">
+        <f>(B26/B38-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="6" t="n">
         <v>44896</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B27" s="1" t="n">
         <v>35700</v>
       </c>
-      <c r="C26">
-        <f t="shared" si="0"/>
-        <v>-37.037037037037038</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="6">
+      <c r="C27">
+        <f>(B27/B39-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="6" t="n">
         <v>44866</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B28" s="1" t="n">
         <v>35600</v>
       </c>
-      <c r="C27">
-        <f t="shared" si="0"/>
-        <v>-39.041095890410958</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="6">
+      <c r="C28">
+        <f>(B28/B40-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="6" t="n">
         <v>44835</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B29" s="1" t="n">
         <v>36400</v>
       </c>
-      <c r="C28">
-        <f t="shared" si="0"/>
-        <v>-36.585365853658537</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="6">
+      <c r="C29">
+        <f>(B29/B41-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="6" t="n">
         <v>44805</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B30" s="1" t="n">
         <v>36200</v>
       </c>
-      <c r="C29">
-        <f t="shared" si="0"/>
-        <v>-32.588454376163881</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="6">
+      <c r="C30">
+        <f>(B30/B42-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="6" t="n">
         <v>44774</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B31" s="1" t="n">
         <v>37300</v>
       </c>
-      <c r="C30">
-        <f t="shared" si="0"/>
-        <v>-28.131021194605012</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="6">
+      <c r="C31">
+        <f>(B31/B43-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="6" t="n">
         <v>44743</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B32" s="1" t="n">
         <v>37600</v>
       </c>
-      <c r="C31">
-        <f t="shared" si="0"/>
-        <v>-27.413127413127413</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="6">
+      <c r="C32">
+        <f>(B32/B44-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="6" t="n">
         <v>44713</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B33" s="1" t="n">
         <v>39200</v>
       </c>
-      <c r="C32">
-        <f t="shared" si="0"/>
-        <v>-25.190839694656486</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="6">
+      <c r="C33">
+        <f>(B33/B45-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="6" t="n">
         <v>44682</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B34" s="1" t="n">
         <v>41900</v>
       </c>
-      <c r="C33">
-        <f t="shared" si="0"/>
-        <v>-26.102292768959433</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="6">
+      <c r="C34">
+        <f>(B34/B46-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="6" t="n">
         <v>44652</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B35" s="1" t="n">
         <v>46600</v>
       </c>
-      <c r="C34">
-        <f t="shared" ref="C34:C61" si="1">(B34/B46-1)*100</f>
-        <v>-22.719734660033165</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="6">
+      <c r="C35">
+        <f>(B35/B47-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="6" t="n">
         <v>44621</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B36" s="1" t="n">
         <v>53700</v>
       </c>
-      <c r="C35">
-        <f t="shared" si="1"/>
-        <v>-19.004524886877828</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="6">
+      <c r="C36">
+        <f>(B36/B48-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="6" t="n">
         <v>44593</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B37" s="1" t="n">
         <v>58200</v>
       </c>
-      <c r="C36">
-        <f t="shared" si="1"/>
-        <v>-7.4721780604133592</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="6">
+      <c r="C37">
+        <f>(B37/B49-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="6" t="n">
         <v>44562</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B38" s="1" t="n">
         <v>57100</v>
       </c>
-      <c r="C37">
-        <f t="shared" si="1"/>
-        <v>-8.6400000000000041</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="6">
+      <c r="C38">
+        <f>(B38/B50-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="6" t="n">
         <v>44531</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B39" s="1" t="n">
         <v>56700</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="6">
+      <c r="C39">
+        <f>(B39/B51-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="6" t="n">
         <v>44501</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B40" s="1" t="n">
         <v>58400</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="6">
+      <c r="C40">
+        <f>(B40/B52-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="6" t="n">
         <v>44470</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B41" s="1" t="n">
         <v>57400</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="6">
+      <c r="C41">
+        <f>(B41/B53-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="6" t="n">
         <v>44440</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B42" s="1" t="n">
         <v>53700</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="6">
+      <c r="C42">
+        <f>(B42/B54-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="6" t="n">
         <v>44409</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B43" s="1" t="n">
         <v>51900</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="6">
+      <c r="C43">
+        <f>(B43/B55-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="6" t="n">
         <v>44378</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B44" s="1" t="n">
         <v>51800</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="6">
+      <c r="C44">
+        <f>(B44/B56-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="6" t="n">
         <v>44348</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B45" s="1" t="n">
         <v>52400</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="6">
+      <c r="C45">
+        <f>(B45/B57-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="6" t="n">
         <v>44317</v>
       </c>
-      <c r="B45" s="1">
+      <c r="B46" s="1" t="n">
         <v>56700</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="6">
+      <c r="C46">
+        <f>(B46/B58-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="6" t="n">
         <v>44287</v>
       </c>
-      <c r="B46" s="1">
+      <c r="B47" s="1" t="n">
         <v>60300</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="6">
+      <c r="C47">
+        <f>(B47/B59-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="6" t="n">
         <v>44256</v>
       </c>
-      <c r="B47" s="1">
+      <c r="B48" s="1" t="n">
         <v>66300</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="6">
+      <c r="C48">
+        <f>(B48/B60-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="6" t="n">
         <v>44228</v>
       </c>
-      <c r="B48" s="1">
+      <c r="B49" s="1" t="n">
         <v>62900</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="6">
+      <c r="C49">
+        <f>(B49/B61-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="6" t="n">
         <v>44197</v>
       </c>
-      <c r="B49" s="1">
+      <c r="B50" s="1" t="n">
         <v>62500</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="3"/>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="3"/>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="3"/>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="3"/>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="3"/>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="3"/>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="3"/>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="3"/>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="3"/>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="3"/>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="3"/>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="3"/>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="3"/>
+      <c r="C50">
+        <f>(B50/B62-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="3" t="n"/>
+      <c r="C51">
+        <f>(B51/B63-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="3" t="n"/>
+      <c r="C52">
+        <f>(B52/B64-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="3" t="n"/>
+      <c r="C53">
+        <f>(B53/B65-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="3" t="n"/>
+      <c r="C54">
+        <f>(B54/B66-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="3" t="n"/>
+      <c r="C55">
+        <f>(B55/B67-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="3" t="n"/>
+      <c r="C56">
+        <f>(B56/B68-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="3" t="n"/>
+      <c r="C57">
+        <f>(B57/B69-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="3" t="n"/>
+      <c r="C58">
+        <f>(B58/B70-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="3" t="n"/>
+      <c r="C59">
+        <f>(B59/B71-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="3" t="n"/>
+      <c r="C60">
+        <f>(B60/B72-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="3" t="n"/>
+      <c r="C61">
+        <f>(B61/B73-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="3" t="n"/>
+      <c r="C62">
+        <f>(B62/B74-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="3" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/home-sales.xlsx
+++ b/data/home-sales.xlsx
@@ -404,7 +404,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C63"/>
+  <dimension ref="A1:C64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,37 +436,39 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>2025-02-01</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="C2">
+        <f>(B2/B14-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>2025-01-01</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B3" t="n">
         <v>66.8</v>
       </c>
-      <c r="C2">
-        <f>(B2/B14-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="6" t="inlineStr">
+      <c r="C3">
+        <f>(B3/B15-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="6" t="inlineStr">
         <is>
           <t>2024-12-01</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B4" t="n">
         <v>43239</v>
-      </c>
-      <c r="C3">
-        <f>(B3/B15-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="6" t="n">
-        <v>45597</v>
-      </c>
-      <c r="B4" s="4" t="n">
-        <v>45900</v>
       </c>
       <c r="C4">
         <f>(B4/B16-1)*100</f>
@@ -475,10 +477,10 @@
     </row>
     <row r="5">
       <c r="A5" s="6" t="n">
-        <v>45566</v>
+        <v>45597</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>44200</v>
+        <v>45900</v>
       </c>
       <c r="C5">
         <f>(B5/B17-1)*100</f>
@@ -487,10 +489,10 @@
     </row>
     <row r="6">
       <c r="A6" s="6" t="n">
-        <v>45536</v>
+        <v>45566</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>41200</v>
+        <v>44200</v>
       </c>
       <c r="C6">
         <f>(B6/B18-1)*100</f>
@@ -499,10 +501,10 @@
     </row>
     <row r="7">
       <c r="A7" s="6" t="n">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>40400</v>
+        <v>41200</v>
       </c>
       <c r="C7">
         <f>(B7/B19-1)*100</f>
@@ -511,10 +513,10 @@
     </row>
     <row r="8">
       <c r="A8" s="6" t="n">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>39600</v>
+        <v>40400</v>
       </c>
       <c r="C8">
         <f>(B8/B20-1)*100</f>
@@ -523,10 +525,10 @@
     </row>
     <row r="9">
       <c r="A9" s="6" t="n">
-        <v>45444</v>
-      </c>
-      <c r="B9" s="5" t="n">
-        <v>39800</v>
+        <v>45474</v>
+      </c>
+      <c r="B9" s="4" t="n">
+        <v>39600</v>
       </c>
       <c r="C9">
         <f>(B9/B21-1)*100</f>
@@ -535,10 +537,10 @@
     </row>
     <row r="10">
       <c r="A10" s="6" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="B10" s="5" t="n">
-        <v>38300</v>
+        <v>39800</v>
       </c>
       <c r="C10">
         <f>(B10/B22-1)*100</f>
@@ -547,10 +549,10 @@
     </row>
     <row r="11">
       <c r="A11" s="6" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="B11" s="5" t="n">
-        <v>38400</v>
+        <v>38300</v>
       </c>
       <c r="C11">
         <f>(B11/B23-1)*100</f>
@@ -559,10 +561,10 @@
     </row>
     <row r="12">
       <c r="A12" s="6" t="n">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="B12" s="5" t="n">
-        <v>39700</v>
+        <v>38400</v>
       </c>
       <c r="C12">
         <f>(B12/B24-1)*100</f>
@@ -571,10 +573,10 @@
     </row>
     <row r="13">
       <c r="A13" s="6" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="B13" s="5" t="n">
-        <v>39400</v>
+        <v>39700</v>
       </c>
       <c r="C13">
         <f>(B13/B25-1)*100</f>
@@ -583,10 +585,10 @@
     </row>
     <row r="14">
       <c r="A14" s="6" t="n">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="B14" s="5" t="n">
-        <v>40300</v>
+        <v>39400</v>
       </c>
       <c r="C14">
         <f>(B14/B26-1)*100</f>
@@ -595,10 +597,10 @@
     </row>
     <row r="15">
       <c r="A15" s="6" t="n">
-        <v>45261</v>
+        <v>45292</v>
       </c>
       <c r="B15" s="5" t="n">
-        <v>38600</v>
+        <v>40300</v>
       </c>
       <c r="C15">
         <f>(B15/B27-1)*100</f>
@@ -607,10 +609,10 @@
     </row>
     <row r="16">
       <c r="A16" s="6" t="n">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="B16" s="5" t="n">
-        <v>35200</v>
+        <v>38600</v>
       </c>
       <c r="C16">
         <f>(B16/B28-1)*100</f>
@@ -619,10 +621,10 @@
     </row>
     <row r="17">
       <c r="A17" s="6" t="n">
-        <v>45200</v>
+        <v>45231</v>
       </c>
       <c r="B17" s="5" t="n">
-        <v>35400</v>
+        <v>35200</v>
       </c>
       <c r="C17">
         <f>(B17/B29-1)*100</f>
@@ -631,10 +633,10 @@
     </row>
     <row r="18">
       <c r="A18" s="6" t="n">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B18" s="5" t="n">
-        <v>38600</v>
+        <v>35400</v>
       </c>
       <c r="C18">
         <f>(B18/B30-1)*100</f>
@@ -643,10 +645,10 @@
     </row>
     <row r="19">
       <c r="A19" s="6" t="n">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B19" s="5" t="n">
-        <v>39800</v>
+        <v>38600</v>
       </c>
       <c r="C19">
         <f>(B19/B31-1)*100</f>
@@ -655,10 +657,10 @@
     </row>
     <row r="20">
       <c r="A20" s="6" t="n">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B20" s="5" t="n">
-        <v>41300</v>
+        <v>39800</v>
       </c>
       <c r="C20">
         <f>(B20/B32-1)*100</f>
@@ -667,10 +669,10 @@
     </row>
     <row r="21">
       <c r="A21" s="6" t="n">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B21" s="5" t="n">
-        <v>41600</v>
+        <v>41300</v>
       </c>
       <c r="C21">
         <f>(B21/B33-1)*100</f>
@@ -679,10 +681,10 @@
     </row>
     <row r="22">
       <c r="A22" s="6" t="n">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B22" s="5" t="n">
-        <v>41700</v>
+        <v>41600</v>
       </c>
       <c r="C22">
         <f>(B22/B34-1)*100</f>
@@ -691,10 +693,10 @@
     </row>
     <row r="23">
       <c r="A23" s="6" t="n">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B23" s="5" t="n">
-        <v>39600</v>
+        <v>41700</v>
       </c>
       <c r="C23">
         <f>(B23/B35-1)*100</f>
@@ -703,10 +705,10 @@
     </row>
     <row r="24">
       <c r="A24" s="6" t="n">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B24" s="5" t="n">
-        <v>35700</v>
+        <v>39600</v>
       </c>
       <c r="C24">
         <f>(B24/B36-1)*100</f>
@@ -715,10 +717,10 @@
     </row>
     <row r="25">
       <c r="A25" s="6" t="n">
-        <v>44958</v>
+        <v>44986</v>
       </c>
       <c r="B25" s="5" t="n">
-        <v>35000</v>
+        <v>35700</v>
       </c>
       <c r="C25">
         <f>(B25/B37-1)*100</f>
@@ -727,10 +729,10 @@
     </row>
     <row r="26">
       <c r="A26" s="6" t="n">
-        <v>44927</v>
-      </c>
-      <c r="B26" s="1" t="n">
-        <v>35700</v>
+        <v>44958</v>
+      </c>
+      <c r="B26" s="5" t="n">
+        <v>35000</v>
       </c>
       <c r="C26">
         <f>(B26/B38-1)*100</f>
@@ -739,7 +741,7 @@
     </row>
     <row r="27">
       <c r="A27" s="6" t="n">
-        <v>44896</v>
+        <v>44927</v>
       </c>
       <c r="B27" s="1" t="n">
         <v>35700</v>
@@ -751,10 +753,10 @@
     </row>
     <row r="28">
       <c r="A28" s="6" t="n">
-        <v>44866</v>
+        <v>44896</v>
       </c>
       <c r="B28" s="1" t="n">
-        <v>35600</v>
+        <v>35700</v>
       </c>
       <c r="C28">
         <f>(B28/B40-1)*100</f>
@@ -763,10 +765,10 @@
     </row>
     <row r="29">
       <c r="A29" s="6" t="n">
-        <v>44835</v>
+        <v>44866</v>
       </c>
       <c r="B29" s="1" t="n">
-        <v>36400</v>
+        <v>35600</v>
       </c>
       <c r="C29">
         <f>(B29/B41-1)*100</f>
@@ -775,10 +777,10 @@
     </row>
     <row r="30">
       <c r="A30" s="6" t="n">
-        <v>44805</v>
+        <v>44835</v>
       </c>
       <c r="B30" s="1" t="n">
-        <v>36200</v>
+        <v>36400</v>
       </c>
       <c r="C30">
         <f>(B30/B42-1)*100</f>
@@ -787,10 +789,10 @@
     </row>
     <row r="31">
       <c r="A31" s="6" t="n">
-        <v>44774</v>
+        <v>44805</v>
       </c>
       <c r="B31" s="1" t="n">
-        <v>37300</v>
+        <v>36200</v>
       </c>
       <c r="C31">
         <f>(B31/B43-1)*100</f>
@@ -799,10 +801,10 @@
     </row>
     <row r="32">
       <c r="A32" s="6" t="n">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="B32" s="1" t="n">
-        <v>37600</v>
+        <v>37300</v>
       </c>
       <c r="C32">
         <f>(B32/B44-1)*100</f>
@@ -811,10 +813,10 @@
     </row>
     <row r="33">
       <c r="A33" s="6" t="n">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="B33" s="1" t="n">
-        <v>39200</v>
+        <v>37600</v>
       </c>
       <c r="C33">
         <f>(B33/B45-1)*100</f>
@@ -823,10 +825,10 @@
     </row>
     <row r="34">
       <c r="A34" s="6" t="n">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="B34" s="1" t="n">
-        <v>41900</v>
+        <v>39200</v>
       </c>
       <c r="C34">
         <f>(B34/B46-1)*100</f>
@@ -835,10 +837,10 @@
     </row>
     <row r="35">
       <c r="A35" s="6" t="n">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="B35" s="1" t="n">
-        <v>46600</v>
+        <v>41900</v>
       </c>
       <c r="C35">
         <f>(B35/B47-1)*100</f>
@@ -847,10 +849,10 @@
     </row>
     <row r="36">
       <c r="A36" s="6" t="n">
-        <v>44621</v>
+        <v>44652</v>
       </c>
       <c r="B36" s="1" t="n">
-        <v>53700</v>
+        <v>46600</v>
       </c>
       <c r="C36">
         <f>(B36/B48-1)*100</f>
@@ -859,10 +861,10 @@
     </row>
     <row r="37">
       <c r="A37" s="6" t="n">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="B37" s="1" t="n">
-        <v>58200</v>
+        <v>53700</v>
       </c>
       <c r="C37">
         <f>(B37/B49-1)*100</f>
@@ -871,10 +873,10 @@
     </row>
     <row r="38">
       <c r="A38" s="6" t="n">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="B38" s="1" t="n">
-        <v>57100</v>
+        <v>58200</v>
       </c>
       <c r="C38">
         <f>(B38/B50-1)*100</f>
@@ -883,10 +885,10 @@
     </row>
     <row r="39">
       <c r="A39" s="6" t="n">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="B39" s="1" t="n">
-        <v>56700</v>
+        <v>57100</v>
       </c>
       <c r="C39">
         <f>(B39/B51-1)*100</f>
@@ -895,10 +897,10 @@
     </row>
     <row r="40">
       <c r="A40" s="6" t="n">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="B40" s="1" t="n">
-        <v>58400</v>
+        <v>56700</v>
       </c>
       <c r="C40">
         <f>(B40/B52-1)*100</f>
@@ -907,10 +909,10 @@
     </row>
     <row r="41">
       <c r="A41" s="6" t="n">
-        <v>44470</v>
+        <v>44501</v>
       </c>
       <c r="B41" s="1" t="n">
-        <v>57400</v>
+        <v>58400</v>
       </c>
       <c r="C41">
         <f>(B41/B53-1)*100</f>
@@ -919,10 +921,10 @@
     </row>
     <row r="42">
       <c r="A42" s="6" t="n">
-        <v>44440</v>
+        <v>44470</v>
       </c>
       <c r="B42" s="1" t="n">
-        <v>53700</v>
+        <v>57400</v>
       </c>
       <c r="C42">
         <f>(B42/B54-1)*100</f>
@@ -931,10 +933,10 @@
     </row>
     <row r="43">
       <c r="A43" s="6" t="n">
-        <v>44409</v>
+        <v>44440</v>
       </c>
       <c r="B43" s="1" t="n">
-        <v>51900</v>
+        <v>53700</v>
       </c>
       <c r="C43">
         <f>(B43/B55-1)*100</f>
@@ -943,10 +945,10 @@
     </row>
     <row r="44">
       <c r="A44" s="6" t="n">
-        <v>44378</v>
+        <v>44409</v>
       </c>
       <c r="B44" s="1" t="n">
-        <v>51800</v>
+        <v>51900</v>
       </c>
       <c r="C44">
         <f>(B44/B56-1)*100</f>
@@ -955,10 +957,10 @@
     </row>
     <row r="45">
       <c r="A45" s="6" t="n">
-        <v>44348</v>
+        <v>44378</v>
       </c>
       <c r="B45" s="1" t="n">
-        <v>52400</v>
+        <v>51800</v>
       </c>
       <c r="C45">
         <f>(B45/B57-1)*100</f>
@@ -967,10 +969,10 @@
     </row>
     <row r="46">
       <c r="A46" s="6" t="n">
-        <v>44317</v>
+        <v>44348</v>
       </c>
       <c r="B46" s="1" t="n">
-        <v>56700</v>
+        <v>52400</v>
       </c>
       <c r="C46">
         <f>(B46/B58-1)*100</f>
@@ -979,10 +981,10 @@
     </row>
     <row r="47">
       <c r="A47" s="6" t="n">
-        <v>44287</v>
+        <v>44317</v>
       </c>
       <c r="B47" s="1" t="n">
-        <v>60300</v>
+        <v>56700</v>
       </c>
       <c r="C47">
         <f>(B47/B59-1)*100</f>
@@ -991,10 +993,10 @@
     </row>
     <row r="48">
       <c r="A48" s="6" t="n">
-        <v>44256</v>
+        <v>44287</v>
       </c>
       <c r="B48" s="1" t="n">
-        <v>66300</v>
+        <v>60300</v>
       </c>
       <c r="C48">
         <f>(B48/B60-1)*100</f>
@@ -1003,10 +1005,10 @@
     </row>
     <row r="49">
       <c r="A49" s="6" t="n">
-        <v>44228</v>
+        <v>44256</v>
       </c>
       <c r="B49" s="1" t="n">
-        <v>62900</v>
+        <v>66300</v>
       </c>
       <c r="C49">
         <f>(B49/B61-1)*100</f>
@@ -1015,10 +1017,10 @@
     </row>
     <row r="50">
       <c r="A50" s="6" t="n">
-        <v>44197</v>
+        <v>44228</v>
       </c>
       <c r="B50" s="1" t="n">
-        <v>62500</v>
+        <v>62900</v>
       </c>
       <c r="C50">
         <f>(B50/B62-1)*100</f>
@@ -1026,7 +1028,12 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="3" t="n"/>
+      <c r="A51" s="6" t="n">
+        <v>44197</v>
+      </c>
+      <c r="B51" s="1" t="n">
+        <v>62500</v>
+      </c>
       <c r="C51">
         <f>(B51/B63-1)*100</f>
         <v/>
@@ -1111,6 +1118,13 @@
     </row>
     <row r="63">
       <c r="A63" s="3" t="n"/>
+      <c r="C63">
+        <f>(B63/B75-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="3" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/home-sales.xlsx
+++ b/data/home-sales.xlsx
@@ -404,7 +404,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C64"/>
+  <dimension ref="A1:C65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-02-01</t>
+          <t>2025-03-01</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -450,37 +450,39 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>2025-02-01</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="C3">
+        <f>(B3/B15-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
           <t>2025-01-01</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B4" t="n">
         <v>66.8</v>
       </c>
-      <c r="C3">
-        <f>(B3/B15-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="6" t="inlineStr">
+      <c r="C4">
+        <f>(B4/B16-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="6" t="inlineStr">
         <is>
           <t>2024-12-01</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B5" t="n">
         <v>43239</v>
-      </c>
-      <c r="C4">
-        <f>(B4/B16-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="6" t="n">
-        <v>45597</v>
-      </c>
-      <c r="B5" s="4" t="n">
-        <v>45900</v>
       </c>
       <c r="C5">
         <f>(B5/B17-1)*100</f>
@@ -489,10 +491,10 @@
     </row>
     <row r="6">
       <c r="A6" s="6" t="n">
-        <v>45566</v>
+        <v>45597</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>44200</v>
+        <v>45900</v>
       </c>
       <c r="C6">
         <f>(B6/B18-1)*100</f>
@@ -501,10 +503,10 @@
     </row>
     <row r="7">
       <c r="A7" s="6" t="n">
-        <v>45536</v>
+        <v>45566</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>41200</v>
+        <v>44200</v>
       </c>
       <c r="C7">
         <f>(B7/B19-1)*100</f>
@@ -513,10 +515,10 @@
     </row>
     <row r="8">
       <c r="A8" s="6" t="n">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>40400</v>
+        <v>41200</v>
       </c>
       <c r="C8">
         <f>(B8/B20-1)*100</f>
@@ -525,10 +527,10 @@
     </row>
     <row r="9">
       <c r="A9" s="6" t="n">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>39600</v>
+        <v>40400</v>
       </c>
       <c r="C9">
         <f>(B9/B21-1)*100</f>
@@ -537,10 +539,10 @@
     </row>
     <row r="10">
       <c r="A10" s="6" t="n">
-        <v>45444</v>
-      </c>
-      <c r="B10" s="5" t="n">
-        <v>39800</v>
+        <v>45474</v>
+      </c>
+      <c r="B10" s="4" t="n">
+        <v>39600</v>
       </c>
       <c r="C10">
         <f>(B10/B22-1)*100</f>
@@ -549,10 +551,10 @@
     </row>
     <row r="11">
       <c r="A11" s="6" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="B11" s="5" t="n">
-        <v>38300</v>
+        <v>39800</v>
       </c>
       <c r="C11">
         <f>(B11/B23-1)*100</f>
@@ -561,10 +563,10 @@
     </row>
     <row r="12">
       <c r="A12" s="6" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="B12" s="5" t="n">
-        <v>38400</v>
+        <v>38300</v>
       </c>
       <c r="C12">
         <f>(B12/B24-1)*100</f>
@@ -573,10 +575,10 @@
     </row>
     <row r="13">
       <c r="A13" s="6" t="n">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="B13" s="5" t="n">
-        <v>39700</v>
+        <v>38400</v>
       </c>
       <c r="C13">
         <f>(B13/B25-1)*100</f>
@@ -585,10 +587,10 @@
     </row>
     <row r="14">
       <c r="A14" s="6" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="B14" s="5" t="n">
-        <v>39400</v>
+        <v>39700</v>
       </c>
       <c r="C14">
         <f>(B14/B26-1)*100</f>
@@ -597,10 +599,10 @@
     </row>
     <row r="15">
       <c r="A15" s="6" t="n">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="B15" s="5" t="n">
-        <v>40300</v>
+        <v>39400</v>
       </c>
       <c r="C15">
         <f>(B15/B27-1)*100</f>
@@ -609,10 +611,10 @@
     </row>
     <row r="16">
       <c r="A16" s="6" t="n">
-        <v>45261</v>
+        <v>45292</v>
       </c>
       <c r="B16" s="5" t="n">
-        <v>38600</v>
+        <v>40300</v>
       </c>
       <c r="C16">
         <f>(B16/B28-1)*100</f>
@@ -621,10 +623,10 @@
     </row>
     <row r="17">
       <c r="A17" s="6" t="n">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="B17" s="5" t="n">
-        <v>35200</v>
+        <v>38600</v>
       </c>
       <c r="C17">
         <f>(B17/B29-1)*100</f>
@@ -633,10 +635,10 @@
     </row>
     <row r="18">
       <c r="A18" s="6" t="n">
-        <v>45200</v>
+        <v>45231</v>
       </c>
       <c r="B18" s="5" t="n">
-        <v>35400</v>
+        <v>35200</v>
       </c>
       <c r="C18">
         <f>(B18/B30-1)*100</f>
@@ -645,10 +647,10 @@
     </row>
     <row r="19">
       <c r="A19" s="6" t="n">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B19" s="5" t="n">
-        <v>38600</v>
+        <v>35400</v>
       </c>
       <c r="C19">
         <f>(B19/B31-1)*100</f>
@@ -657,10 +659,10 @@
     </row>
     <row r="20">
       <c r="A20" s="6" t="n">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B20" s="5" t="n">
-        <v>39800</v>
+        <v>38600</v>
       </c>
       <c r="C20">
         <f>(B20/B32-1)*100</f>
@@ -669,10 +671,10 @@
     </row>
     <row r="21">
       <c r="A21" s="6" t="n">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B21" s="5" t="n">
-        <v>41300</v>
+        <v>39800</v>
       </c>
       <c r="C21">
         <f>(B21/B33-1)*100</f>
@@ -681,10 +683,10 @@
     </row>
     <row r="22">
       <c r="A22" s="6" t="n">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B22" s="5" t="n">
-        <v>41600</v>
+        <v>41300</v>
       </c>
       <c r="C22">
         <f>(B22/B34-1)*100</f>
@@ -693,10 +695,10 @@
     </row>
     <row r="23">
       <c r="A23" s="6" t="n">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B23" s="5" t="n">
-        <v>41700</v>
+        <v>41600</v>
       </c>
       <c r="C23">
         <f>(B23/B35-1)*100</f>
@@ -705,10 +707,10 @@
     </row>
     <row r="24">
       <c r="A24" s="6" t="n">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B24" s="5" t="n">
-        <v>39600</v>
+        <v>41700</v>
       </c>
       <c r="C24">
         <f>(B24/B36-1)*100</f>
@@ -717,10 +719,10 @@
     </row>
     <row r="25">
       <c r="A25" s="6" t="n">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B25" s="5" t="n">
-        <v>35700</v>
+        <v>39600</v>
       </c>
       <c r="C25">
         <f>(B25/B37-1)*100</f>
@@ -729,10 +731,10 @@
     </row>
     <row r="26">
       <c r="A26" s="6" t="n">
-        <v>44958</v>
+        <v>44986</v>
       </c>
       <c r="B26" s="5" t="n">
-        <v>35000</v>
+        <v>35700</v>
       </c>
       <c r="C26">
         <f>(B26/B38-1)*100</f>
@@ -741,10 +743,10 @@
     </row>
     <row r="27">
       <c r="A27" s="6" t="n">
-        <v>44927</v>
-      </c>
-      <c r="B27" s="1" t="n">
-        <v>35700</v>
+        <v>44958</v>
+      </c>
+      <c r="B27" s="5" t="n">
+        <v>35000</v>
       </c>
       <c r="C27">
         <f>(B27/B39-1)*100</f>
@@ -753,7 +755,7 @@
     </row>
     <row r="28">
       <c r="A28" s="6" t="n">
-        <v>44896</v>
+        <v>44927</v>
       </c>
       <c r="B28" s="1" t="n">
         <v>35700</v>
@@ -765,10 +767,10 @@
     </row>
     <row r="29">
       <c r="A29" s="6" t="n">
-        <v>44866</v>
+        <v>44896</v>
       </c>
       <c r="B29" s="1" t="n">
-        <v>35600</v>
+        <v>35700</v>
       </c>
       <c r="C29">
         <f>(B29/B41-1)*100</f>
@@ -777,10 +779,10 @@
     </row>
     <row r="30">
       <c r="A30" s="6" t="n">
-        <v>44835</v>
+        <v>44866</v>
       </c>
       <c r="B30" s="1" t="n">
-        <v>36400</v>
+        <v>35600</v>
       </c>
       <c r="C30">
         <f>(B30/B42-1)*100</f>
@@ -789,10 +791,10 @@
     </row>
     <row r="31">
       <c r="A31" s="6" t="n">
-        <v>44805</v>
+        <v>44835</v>
       </c>
       <c r="B31" s="1" t="n">
-        <v>36200</v>
+        <v>36400</v>
       </c>
       <c r="C31">
         <f>(B31/B43-1)*100</f>
@@ -801,10 +803,10 @@
     </row>
     <row r="32">
       <c r="A32" s="6" t="n">
-        <v>44774</v>
+        <v>44805</v>
       </c>
       <c r="B32" s="1" t="n">
-        <v>37300</v>
+        <v>36200</v>
       </c>
       <c r="C32">
         <f>(B32/B44-1)*100</f>
@@ -813,10 +815,10 @@
     </row>
     <row r="33">
       <c r="A33" s="6" t="n">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="B33" s="1" t="n">
-        <v>37600</v>
+        <v>37300</v>
       </c>
       <c r="C33">
         <f>(B33/B45-1)*100</f>
@@ -825,10 +827,10 @@
     </row>
     <row r="34">
       <c r="A34" s="6" t="n">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="B34" s="1" t="n">
-        <v>39200</v>
+        <v>37600</v>
       </c>
       <c r="C34">
         <f>(B34/B46-1)*100</f>
@@ -837,10 +839,10 @@
     </row>
     <row r="35">
       <c r="A35" s="6" t="n">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="B35" s="1" t="n">
-        <v>41900</v>
+        <v>39200</v>
       </c>
       <c r="C35">
         <f>(B35/B47-1)*100</f>
@@ -849,10 +851,10 @@
     </row>
     <row r="36">
       <c r="A36" s="6" t="n">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="B36" s="1" t="n">
-        <v>46600</v>
+        <v>41900</v>
       </c>
       <c r="C36">
         <f>(B36/B48-1)*100</f>
@@ -861,10 +863,10 @@
     </row>
     <row r="37">
       <c r="A37" s="6" t="n">
-        <v>44621</v>
+        <v>44652</v>
       </c>
       <c r="B37" s="1" t="n">
-        <v>53700</v>
+        <v>46600</v>
       </c>
       <c r="C37">
         <f>(B37/B49-1)*100</f>
@@ -873,10 +875,10 @@
     </row>
     <row r="38">
       <c r="A38" s="6" t="n">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="B38" s="1" t="n">
-        <v>58200</v>
+        <v>53700</v>
       </c>
       <c r="C38">
         <f>(B38/B50-1)*100</f>
@@ -885,10 +887,10 @@
     </row>
     <row r="39">
       <c r="A39" s="6" t="n">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="B39" s="1" t="n">
-        <v>57100</v>
+        <v>58200</v>
       </c>
       <c r="C39">
         <f>(B39/B51-1)*100</f>
@@ -897,10 +899,10 @@
     </row>
     <row r="40">
       <c r="A40" s="6" t="n">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="B40" s="1" t="n">
-        <v>56700</v>
+        <v>57100</v>
       </c>
       <c r="C40">
         <f>(B40/B52-1)*100</f>
@@ -909,10 +911,10 @@
     </row>
     <row r="41">
       <c r="A41" s="6" t="n">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="B41" s="1" t="n">
-        <v>58400</v>
+        <v>56700</v>
       </c>
       <c r="C41">
         <f>(B41/B53-1)*100</f>
@@ -921,10 +923,10 @@
     </row>
     <row r="42">
       <c r="A42" s="6" t="n">
-        <v>44470</v>
+        <v>44501</v>
       </c>
       <c r="B42" s="1" t="n">
-        <v>57400</v>
+        <v>58400</v>
       </c>
       <c r="C42">
         <f>(B42/B54-1)*100</f>
@@ -933,10 +935,10 @@
     </row>
     <row r="43">
       <c r="A43" s="6" t="n">
-        <v>44440</v>
+        <v>44470</v>
       </c>
       <c r="B43" s="1" t="n">
-        <v>53700</v>
+        <v>57400</v>
       </c>
       <c r="C43">
         <f>(B43/B55-1)*100</f>
@@ -945,10 +947,10 @@
     </row>
     <row r="44">
       <c r="A44" s="6" t="n">
-        <v>44409</v>
+        <v>44440</v>
       </c>
       <c r="B44" s="1" t="n">
-        <v>51900</v>
+        <v>53700</v>
       </c>
       <c r="C44">
         <f>(B44/B56-1)*100</f>
@@ -957,10 +959,10 @@
     </row>
     <row r="45">
       <c r="A45" s="6" t="n">
-        <v>44378</v>
+        <v>44409</v>
       </c>
       <c r="B45" s="1" t="n">
-        <v>51800</v>
+        <v>51900</v>
       </c>
       <c r="C45">
         <f>(B45/B57-1)*100</f>
@@ -969,10 +971,10 @@
     </row>
     <row r="46">
       <c r="A46" s="6" t="n">
-        <v>44348</v>
+        <v>44378</v>
       </c>
       <c r="B46" s="1" t="n">
-        <v>52400</v>
+        <v>51800</v>
       </c>
       <c r="C46">
         <f>(B46/B58-1)*100</f>
@@ -981,10 +983,10 @@
     </row>
     <row r="47">
       <c r="A47" s="6" t="n">
-        <v>44317</v>
+        <v>44348</v>
       </c>
       <c r="B47" s="1" t="n">
-        <v>56700</v>
+        <v>52400</v>
       </c>
       <c r="C47">
         <f>(B47/B59-1)*100</f>
@@ -993,10 +995,10 @@
     </row>
     <row r="48">
       <c r="A48" s="6" t="n">
-        <v>44287</v>
+        <v>44317</v>
       </c>
       <c r="B48" s="1" t="n">
-        <v>60300</v>
+        <v>56700</v>
       </c>
       <c r="C48">
         <f>(B48/B60-1)*100</f>
@@ -1005,10 +1007,10 @@
     </row>
     <row r="49">
       <c r="A49" s="6" t="n">
-        <v>44256</v>
+        <v>44287</v>
       </c>
       <c r="B49" s="1" t="n">
-        <v>66300</v>
+        <v>60300</v>
       </c>
       <c r="C49">
         <f>(B49/B61-1)*100</f>
@@ -1017,10 +1019,10 @@
     </row>
     <row r="50">
       <c r="A50" s="6" t="n">
-        <v>44228</v>
+        <v>44256</v>
       </c>
       <c r="B50" s="1" t="n">
-        <v>62900</v>
+        <v>66300</v>
       </c>
       <c r="C50">
         <f>(B50/B62-1)*100</f>
@@ -1029,10 +1031,10 @@
     </row>
     <row r="51">
       <c r="A51" s="6" t="n">
-        <v>44197</v>
+        <v>44228</v>
       </c>
       <c r="B51" s="1" t="n">
-        <v>62500</v>
+        <v>62900</v>
       </c>
       <c r="C51">
         <f>(B51/B63-1)*100</f>
@@ -1040,7 +1042,12 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="3" t="n"/>
+      <c r="A52" s="6" t="n">
+        <v>44197</v>
+      </c>
+      <c r="B52" s="1" t="n">
+        <v>62500</v>
+      </c>
       <c r="C52">
         <f>(B52/B64-1)*100</f>
         <v/>
@@ -1125,6 +1132,13 @@
     </row>
     <row r="64">
       <c r="A64" s="3" t="n"/>
+      <c r="C64">
+        <f>(B64/B76-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="3" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/home-sales.xlsx
+++ b/data/home-sales.xlsx
@@ -404,7 +404,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C65"/>
+  <dimension ref="A1:C66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-03-01</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -450,7 +450,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-02-01</t>
+          <t>2025-03-01</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -464,37 +464,39 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>2025-02-01</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="C4">
+        <f>(B4/B16-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>2025-01-01</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B5" t="n">
         <v>66.8</v>
       </c>
-      <c r="C4">
-        <f>(B4/B16-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="6" t="inlineStr">
+      <c r="C5">
+        <f>(B5/B17-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="6" t="inlineStr">
         <is>
           <t>2024-12-01</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B6" t="n">
         <v>43239</v>
-      </c>
-      <c r="C5">
-        <f>(B5/B17-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="6" t="n">
-        <v>45597</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>45900</v>
       </c>
       <c r="C6">
         <f>(B6/B18-1)*100</f>
@@ -503,10 +505,10 @@
     </row>
     <row r="7">
       <c r="A7" s="6" t="n">
-        <v>45566</v>
+        <v>45597</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>44200</v>
+        <v>45900</v>
       </c>
       <c r="C7">
         <f>(B7/B19-1)*100</f>
@@ -515,10 +517,10 @@
     </row>
     <row r="8">
       <c r="A8" s="6" t="n">
-        <v>45536</v>
+        <v>45566</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>41200</v>
+        <v>44200</v>
       </c>
       <c r="C8">
         <f>(B8/B20-1)*100</f>
@@ -527,10 +529,10 @@
     </row>
     <row r="9">
       <c r="A9" s="6" t="n">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>40400</v>
+        <v>41200</v>
       </c>
       <c r="C9">
         <f>(B9/B21-1)*100</f>
@@ -539,10 +541,10 @@
     </row>
     <row r="10">
       <c r="A10" s="6" t="n">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>39600</v>
+        <v>40400</v>
       </c>
       <c r="C10">
         <f>(B10/B22-1)*100</f>
@@ -551,10 +553,10 @@
     </row>
     <row r="11">
       <c r="A11" s="6" t="n">
-        <v>45444</v>
-      </c>
-      <c r="B11" s="5" t="n">
-        <v>39800</v>
+        <v>45474</v>
+      </c>
+      <c r="B11" s="4" t="n">
+        <v>39600</v>
       </c>
       <c r="C11">
         <f>(B11/B23-1)*100</f>
@@ -563,10 +565,10 @@
     </row>
     <row r="12">
       <c r="A12" s="6" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="B12" s="5" t="n">
-        <v>38300</v>
+        <v>39800</v>
       </c>
       <c r="C12">
         <f>(B12/B24-1)*100</f>
@@ -575,10 +577,10 @@
     </row>
     <row r="13">
       <c r="A13" s="6" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="B13" s="5" t="n">
-        <v>38400</v>
+        <v>38300</v>
       </c>
       <c r="C13">
         <f>(B13/B25-1)*100</f>
@@ -587,10 +589,10 @@
     </row>
     <row r="14">
       <c r="A14" s="6" t="n">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="B14" s="5" t="n">
-        <v>39700</v>
+        <v>38400</v>
       </c>
       <c r="C14">
         <f>(B14/B26-1)*100</f>
@@ -599,10 +601,10 @@
     </row>
     <row r="15">
       <c r="A15" s="6" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="B15" s="5" t="n">
-        <v>39400</v>
+        <v>39700</v>
       </c>
       <c r="C15">
         <f>(B15/B27-1)*100</f>
@@ -611,10 +613,10 @@
     </row>
     <row r="16">
       <c r="A16" s="6" t="n">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="B16" s="5" t="n">
-        <v>40300</v>
+        <v>39400</v>
       </c>
       <c r="C16">
         <f>(B16/B28-1)*100</f>
@@ -623,10 +625,10 @@
     </row>
     <row r="17">
       <c r="A17" s="6" t="n">
-        <v>45261</v>
+        <v>45292</v>
       </c>
       <c r="B17" s="5" t="n">
-        <v>38600</v>
+        <v>40300</v>
       </c>
       <c r="C17">
         <f>(B17/B29-1)*100</f>
@@ -635,10 +637,10 @@
     </row>
     <row r="18">
       <c r="A18" s="6" t="n">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="B18" s="5" t="n">
-        <v>35200</v>
+        <v>38600</v>
       </c>
       <c r="C18">
         <f>(B18/B30-1)*100</f>
@@ -647,10 +649,10 @@
     </row>
     <row r="19">
       <c r="A19" s="6" t="n">
-        <v>45200</v>
+        <v>45231</v>
       </c>
       <c r="B19" s="5" t="n">
-        <v>35400</v>
+        <v>35200</v>
       </c>
       <c r="C19">
         <f>(B19/B31-1)*100</f>
@@ -659,10 +661,10 @@
     </row>
     <row r="20">
       <c r="A20" s="6" t="n">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B20" s="5" t="n">
-        <v>38600</v>
+        <v>35400</v>
       </c>
       <c r="C20">
         <f>(B20/B32-1)*100</f>
@@ -671,10 +673,10 @@
     </row>
     <row r="21">
       <c r="A21" s="6" t="n">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B21" s="5" t="n">
-        <v>39800</v>
+        <v>38600</v>
       </c>
       <c r="C21">
         <f>(B21/B33-1)*100</f>
@@ -683,10 +685,10 @@
     </row>
     <row r="22">
       <c r="A22" s="6" t="n">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B22" s="5" t="n">
-        <v>41300</v>
+        <v>39800</v>
       </c>
       <c r="C22">
         <f>(B22/B34-1)*100</f>
@@ -695,10 +697,10 @@
     </row>
     <row r="23">
       <c r="A23" s="6" t="n">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B23" s="5" t="n">
-        <v>41600</v>
+        <v>41300</v>
       </c>
       <c r="C23">
         <f>(B23/B35-1)*100</f>
@@ -707,10 +709,10 @@
     </row>
     <row r="24">
       <c r="A24" s="6" t="n">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B24" s="5" t="n">
-        <v>41700</v>
+        <v>41600</v>
       </c>
       <c r="C24">
         <f>(B24/B36-1)*100</f>
@@ -719,10 +721,10 @@
     </row>
     <row r="25">
       <c r="A25" s="6" t="n">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B25" s="5" t="n">
-        <v>39600</v>
+        <v>41700</v>
       </c>
       <c r="C25">
         <f>(B25/B37-1)*100</f>
@@ -731,10 +733,10 @@
     </row>
     <row r="26">
       <c r="A26" s="6" t="n">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B26" s="5" t="n">
-        <v>35700</v>
+        <v>39600</v>
       </c>
       <c r="C26">
         <f>(B26/B38-1)*100</f>
@@ -743,10 +745,10 @@
     </row>
     <row r="27">
       <c r="A27" s="6" t="n">
-        <v>44958</v>
+        <v>44986</v>
       </c>
       <c r="B27" s="5" t="n">
-        <v>35000</v>
+        <v>35700</v>
       </c>
       <c r="C27">
         <f>(B27/B39-1)*100</f>
@@ -755,10 +757,10 @@
     </row>
     <row r="28">
       <c r="A28" s="6" t="n">
-        <v>44927</v>
-      </c>
-      <c r="B28" s="1" t="n">
-        <v>35700</v>
+        <v>44958</v>
+      </c>
+      <c r="B28" s="5" t="n">
+        <v>35000</v>
       </c>
       <c r="C28">
         <f>(B28/B40-1)*100</f>
@@ -767,7 +769,7 @@
     </row>
     <row r="29">
       <c r="A29" s="6" t="n">
-        <v>44896</v>
+        <v>44927</v>
       </c>
       <c r="B29" s="1" t="n">
         <v>35700</v>
@@ -779,10 +781,10 @@
     </row>
     <row r="30">
       <c r="A30" s="6" t="n">
-        <v>44866</v>
+        <v>44896</v>
       </c>
       <c r="B30" s="1" t="n">
-        <v>35600</v>
+        <v>35700</v>
       </c>
       <c r="C30">
         <f>(B30/B42-1)*100</f>
@@ -791,10 +793,10 @@
     </row>
     <row r="31">
       <c r="A31" s="6" t="n">
-        <v>44835</v>
+        <v>44866</v>
       </c>
       <c r="B31" s="1" t="n">
-        <v>36400</v>
+        <v>35600</v>
       </c>
       <c r="C31">
         <f>(B31/B43-1)*100</f>
@@ -803,10 +805,10 @@
     </row>
     <row r="32">
       <c r="A32" s="6" t="n">
-        <v>44805</v>
+        <v>44835</v>
       </c>
       <c r="B32" s="1" t="n">
-        <v>36200</v>
+        <v>36400</v>
       </c>
       <c r="C32">
         <f>(B32/B44-1)*100</f>
@@ -815,10 +817,10 @@
     </row>
     <row r="33">
       <c r="A33" s="6" t="n">
-        <v>44774</v>
+        <v>44805</v>
       </c>
       <c r="B33" s="1" t="n">
-        <v>37300</v>
+        <v>36200</v>
       </c>
       <c r="C33">
         <f>(B33/B45-1)*100</f>
@@ -827,10 +829,10 @@
     </row>
     <row r="34">
       <c r="A34" s="6" t="n">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="B34" s="1" t="n">
-        <v>37600</v>
+        <v>37300</v>
       </c>
       <c r="C34">
         <f>(B34/B46-1)*100</f>
@@ -839,10 +841,10 @@
     </row>
     <row r="35">
       <c r="A35" s="6" t="n">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="B35" s="1" t="n">
-        <v>39200</v>
+        <v>37600</v>
       </c>
       <c r="C35">
         <f>(B35/B47-1)*100</f>
@@ -851,10 +853,10 @@
     </row>
     <row r="36">
       <c r="A36" s="6" t="n">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="B36" s="1" t="n">
-        <v>41900</v>
+        <v>39200</v>
       </c>
       <c r="C36">
         <f>(B36/B48-1)*100</f>
@@ -863,10 +865,10 @@
     </row>
     <row r="37">
       <c r="A37" s="6" t="n">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="B37" s="1" t="n">
-        <v>46600</v>
+        <v>41900</v>
       </c>
       <c r="C37">
         <f>(B37/B49-1)*100</f>
@@ -875,10 +877,10 @@
     </row>
     <row r="38">
       <c r="A38" s="6" t="n">
-        <v>44621</v>
+        <v>44652</v>
       </c>
       <c r="B38" s="1" t="n">
-        <v>53700</v>
+        <v>46600</v>
       </c>
       <c r="C38">
         <f>(B38/B50-1)*100</f>
@@ -887,10 +889,10 @@
     </row>
     <row r="39">
       <c r="A39" s="6" t="n">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="B39" s="1" t="n">
-        <v>58200</v>
+        <v>53700</v>
       </c>
       <c r="C39">
         <f>(B39/B51-1)*100</f>
@@ -899,10 +901,10 @@
     </row>
     <row r="40">
       <c r="A40" s="6" t="n">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="B40" s="1" t="n">
-        <v>57100</v>
+        <v>58200</v>
       </c>
       <c r="C40">
         <f>(B40/B52-1)*100</f>
@@ -911,10 +913,10 @@
     </row>
     <row r="41">
       <c r="A41" s="6" t="n">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="B41" s="1" t="n">
-        <v>56700</v>
+        <v>57100</v>
       </c>
       <c r="C41">
         <f>(B41/B53-1)*100</f>
@@ -923,10 +925,10 @@
     </row>
     <row r="42">
       <c r="A42" s="6" t="n">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="B42" s="1" t="n">
-        <v>58400</v>
+        <v>56700</v>
       </c>
       <c r="C42">
         <f>(B42/B54-1)*100</f>
@@ -935,10 +937,10 @@
     </row>
     <row r="43">
       <c r="A43" s="6" t="n">
-        <v>44470</v>
+        <v>44501</v>
       </c>
       <c r="B43" s="1" t="n">
-        <v>57400</v>
+        <v>58400</v>
       </c>
       <c r="C43">
         <f>(B43/B55-1)*100</f>
@@ -947,10 +949,10 @@
     </row>
     <row r="44">
       <c r="A44" s="6" t="n">
-        <v>44440</v>
+        <v>44470</v>
       </c>
       <c r="B44" s="1" t="n">
-        <v>53700</v>
+        <v>57400</v>
       </c>
       <c r="C44">
         <f>(B44/B56-1)*100</f>
@@ -959,10 +961,10 @@
     </row>
     <row r="45">
       <c r="A45" s="6" t="n">
-        <v>44409</v>
+        <v>44440</v>
       </c>
       <c r="B45" s="1" t="n">
-        <v>51900</v>
+        <v>53700</v>
       </c>
       <c r="C45">
         <f>(B45/B57-1)*100</f>
@@ -971,10 +973,10 @@
     </row>
     <row r="46">
       <c r="A46" s="6" t="n">
-        <v>44378</v>
+        <v>44409</v>
       </c>
       <c r="B46" s="1" t="n">
-        <v>51800</v>
+        <v>51900</v>
       </c>
       <c r="C46">
         <f>(B46/B58-1)*100</f>
@@ -983,10 +985,10 @@
     </row>
     <row r="47">
       <c r="A47" s="6" t="n">
-        <v>44348</v>
+        <v>44378</v>
       </c>
       <c r="B47" s="1" t="n">
-        <v>52400</v>
+        <v>51800</v>
       </c>
       <c r="C47">
         <f>(B47/B59-1)*100</f>
@@ -995,10 +997,10 @@
     </row>
     <row r="48">
       <c r="A48" s="6" t="n">
-        <v>44317</v>
+        <v>44348</v>
       </c>
       <c r="B48" s="1" t="n">
-        <v>56700</v>
+        <v>52400</v>
       </c>
       <c r="C48">
         <f>(B48/B60-1)*100</f>
@@ -1007,10 +1009,10 @@
     </row>
     <row r="49">
       <c r="A49" s="6" t="n">
-        <v>44287</v>
+        <v>44317</v>
       </c>
       <c r="B49" s="1" t="n">
-        <v>60300</v>
+        <v>56700</v>
       </c>
       <c r="C49">
         <f>(B49/B61-1)*100</f>
@@ -1019,10 +1021,10 @@
     </row>
     <row r="50">
       <c r="A50" s="6" t="n">
-        <v>44256</v>
+        <v>44287</v>
       </c>
       <c r="B50" s="1" t="n">
-        <v>66300</v>
+        <v>60300</v>
       </c>
       <c r="C50">
         <f>(B50/B62-1)*100</f>
@@ -1031,10 +1033,10 @@
     </row>
     <row r="51">
       <c r="A51" s="6" t="n">
-        <v>44228</v>
+        <v>44256</v>
       </c>
       <c r="B51" s="1" t="n">
-        <v>62900</v>
+        <v>66300</v>
       </c>
       <c r="C51">
         <f>(B51/B63-1)*100</f>
@@ -1043,10 +1045,10 @@
     </row>
     <row r="52">
       <c r="A52" s="6" t="n">
-        <v>44197</v>
+        <v>44228</v>
       </c>
       <c r="B52" s="1" t="n">
-        <v>62500</v>
+        <v>62900</v>
       </c>
       <c r="C52">
         <f>(B52/B64-1)*100</f>
@@ -1054,7 +1056,12 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="3" t="n"/>
+      <c r="A53" s="6" t="n">
+        <v>44197</v>
+      </c>
+      <c r="B53" s="1" t="n">
+        <v>62500</v>
+      </c>
       <c r="C53">
         <f>(B53/B65-1)*100</f>
         <v/>
@@ -1139,6 +1146,13 @@
     </row>
     <row r="65">
       <c r="A65" s="3" t="n"/>
+      <c r="C65">
+        <f>(B65/B77-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="3" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/home-sales.xlsx
+++ b/data/home-sales.xlsx
@@ -404,7 +404,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C66"/>
+  <dimension ref="A1:C67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,11 +436,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-05-01</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>66.8</v>
+        <v>37626</v>
       </c>
       <c r="C2">
         <f>(B2/B14-1)*100</f>
@@ -450,7 +450,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-03-01</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -464,7 +464,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-02-01</t>
+          <t>2025-03-01</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -478,37 +478,39 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>2025-02-01</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="C5">
+        <f>(B5/B17-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
           <t>2025-01-01</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B6" t="n">
         <v>66.8</v>
       </c>
-      <c r="C5">
-        <f>(B5/B17-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="6" t="inlineStr">
+      <c r="C6">
+        <f>(B6/B18-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="6" t="inlineStr">
         <is>
           <t>2024-12-01</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B7" t="n">
         <v>43239</v>
-      </c>
-      <c r="C6">
-        <f>(B6/B18-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="6" t="n">
-        <v>45597</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>45900</v>
       </c>
       <c r="C7">
         <f>(B7/B19-1)*100</f>
@@ -517,10 +519,10 @@
     </row>
     <row r="8">
       <c r="A8" s="6" t="n">
-        <v>45566</v>
+        <v>45597</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>44200</v>
+        <v>45900</v>
       </c>
       <c r="C8">
         <f>(B8/B20-1)*100</f>
@@ -529,10 +531,10 @@
     </row>
     <row r="9">
       <c r="A9" s="6" t="n">
-        <v>45536</v>
+        <v>45566</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>41200</v>
+        <v>44200</v>
       </c>
       <c r="C9">
         <f>(B9/B21-1)*100</f>
@@ -541,10 +543,10 @@
     </row>
     <row r="10">
       <c r="A10" s="6" t="n">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>40400</v>
+        <v>41200</v>
       </c>
       <c r="C10">
         <f>(B10/B22-1)*100</f>
@@ -553,10 +555,10 @@
     </row>
     <row r="11">
       <c r="A11" s="6" t="n">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="B11" s="4" t="n">
-        <v>39600</v>
+        <v>40400</v>
       </c>
       <c r="C11">
         <f>(B11/B23-1)*100</f>
@@ -565,10 +567,10 @@
     </row>
     <row r="12">
       <c r="A12" s="6" t="n">
-        <v>45444</v>
-      </c>
-      <c r="B12" s="5" t="n">
-        <v>39800</v>
+        <v>45474</v>
+      </c>
+      <c r="B12" s="4" t="n">
+        <v>39600</v>
       </c>
       <c r="C12">
         <f>(B12/B24-1)*100</f>
@@ -577,10 +579,10 @@
     </row>
     <row r="13">
       <c r="A13" s="6" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="B13" s="5" t="n">
-        <v>38300</v>
+        <v>39800</v>
       </c>
       <c r="C13">
         <f>(B13/B25-1)*100</f>
@@ -589,10 +591,10 @@
     </row>
     <row r="14">
       <c r="A14" s="6" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="B14" s="5" t="n">
-        <v>38400</v>
+        <v>38300</v>
       </c>
       <c r="C14">
         <f>(B14/B26-1)*100</f>
@@ -601,10 +603,10 @@
     </row>
     <row r="15">
       <c r="A15" s="6" t="n">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="B15" s="5" t="n">
-        <v>39700</v>
+        <v>38400</v>
       </c>
       <c r="C15">
         <f>(B15/B27-1)*100</f>
@@ -613,10 +615,10 @@
     </row>
     <row r="16">
       <c r="A16" s="6" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="B16" s="5" t="n">
-        <v>39400</v>
+        <v>39700</v>
       </c>
       <c r="C16">
         <f>(B16/B28-1)*100</f>
@@ -625,10 +627,10 @@
     </row>
     <row r="17">
       <c r="A17" s="6" t="n">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="B17" s="5" t="n">
-        <v>40300</v>
+        <v>39400</v>
       </c>
       <c r="C17">
         <f>(B17/B29-1)*100</f>
@@ -637,10 +639,10 @@
     </row>
     <row r="18">
       <c r="A18" s="6" t="n">
-        <v>45261</v>
+        <v>45292</v>
       </c>
       <c r="B18" s="5" t="n">
-        <v>38600</v>
+        <v>40300</v>
       </c>
       <c r="C18">
         <f>(B18/B30-1)*100</f>
@@ -649,10 +651,10 @@
     </row>
     <row r="19">
       <c r="A19" s="6" t="n">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="B19" s="5" t="n">
-        <v>35200</v>
+        <v>38600</v>
       </c>
       <c r="C19">
         <f>(B19/B31-1)*100</f>
@@ -661,10 +663,10 @@
     </row>
     <row r="20">
       <c r="A20" s="6" t="n">
-        <v>45200</v>
+        <v>45231</v>
       </c>
       <c r="B20" s="5" t="n">
-        <v>35400</v>
+        <v>35200</v>
       </c>
       <c r="C20">
         <f>(B20/B32-1)*100</f>
@@ -673,10 +675,10 @@
     </row>
     <row r="21">
       <c r="A21" s="6" t="n">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B21" s="5" t="n">
-        <v>38600</v>
+        <v>35400</v>
       </c>
       <c r="C21">
         <f>(B21/B33-1)*100</f>
@@ -685,10 +687,10 @@
     </row>
     <row r="22">
       <c r="A22" s="6" t="n">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B22" s="5" t="n">
-        <v>39800</v>
+        <v>38600</v>
       </c>
       <c r="C22">
         <f>(B22/B34-1)*100</f>
@@ -697,10 +699,10 @@
     </row>
     <row r="23">
       <c r="A23" s="6" t="n">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B23" s="5" t="n">
-        <v>41300</v>
+        <v>39800</v>
       </c>
       <c r="C23">
         <f>(B23/B35-1)*100</f>
@@ -709,10 +711,10 @@
     </row>
     <row r="24">
       <c r="A24" s="6" t="n">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B24" s="5" t="n">
-        <v>41600</v>
+        <v>41300</v>
       </c>
       <c r="C24">
         <f>(B24/B36-1)*100</f>
@@ -721,10 +723,10 @@
     </row>
     <row r="25">
       <c r="A25" s="6" t="n">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B25" s="5" t="n">
-        <v>41700</v>
+        <v>41600</v>
       </c>
       <c r="C25">
         <f>(B25/B37-1)*100</f>
@@ -733,10 +735,10 @@
     </row>
     <row r="26">
       <c r="A26" s="6" t="n">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B26" s="5" t="n">
-        <v>39600</v>
+        <v>41700</v>
       </c>
       <c r="C26">
         <f>(B26/B38-1)*100</f>
@@ -745,10 +747,10 @@
     </row>
     <row r="27">
       <c r="A27" s="6" t="n">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B27" s="5" t="n">
-        <v>35700</v>
+        <v>39600</v>
       </c>
       <c r="C27">
         <f>(B27/B39-1)*100</f>
@@ -757,10 +759,10 @@
     </row>
     <row r="28">
       <c r="A28" s="6" t="n">
-        <v>44958</v>
+        <v>44986</v>
       </c>
       <c r="B28" s="5" t="n">
-        <v>35000</v>
+        <v>35700</v>
       </c>
       <c r="C28">
         <f>(B28/B40-1)*100</f>
@@ -769,10 +771,10 @@
     </row>
     <row r="29">
       <c r="A29" s="6" t="n">
-        <v>44927</v>
-      </c>
-      <c r="B29" s="1" t="n">
-        <v>35700</v>
+        <v>44958</v>
+      </c>
+      <c r="B29" s="5" t="n">
+        <v>35000</v>
       </c>
       <c r="C29">
         <f>(B29/B41-1)*100</f>
@@ -781,7 +783,7 @@
     </row>
     <row r="30">
       <c r="A30" s="6" t="n">
-        <v>44896</v>
+        <v>44927</v>
       </c>
       <c r="B30" s="1" t="n">
         <v>35700</v>
@@ -793,10 +795,10 @@
     </row>
     <row r="31">
       <c r="A31" s="6" t="n">
-        <v>44866</v>
+        <v>44896</v>
       </c>
       <c r="B31" s="1" t="n">
-        <v>35600</v>
+        <v>35700</v>
       </c>
       <c r="C31">
         <f>(B31/B43-1)*100</f>
@@ -805,10 +807,10 @@
     </row>
     <row r="32">
       <c r="A32" s="6" t="n">
-        <v>44835</v>
+        <v>44866</v>
       </c>
       <c r="B32" s="1" t="n">
-        <v>36400</v>
+        <v>35600</v>
       </c>
       <c r="C32">
         <f>(B32/B44-1)*100</f>
@@ -817,10 +819,10 @@
     </row>
     <row r="33">
       <c r="A33" s="6" t="n">
-        <v>44805</v>
+        <v>44835</v>
       </c>
       <c r="B33" s="1" t="n">
-        <v>36200</v>
+        <v>36400</v>
       </c>
       <c r="C33">
         <f>(B33/B45-1)*100</f>
@@ -829,10 +831,10 @@
     </row>
     <row r="34">
       <c r="A34" s="6" t="n">
-        <v>44774</v>
+        <v>44805</v>
       </c>
       <c r="B34" s="1" t="n">
-        <v>37300</v>
+        <v>36200</v>
       </c>
       <c r="C34">
         <f>(B34/B46-1)*100</f>
@@ -841,10 +843,10 @@
     </row>
     <row r="35">
       <c r="A35" s="6" t="n">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="B35" s="1" t="n">
-        <v>37600</v>
+        <v>37300</v>
       </c>
       <c r="C35">
         <f>(B35/B47-1)*100</f>
@@ -853,10 +855,10 @@
     </row>
     <row r="36">
       <c r="A36" s="6" t="n">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="B36" s="1" t="n">
-        <v>39200</v>
+        <v>37600</v>
       </c>
       <c r="C36">
         <f>(B36/B48-1)*100</f>
@@ -865,10 +867,10 @@
     </row>
     <row r="37">
       <c r="A37" s="6" t="n">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="B37" s="1" t="n">
-        <v>41900</v>
+        <v>39200</v>
       </c>
       <c r="C37">
         <f>(B37/B49-1)*100</f>
@@ -877,10 +879,10 @@
     </row>
     <row r="38">
       <c r="A38" s="6" t="n">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="B38" s="1" t="n">
-        <v>46600</v>
+        <v>41900</v>
       </c>
       <c r="C38">
         <f>(B38/B50-1)*100</f>
@@ -889,10 +891,10 @@
     </row>
     <row r="39">
       <c r="A39" s="6" t="n">
-        <v>44621</v>
+        <v>44652</v>
       </c>
       <c r="B39" s="1" t="n">
-        <v>53700</v>
+        <v>46600</v>
       </c>
       <c r="C39">
         <f>(B39/B51-1)*100</f>
@@ -901,10 +903,10 @@
     </row>
     <row r="40">
       <c r="A40" s="6" t="n">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="B40" s="1" t="n">
-        <v>58200</v>
+        <v>53700</v>
       </c>
       <c r="C40">
         <f>(B40/B52-1)*100</f>
@@ -913,10 +915,10 @@
     </row>
     <row r="41">
       <c r="A41" s="6" t="n">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="B41" s="1" t="n">
-        <v>57100</v>
+        <v>58200</v>
       </c>
       <c r="C41">
         <f>(B41/B53-1)*100</f>
@@ -925,10 +927,10 @@
     </row>
     <row r="42">
       <c r="A42" s="6" t="n">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="B42" s="1" t="n">
-        <v>56700</v>
+        <v>57100</v>
       </c>
       <c r="C42">
         <f>(B42/B54-1)*100</f>
@@ -937,10 +939,10 @@
     </row>
     <row r="43">
       <c r="A43" s="6" t="n">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="B43" s="1" t="n">
-        <v>58400</v>
+        <v>56700</v>
       </c>
       <c r="C43">
         <f>(B43/B55-1)*100</f>
@@ -949,10 +951,10 @@
     </row>
     <row r="44">
       <c r="A44" s="6" t="n">
-        <v>44470</v>
+        <v>44501</v>
       </c>
       <c r="B44" s="1" t="n">
-        <v>57400</v>
+        <v>58400</v>
       </c>
       <c r="C44">
         <f>(B44/B56-1)*100</f>
@@ -961,10 +963,10 @@
     </row>
     <row r="45">
       <c r="A45" s="6" t="n">
-        <v>44440</v>
+        <v>44470</v>
       </c>
       <c r="B45" s="1" t="n">
-        <v>53700</v>
+        <v>57400</v>
       </c>
       <c r="C45">
         <f>(B45/B57-1)*100</f>
@@ -973,10 +975,10 @@
     </row>
     <row r="46">
       <c r="A46" s="6" t="n">
-        <v>44409</v>
+        <v>44440</v>
       </c>
       <c r="B46" s="1" t="n">
-        <v>51900</v>
+        <v>53700</v>
       </c>
       <c r="C46">
         <f>(B46/B58-1)*100</f>
@@ -985,10 +987,10 @@
     </row>
     <row r="47">
       <c r="A47" s="6" t="n">
-        <v>44378</v>
+        <v>44409</v>
       </c>
       <c r="B47" s="1" t="n">
-        <v>51800</v>
+        <v>51900</v>
       </c>
       <c r="C47">
         <f>(B47/B59-1)*100</f>
@@ -997,10 +999,10 @@
     </row>
     <row r="48">
       <c r="A48" s="6" t="n">
-        <v>44348</v>
+        <v>44378</v>
       </c>
       <c r="B48" s="1" t="n">
-        <v>52400</v>
+        <v>51800</v>
       </c>
       <c r="C48">
         <f>(B48/B60-1)*100</f>
@@ -1009,10 +1011,10 @@
     </row>
     <row r="49">
       <c r="A49" s="6" t="n">
-        <v>44317</v>
+        <v>44348</v>
       </c>
       <c r="B49" s="1" t="n">
-        <v>56700</v>
+        <v>52400</v>
       </c>
       <c r="C49">
         <f>(B49/B61-1)*100</f>
@@ -1021,10 +1023,10 @@
     </row>
     <row r="50">
       <c r="A50" s="6" t="n">
-        <v>44287</v>
+        <v>44317</v>
       </c>
       <c r="B50" s="1" t="n">
-        <v>60300</v>
+        <v>56700</v>
       </c>
       <c r="C50">
         <f>(B50/B62-1)*100</f>
@@ -1033,10 +1035,10 @@
     </row>
     <row r="51">
       <c r="A51" s="6" t="n">
-        <v>44256</v>
+        <v>44287</v>
       </c>
       <c r="B51" s="1" t="n">
-        <v>66300</v>
+        <v>60300</v>
       </c>
       <c r="C51">
         <f>(B51/B63-1)*100</f>
@@ -1045,10 +1047,10 @@
     </row>
     <row r="52">
       <c r="A52" s="6" t="n">
-        <v>44228</v>
+        <v>44256</v>
       </c>
       <c r="B52" s="1" t="n">
-        <v>62900</v>
+        <v>66300</v>
       </c>
       <c r="C52">
         <f>(B52/B64-1)*100</f>
@@ -1057,10 +1059,10 @@
     </row>
     <row r="53">
       <c r="A53" s="6" t="n">
-        <v>44197</v>
+        <v>44228</v>
       </c>
       <c r="B53" s="1" t="n">
-        <v>62500</v>
+        <v>62900</v>
       </c>
       <c r="C53">
         <f>(B53/B65-1)*100</f>
@@ -1068,7 +1070,12 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="3" t="n"/>
+      <c r="A54" s="6" t="n">
+        <v>44197</v>
+      </c>
+      <c r="B54" s="1" t="n">
+        <v>62500</v>
+      </c>
       <c r="C54">
         <f>(B54/B66-1)*100</f>
         <v/>
@@ -1153,6 +1160,13 @@
     </row>
     <row r="66">
       <c r="A66" s="3" t="n"/>
+      <c r="C66">
+        <f>(B66/B78-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="3" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/home-sales.xlsx
+++ b/data/home-sales.xlsx
@@ -404,7 +404,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C67"/>
+  <dimension ref="A1:C68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,11 +436,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-05-01</t>
+          <t>2025-06-01</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>37626</v>
+        <v>69.3</v>
       </c>
       <c r="C2">
         <f>(B2/B14-1)*100</f>
@@ -450,11 +450,11 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-05-01</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>66.8</v>
+        <v>37626</v>
       </c>
       <c r="C3">
         <f>(B3/B15-1)*100</f>
@@ -464,7 +464,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-03-01</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -478,7 +478,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-02-01</t>
+          <t>2025-03-01</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -492,37 +492,39 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>2025-02-01</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="C6">
+        <f>(B6/B18-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
           <t>2025-01-01</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B7" t="n">
         <v>66.8</v>
       </c>
-      <c r="C6">
-        <f>(B6/B18-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="6" t="inlineStr">
+      <c r="C7">
+        <f>(B7/B19-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="6" t="inlineStr">
         <is>
           <t>2024-12-01</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B8" t="n">
         <v>43239</v>
-      </c>
-      <c r="C7">
-        <f>(B7/B19-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="6" t="n">
-        <v>45597</v>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>45900</v>
       </c>
       <c r="C8">
         <f>(B8/B20-1)*100</f>
@@ -531,10 +533,10 @@
     </row>
     <row r="9">
       <c r="A9" s="6" t="n">
-        <v>45566</v>
+        <v>45597</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>44200</v>
+        <v>45900</v>
       </c>
       <c r="C9">
         <f>(B9/B21-1)*100</f>
@@ -543,10 +545,10 @@
     </row>
     <row r="10">
       <c r="A10" s="6" t="n">
-        <v>45536</v>
+        <v>45566</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>41200</v>
+        <v>44200</v>
       </c>
       <c r="C10">
         <f>(B10/B22-1)*100</f>
@@ -555,10 +557,10 @@
     </row>
     <row r="11">
       <c r="A11" s="6" t="n">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="B11" s="4" t="n">
-        <v>40400</v>
+        <v>41200</v>
       </c>
       <c r="C11">
         <f>(B11/B23-1)*100</f>
@@ -567,10 +569,10 @@
     </row>
     <row r="12">
       <c r="A12" s="6" t="n">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="B12" s="4" t="n">
-        <v>39600</v>
+        <v>40400</v>
       </c>
       <c r="C12">
         <f>(B12/B24-1)*100</f>
@@ -579,10 +581,10 @@
     </row>
     <row r="13">
       <c r="A13" s="6" t="n">
-        <v>45444</v>
-      </c>
-      <c r="B13" s="5" t="n">
-        <v>39800</v>
+        <v>45474</v>
+      </c>
+      <c r="B13" s="4" t="n">
+        <v>39600</v>
       </c>
       <c r="C13">
         <f>(B13/B25-1)*100</f>
@@ -591,10 +593,10 @@
     </row>
     <row r="14">
       <c r="A14" s="6" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="B14" s="5" t="n">
-        <v>38300</v>
+        <v>39800</v>
       </c>
       <c r="C14">
         <f>(B14/B26-1)*100</f>
@@ -603,10 +605,10 @@
     </row>
     <row r="15">
       <c r="A15" s="6" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="B15" s="5" t="n">
-        <v>38400</v>
+        <v>38300</v>
       </c>
       <c r="C15">
         <f>(B15/B27-1)*100</f>
@@ -615,10 +617,10 @@
     </row>
     <row r="16">
       <c r="A16" s="6" t="n">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="B16" s="5" t="n">
-        <v>39700</v>
+        <v>38400</v>
       </c>
       <c r="C16">
         <f>(B16/B28-1)*100</f>
@@ -627,10 +629,10 @@
     </row>
     <row r="17">
       <c r="A17" s="6" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="B17" s="5" t="n">
-        <v>39400</v>
+        <v>39700</v>
       </c>
       <c r="C17">
         <f>(B17/B29-1)*100</f>
@@ -639,10 +641,10 @@
     </row>
     <row r="18">
       <c r="A18" s="6" t="n">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="B18" s="5" t="n">
-        <v>40300</v>
+        <v>39400</v>
       </c>
       <c r="C18">
         <f>(B18/B30-1)*100</f>
@@ -651,10 +653,10 @@
     </row>
     <row r="19">
       <c r="A19" s="6" t="n">
-        <v>45261</v>
+        <v>45292</v>
       </c>
       <c r="B19" s="5" t="n">
-        <v>38600</v>
+        <v>40300</v>
       </c>
       <c r="C19">
         <f>(B19/B31-1)*100</f>
@@ -663,10 +665,10 @@
     </row>
     <row r="20">
       <c r="A20" s="6" t="n">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="B20" s="5" t="n">
-        <v>35200</v>
+        <v>38600</v>
       </c>
       <c r="C20">
         <f>(B20/B32-1)*100</f>
@@ -675,10 +677,10 @@
     </row>
     <row r="21">
       <c r="A21" s="6" t="n">
-        <v>45200</v>
+        <v>45231</v>
       </c>
       <c r="B21" s="5" t="n">
-        <v>35400</v>
+        <v>35200</v>
       </c>
       <c r="C21">
         <f>(B21/B33-1)*100</f>
@@ -687,10 +689,10 @@
     </row>
     <row r="22">
       <c r="A22" s="6" t="n">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B22" s="5" t="n">
-        <v>38600</v>
+        <v>35400</v>
       </c>
       <c r="C22">
         <f>(B22/B34-1)*100</f>
@@ -699,10 +701,10 @@
     </row>
     <row r="23">
       <c r="A23" s="6" t="n">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B23" s="5" t="n">
-        <v>39800</v>
+        <v>38600</v>
       </c>
       <c r="C23">
         <f>(B23/B35-1)*100</f>
@@ -711,10 +713,10 @@
     </row>
     <row r="24">
       <c r="A24" s="6" t="n">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B24" s="5" t="n">
-        <v>41300</v>
+        <v>39800</v>
       </c>
       <c r="C24">
         <f>(B24/B36-1)*100</f>
@@ -723,10 +725,10 @@
     </row>
     <row r="25">
       <c r="A25" s="6" t="n">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B25" s="5" t="n">
-        <v>41600</v>
+        <v>41300</v>
       </c>
       <c r="C25">
         <f>(B25/B37-1)*100</f>
@@ -735,10 +737,10 @@
     </row>
     <row r="26">
       <c r="A26" s="6" t="n">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B26" s="5" t="n">
-        <v>41700</v>
+        <v>41600</v>
       </c>
       <c r="C26">
         <f>(B26/B38-1)*100</f>
@@ -747,10 +749,10 @@
     </row>
     <row r="27">
       <c r="A27" s="6" t="n">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B27" s="5" t="n">
-        <v>39600</v>
+        <v>41700</v>
       </c>
       <c r="C27">
         <f>(B27/B39-1)*100</f>
@@ -759,10 +761,10 @@
     </row>
     <row r="28">
       <c r="A28" s="6" t="n">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B28" s="5" t="n">
-        <v>35700</v>
+        <v>39600</v>
       </c>
       <c r="C28">
         <f>(B28/B40-1)*100</f>
@@ -771,10 +773,10 @@
     </row>
     <row r="29">
       <c r="A29" s="6" t="n">
-        <v>44958</v>
+        <v>44986</v>
       </c>
       <c r="B29" s="5" t="n">
-        <v>35000</v>
+        <v>35700</v>
       </c>
       <c r="C29">
         <f>(B29/B41-1)*100</f>
@@ -783,10 +785,10 @@
     </row>
     <row r="30">
       <c r="A30" s="6" t="n">
-        <v>44927</v>
-      </c>
-      <c r="B30" s="1" t="n">
-        <v>35700</v>
+        <v>44958</v>
+      </c>
+      <c r="B30" s="5" t="n">
+        <v>35000</v>
       </c>
       <c r="C30">
         <f>(B30/B42-1)*100</f>
@@ -795,7 +797,7 @@
     </row>
     <row r="31">
       <c r="A31" s="6" t="n">
-        <v>44896</v>
+        <v>44927</v>
       </c>
       <c r="B31" s="1" t="n">
         <v>35700</v>
@@ -807,10 +809,10 @@
     </row>
     <row r="32">
       <c r="A32" s="6" t="n">
-        <v>44866</v>
+        <v>44896</v>
       </c>
       <c r="B32" s="1" t="n">
-        <v>35600</v>
+        <v>35700</v>
       </c>
       <c r="C32">
         <f>(B32/B44-1)*100</f>
@@ -819,10 +821,10 @@
     </row>
     <row r="33">
       <c r="A33" s="6" t="n">
-        <v>44835</v>
+        <v>44866</v>
       </c>
       <c r="B33" s="1" t="n">
-        <v>36400</v>
+        <v>35600</v>
       </c>
       <c r="C33">
         <f>(B33/B45-1)*100</f>
@@ -831,10 +833,10 @@
     </row>
     <row r="34">
       <c r="A34" s="6" t="n">
-        <v>44805</v>
+        <v>44835</v>
       </c>
       <c r="B34" s="1" t="n">
-        <v>36200</v>
+        <v>36400</v>
       </c>
       <c r="C34">
         <f>(B34/B46-1)*100</f>
@@ -843,10 +845,10 @@
     </row>
     <row r="35">
       <c r="A35" s="6" t="n">
-        <v>44774</v>
+        <v>44805</v>
       </c>
       <c r="B35" s="1" t="n">
-        <v>37300</v>
+        <v>36200</v>
       </c>
       <c r="C35">
         <f>(B35/B47-1)*100</f>
@@ -855,10 +857,10 @@
     </row>
     <row r="36">
       <c r="A36" s="6" t="n">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="B36" s="1" t="n">
-        <v>37600</v>
+        <v>37300</v>
       </c>
       <c r="C36">
         <f>(B36/B48-1)*100</f>
@@ -867,10 +869,10 @@
     </row>
     <row r="37">
       <c r="A37" s="6" t="n">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="B37" s="1" t="n">
-        <v>39200</v>
+        <v>37600</v>
       </c>
       <c r="C37">
         <f>(B37/B49-1)*100</f>
@@ -879,10 +881,10 @@
     </row>
     <row r="38">
       <c r="A38" s="6" t="n">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="B38" s="1" t="n">
-        <v>41900</v>
+        <v>39200</v>
       </c>
       <c r="C38">
         <f>(B38/B50-1)*100</f>
@@ -891,10 +893,10 @@
     </row>
     <row r="39">
       <c r="A39" s="6" t="n">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="B39" s="1" t="n">
-        <v>46600</v>
+        <v>41900</v>
       </c>
       <c r="C39">
         <f>(B39/B51-1)*100</f>
@@ -903,10 +905,10 @@
     </row>
     <row r="40">
       <c r="A40" s="6" t="n">
-        <v>44621</v>
+        <v>44652</v>
       </c>
       <c r="B40" s="1" t="n">
-        <v>53700</v>
+        <v>46600</v>
       </c>
       <c r="C40">
         <f>(B40/B52-1)*100</f>
@@ -915,10 +917,10 @@
     </row>
     <row r="41">
       <c r="A41" s="6" t="n">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="B41" s="1" t="n">
-        <v>58200</v>
+        <v>53700</v>
       </c>
       <c r="C41">
         <f>(B41/B53-1)*100</f>
@@ -927,10 +929,10 @@
     </row>
     <row r="42">
       <c r="A42" s="6" t="n">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="B42" s="1" t="n">
-        <v>57100</v>
+        <v>58200</v>
       </c>
       <c r="C42">
         <f>(B42/B54-1)*100</f>
@@ -939,10 +941,10 @@
     </row>
     <row r="43">
       <c r="A43" s="6" t="n">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="B43" s="1" t="n">
-        <v>56700</v>
+        <v>57100</v>
       </c>
       <c r="C43">
         <f>(B43/B55-1)*100</f>
@@ -951,10 +953,10 @@
     </row>
     <row r="44">
       <c r="A44" s="6" t="n">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="B44" s="1" t="n">
-        <v>58400</v>
+        <v>56700</v>
       </c>
       <c r="C44">
         <f>(B44/B56-1)*100</f>
@@ -963,10 +965,10 @@
     </row>
     <row r="45">
       <c r="A45" s="6" t="n">
-        <v>44470</v>
+        <v>44501</v>
       </c>
       <c r="B45" s="1" t="n">
-        <v>57400</v>
+        <v>58400</v>
       </c>
       <c r="C45">
         <f>(B45/B57-1)*100</f>
@@ -975,10 +977,10 @@
     </row>
     <row r="46">
       <c r="A46" s="6" t="n">
-        <v>44440</v>
+        <v>44470</v>
       </c>
       <c r="B46" s="1" t="n">
-        <v>53700</v>
+        <v>57400</v>
       </c>
       <c r="C46">
         <f>(B46/B58-1)*100</f>
@@ -987,10 +989,10 @@
     </row>
     <row r="47">
       <c r="A47" s="6" t="n">
-        <v>44409</v>
+        <v>44440</v>
       </c>
       <c r="B47" s="1" t="n">
-        <v>51900</v>
+        <v>53700</v>
       </c>
       <c r="C47">
         <f>(B47/B59-1)*100</f>
@@ -999,10 +1001,10 @@
     </row>
     <row r="48">
       <c r="A48" s="6" t="n">
-        <v>44378</v>
+        <v>44409</v>
       </c>
       <c r="B48" s="1" t="n">
-        <v>51800</v>
+        <v>51900</v>
       </c>
       <c r="C48">
         <f>(B48/B60-1)*100</f>
@@ -1011,10 +1013,10 @@
     </row>
     <row r="49">
       <c r="A49" s="6" t="n">
-        <v>44348</v>
+        <v>44378</v>
       </c>
       <c r="B49" s="1" t="n">
-        <v>52400</v>
+        <v>51800</v>
       </c>
       <c r="C49">
         <f>(B49/B61-1)*100</f>
@@ -1023,10 +1025,10 @@
     </row>
     <row r="50">
       <c r="A50" s="6" t="n">
-        <v>44317</v>
+        <v>44348</v>
       </c>
       <c r="B50" s="1" t="n">
-        <v>56700</v>
+        <v>52400</v>
       </c>
       <c r="C50">
         <f>(B50/B62-1)*100</f>
@@ -1035,10 +1037,10 @@
     </row>
     <row r="51">
       <c r="A51" s="6" t="n">
-        <v>44287</v>
+        <v>44317</v>
       </c>
       <c r="B51" s="1" t="n">
-        <v>60300</v>
+        <v>56700</v>
       </c>
       <c r="C51">
         <f>(B51/B63-1)*100</f>
@@ -1047,10 +1049,10 @@
     </row>
     <row r="52">
       <c r="A52" s="6" t="n">
-        <v>44256</v>
+        <v>44287</v>
       </c>
       <c r="B52" s="1" t="n">
-        <v>66300</v>
+        <v>60300</v>
       </c>
       <c r="C52">
         <f>(B52/B64-1)*100</f>
@@ -1059,10 +1061,10 @@
     </row>
     <row r="53">
       <c r="A53" s="6" t="n">
-        <v>44228</v>
+        <v>44256</v>
       </c>
       <c r="B53" s="1" t="n">
-        <v>62900</v>
+        <v>66300</v>
       </c>
       <c r="C53">
         <f>(B53/B65-1)*100</f>
@@ -1071,10 +1073,10 @@
     </row>
     <row r="54">
       <c r="A54" s="6" t="n">
-        <v>44197</v>
+        <v>44228</v>
       </c>
       <c r="B54" s="1" t="n">
-        <v>62500</v>
+        <v>62900</v>
       </c>
       <c r="C54">
         <f>(B54/B66-1)*100</f>
@@ -1082,7 +1084,12 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="3" t="n"/>
+      <c r="A55" s="6" t="n">
+        <v>44197</v>
+      </c>
+      <c r="B55" s="1" t="n">
+        <v>62500</v>
+      </c>
       <c r="C55">
         <f>(B55/B67-1)*100</f>
         <v/>
@@ -1167,6 +1174,13 @@
     </row>
     <row r="67">
       <c r="A67" s="3" t="n"/>
+      <c r="C67">
+        <f>(B67/B79-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="3" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/home-sales.xlsx
+++ b/data/home-sales.xlsx
@@ -404,7 +404,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C68"/>
+  <dimension ref="A1:C69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-06-01</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -450,11 +450,11 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-05-01</t>
+          <t>2025-06-01</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>37626</v>
+        <v>69.3</v>
       </c>
       <c r="C3">
         <f>(B3/B15-1)*100</f>
@@ -464,11 +464,11 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-05-01</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>66.8</v>
+        <v>37626</v>
       </c>
       <c r="C4">
         <f>(B4/B16-1)*100</f>
@@ -478,7 +478,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-03-01</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -492,7 +492,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-02-01</t>
+          <t>2025-03-01</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -506,37 +506,39 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>2025-02-01</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="C7">
+        <f>(B7/B19-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
           <t>2025-01-01</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B8" t="n">
         <v>66.8</v>
       </c>
-      <c r="C7">
-        <f>(B7/B19-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="6" t="inlineStr">
+      <c r="C8">
+        <f>(B8/B20-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="6" t="inlineStr">
         <is>
           <t>2024-12-01</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B9" t="n">
         <v>43239</v>
-      </c>
-      <c r="C8">
-        <f>(B8/B20-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="6" t="n">
-        <v>45597</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>45900</v>
       </c>
       <c r="C9">
         <f>(B9/B21-1)*100</f>
@@ -545,10 +547,10 @@
     </row>
     <row r="10">
       <c r="A10" s="6" t="n">
-        <v>45566</v>
+        <v>45597</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>44200</v>
+        <v>45900</v>
       </c>
       <c r="C10">
         <f>(B10/B22-1)*100</f>
@@ -557,10 +559,10 @@
     </row>
     <row r="11">
       <c r="A11" s="6" t="n">
-        <v>45536</v>
+        <v>45566</v>
       </c>
       <c r="B11" s="4" t="n">
-        <v>41200</v>
+        <v>44200</v>
       </c>
       <c r="C11">
         <f>(B11/B23-1)*100</f>
@@ -569,10 +571,10 @@
     </row>
     <row r="12">
       <c r="A12" s="6" t="n">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="B12" s="4" t="n">
-        <v>40400</v>
+        <v>41200</v>
       </c>
       <c r="C12">
         <f>(B12/B24-1)*100</f>
@@ -581,10 +583,10 @@
     </row>
     <row r="13">
       <c r="A13" s="6" t="n">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="B13" s="4" t="n">
-        <v>39600</v>
+        <v>40400</v>
       </c>
       <c r="C13">
         <f>(B13/B25-1)*100</f>
@@ -593,10 +595,10 @@
     </row>
     <row r="14">
       <c r="A14" s="6" t="n">
-        <v>45444</v>
-      </c>
-      <c r="B14" s="5" t="n">
-        <v>39800</v>
+        <v>45474</v>
+      </c>
+      <c r="B14" s="4" t="n">
+        <v>39600</v>
       </c>
       <c r="C14">
         <f>(B14/B26-1)*100</f>
@@ -605,10 +607,10 @@
     </row>
     <row r="15">
       <c r="A15" s="6" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="B15" s="5" t="n">
-        <v>38300</v>
+        <v>39800</v>
       </c>
       <c r="C15">
         <f>(B15/B27-1)*100</f>
@@ -617,10 +619,10 @@
     </row>
     <row r="16">
       <c r="A16" s="6" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="B16" s="5" t="n">
-        <v>38400</v>
+        <v>38300</v>
       </c>
       <c r="C16">
         <f>(B16/B28-1)*100</f>
@@ -629,10 +631,10 @@
     </row>
     <row r="17">
       <c r="A17" s="6" t="n">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="B17" s="5" t="n">
-        <v>39700</v>
+        <v>38400</v>
       </c>
       <c r="C17">
         <f>(B17/B29-1)*100</f>
@@ -641,10 +643,10 @@
     </row>
     <row r="18">
       <c r="A18" s="6" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="B18" s="5" t="n">
-        <v>39400</v>
+        <v>39700</v>
       </c>
       <c r="C18">
         <f>(B18/B30-1)*100</f>
@@ -653,10 +655,10 @@
     </row>
     <row r="19">
       <c r="A19" s="6" t="n">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="B19" s="5" t="n">
-        <v>40300</v>
+        <v>39400</v>
       </c>
       <c r="C19">
         <f>(B19/B31-1)*100</f>
@@ -665,10 +667,10 @@
     </row>
     <row r="20">
       <c r="A20" s="6" t="n">
-        <v>45261</v>
+        <v>45292</v>
       </c>
       <c r="B20" s="5" t="n">
-        <v>38600</v>
+        <v>40300</v>
       </c>
       <c r="C20">
         <f>(B20/B32-1)*100</f>
@@ -677,10 +679,10 @@
     </row>
     <row r="21">
       <c r="A21" s="6" t="n">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="B21" s="5" t="n">
-        <v>35200</v>
+        <v>38600</v>
       </c>
       <c r="C21">
         <f>(B21/B33-1)*100</f>
@@ -689,10 +691,10 @@
     </row>
     <row r="22">
       <c r="A22" s="6" t="n">
-        <v>45200</v>
+        <v>45231</v>
       </c>
       <c r="B22" s="5" t="n">
-        <v>35400</v>
+        <v>35200</v>
       </c>
       <c r="C22">
         <f>(B22/B34-1)*100</f>
@@ -701,10 +703,10 @@
     </row>
     <row r="23">
       <c r="A23" s="6" t="n">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B23" s="5" t="n">
-        <v>38600</v>
+        <v>35400</v>
       </c>
       <c r="C23">
         <f>(B23/B35-1)*100</f>
@@ -713,10 +715,10 @@
     </row>
     <row r="24">
       <c r="A24" s="6" t="n">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B24" s="5" t="n">
-        <v>39800</v>
+        <v>38600</v>
       </c>
       <c r="C24">
         <f>(B24/B36-1)*100</f>
@@ -725,10 +727,10 @@
     </row>
     <row r="25">
       <c r="A25" s="6" t="n">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B25" s="5" t="n">
-        <v>41300</v>
+        <v>39800</v>
       </c>
       <c r="C25">
         <f>(B25/B37-1)*100</f>
@@ -737,10 +739,10 @@
     </row>
     <row r="26">
       <c r="A26" s="6" t="n">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B26" s="5" t="n">
-        <v>41600</v>
+        <v>41300</v>
       </c>
       <c r="C26">
         <f>(B26/B38-1)*100</f>
@@ -749,10 +751,10 @@
     </row>
     <row r="27">
       <c r="A27" s="6" t="n">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B27" s="5" t="n">
-        <v>41700</v>
+        <v>41600</v>
       </c>
       <c r="C27">
         <f>(B27/B39-1)*100</f>
@@ -761,10 +763,10 @@
     </row>
     <row r="28">
       <c r="A28" s="6" t="n">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B28" s="5" t="n">
-        <v>39600</v>
+        <v>41700</v>
       </c>
       <c r="C28">
         <f>(B28/B40-1)*100</f>
@@ -773,10 +775,10 @@
     </row>
     <row r="29">
       <c r="A29" s="6" t="n">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B29" s="5" t="n">
-        <v>35700</v>
+        <v>39600</v>
       </c>
       <c r="C29">
         <f>(B29/B41-1)*100</f>
@@ -785,10 +787,10 @@
     </row>
     <row r="30">
       <c r="A30" s="6" t="n">
-        <v>44958</v>
+        <v>44986</v>
       </c>
       <c r="B30" s="5" t="n">
-        <v>35000</v>
+        <v>35700</v>
       </c>
       <c r="C30">
         <f>(B30/B42-1)*100</f>
@@ -797,10 +799,10 @@
     </row>
     <row r="31">
       <c r="A31" s="6" t="n">
-        <v>44927</v>
-      </c>
-      <c r="B31" s="1" t="n">
-        <v>35700</v>
+        <v>44958</v>
+      </c>
+      <c r="B31" s="5" t="n">
+        <v>35000</v>
       </c>
       <c r="C31">
         <f>(B31/B43-1)*100</f>
@@ -809,7 +811,7 @@
     </row>
     <row r="32">
       <c r="A32" s="6" t="n">
-        <v>44896</v>
+        <v>44927</v>
       </c>
       <c r="B32" s="1" t="n">
         <v>35700</v>
@@ -821,10 +823,10 @@
     </row>
     <row r="33">
       <c r="A33" s="6" t="n">
-        <v>44866</v>
+        <v>44896</v>
       </c>
       <c r="B33" s="1" t="n">
-        <v>35600</v>
+        <v>35700</v>
       </c>
       <c r="C33">
         <f>(B33/B45-1)*100</f>
@@ -833,10 +835,10 @@
     </row>
     <row r="34">
       <c r="A34" s="6" t="n">
-        <v>44835</v>
+        <v>44866</v>
       </c>
       <c r="B34" s="1" t="n">
-        <v>36400</v>
+        <v>35600</v>
       </c>
       <c r="C34">
         <f>(B34/B46-1)*100</f>
@@ -845,10 +847,10 @@
     </row>
     <row r="35">
       <c r="A35" s="6" t="n">
-        <v>44805</v>
+        <v>44835</v>
       </c>
       <c r="B35" s="1" t="n">
-        <v>36200</v>
+        <v>36400</v>
       </c>
       <c r="C35">
         <f>(B35/B47-1)*100</f>
@@ -857,10 +859,10 @@
     </row>
     <row r="36">
       <c r="A36" s="6" t="n">
-        <v>44774</v>
+        <v>44805</v>
       </c>
       <c r="B36" s="1" t="n">
-        <v>37300</v>
+        <v>36200</v>
       </c>
       <c r="C36">
         <f>(B36/B48-1)*100</f>
@@ -869,10 +871,10 @@
     </row>
     <row r="37">
       <c r="A37" s="6" t="n">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="B37" s="1" t="n">
-        <v>37600</v>
+        <v>37300</v>
       </c>
       <c r="C37">
         <f>(B37/B49-1)*100</f>
@@ -881,10 +883,10 @@
     </row>
     <row r="38">
       <c r="A38" s="6" t="n">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="B38" s="1" t="n">
-        <v>39200</v>
+        <v>37600</v>
       </c>
       <c r="C38">
         <f>(B38/B50-1)*100</f>
@@ -893,10 +895,10 @@
     </row>
     <row r="39">
       <c r="A39" s="6" t="n">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="B39" s="1" t="n">
-        <v>41900</v>
+        <v>39200</v>
       </c>
       <c r="C39">
         <f>(B39/B51-1)*100</f>
@@ -905,10 +907,10 @@
     </row>
     <row r="40">
       <c r="A40" s="6" t="n">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="B40" s="1" t="n">
-        <v>46600</v>
+        <v>41900</v>
       </c>
       <c r="C40">
         <f>(B40/B52-1)*100</f>
@@ -917,10 +919,10 @@
     </row>
     <row r="41">
       <c r="A41" s="6" t="n">
-        <v>44621</v>
+        <v>44652</v>
       </c>
       <c r="B41" s="1" t="n">
-        <v>53700</v>
+        <v>46600</v>
       </c>
       <c r="C41">
         <f>(B41/B53-1)*100</f>
@@ -929,10 +931,10 @@
     </row>
     <row r="42">
       <c r="A42" s="6" t="n">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="B42" s="1" t="n">
-        <v>58200</v>
+        <v>53700</v>
       </c>
       <c r="C42">
         <f>(B42/B54-1)*100</f>
@@ -941,10 +943,10 @@
     </row>
     <row r="43">
       <c r="A43" s="6" t="n">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="B43" s="1" t="n">
-        <v>57100</v>
+        <v>58200</v>
       </c>
       <c r="C43">
         <f>(B43/B55-1)*100</f>
@@ -953,10 +955,10 @@
     </row>
     <row r="44">
       <c r="A44" s="6" t="n">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="B44" s="1" t="n">
-        <v>56700</v>
+        <v>57100</v>
       </c>
       <c r="C44">
         <f>(B44/B56-1)*100</f>
@@ -965,10 +967,10 @@
     </row>
     <row r="45">
       <c r="A45" s="6" t="n">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="B45" s="1" t="n">
-        <v>58400</v>
+        <v>56700</v>
       </c>
       <c r="C45">
         <f>(B45/B57-1)*100</f>
@@ -977,10 +979,10 @@
     </row>
     <row r="46">
       <c r="A46" s="6" t="n">
-        <v>44470</v>
+        <v>44501</v>
       </c>
       <c r="B46" s="1" t="n">
-        <v>57400</v>
+        <v>58400</v>
       </c>
       <c r="C46">
         <f>(B46/B58-1)*100</f>
@@ -989,10 +991,10 @@
     </row>
     <row r="47">
       <c r="A47" s="6" t="n">
-        <v>44440</v>
+        <v>44470</v>
       </c>
       <c r="B47" s="1" t="n">
-        <v>53700</v>
+        <v>57400</v>
       </c>
       <c r="C47">
         <f>(B47/B59-1)*100</f>
@@ -1001,10 +1003,10 @@
     </row>
     <row r="48">
       <c r="A48" s="6" t="n">
-        <v>44409</v>
+        <v>44440</v>
       </c>
       <c r="B48" s="1" t="n">
-        <v>51900</v>
+        <v>53700</v>
       </c>
       <c r="C48">
         <f>(B48/B60-1)*100</f>
@@ -1013,10 +1015,10 @@
     </row>
     <row r="49">
       <c r="A49" s="6" t="n">
-        <v>44378</v>
+        <v>44409</v>
       </c>
       <c r="B49" s="1" t="n">
-        <v>51800</v>
+        <v>51900</v>
       </c>
       <c r="C49">
         <f>(B49/B61-1)*100</f>
@@ -1025,10 +1027,10 @@
     </row>
     <row r="50">
       <c r="A50" s="6" t="n">
-        <v>44348</v>
+        <v>44378</v>
       </c>
       <c r="B50" s="1" t="n">
-        <v>52400</v>
+        <v>51800</v>
       </c>
       <c r="C50">
         <f>(B50/B62-1)*100</f>
@@ -1037,10 +1039,10 @@
     </row>
     <row r="51">
       <c r="A51" s="6" t="n">
-        <v>44317</v>
+        <v>44348</v>
       </c>
       <c r="B51" s="1" t="n">
-        <v>56700</v>
+        <v>52400</v>
       </c>
       <c r="C51">
         <f>(B51/B63-1)*100</f>
@@ -1049,10 +1051,10 @@
     </row>
     <row r="52">
       <c r="A52" s="6" t="n">
-        <v>44287</v>
+        <v>44317</v>
       </c>
       <c r="B52" s="1" t="n">
-        <v>60300</v>
+        <v>56700</v>
       </c>
       <c r="C52">
         <f>(B52/B64-1)*100</f>
@@ -1061,10 +1063,10 @@
     </row>
     <row r="53">
       <c r="A53" s="6" t="n">
-        <v>44256</v>
+        <v>44287</v>
       </c>
       <c r="B53" s="1" t="n">
-        <v>66300</v>
+        <v>60300</v>
       </c>
       <c r="C53">
         <f>(B53/B65-1)*100</f>
@@ -1073,10 +1075,10 @@
     </row>
     <row r="54">
       <c r="A54" s="6" t="n">
-        <v>44228</v>
+        <v>44256</v>
       </c>
       <c r="B54" s="1" t="n">
-        <v>62900</v>
+        <v>66300</v>
       </c>
       <c r="C54">
         <f>(B54/B66-1)*100</f>
@@ -1085,10 +1087,10 @@
     </row>
     <row r="55">
       <c r="A55" s="6" t="n">
-        <v>44197</v>
+        <v>44228</v>
       </c>
       <c r="B55" s="1" t="n">
-        <v>62500</v>
+        <v>62900</v>
       </c>
       <c r="C55">
         <f>(B55/B67-1)*100</f>
@@ -1096,7 +1098,12 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="3" t="n"/>
+      <c r="A56" s="6" t="n">
+        <v>44197</v>
+      </c>
+      <c r="B56" s="1" t="n">
+        <v>62500</v>
+      </c>
       <c r="C56">
         <f>(B56/B68-1)*100</f>
         <v/>
@@ -1181,6 +1188,13 @@
     </row>
     <row r="68">
       <c r="A68" s="3" t="n"/>
+      <c r="C68">
+        <f>(B68/B80-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="3" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/home-sales.xlsx
+++ b/data/home-sales.xlsx
@@ -404,7 +404,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C69"/>
+  <dimension ref="A1:C70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,11 +436,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-08-01</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>69.3</v>
+        <v>40714</v>
       </c>
       <c r="C2">
         <f>(B2/B14-1)*100</f>
@@ -450,7 +450,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-06-01</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -464,11 +464,11 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-05-01</t>
+          <t>2025-06-01</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>37626</v>
+        <v>69.3</v>
       </c>
       <c r="C4">
         <f>(B4/B16-1)*100</f>
@@ -478,11 +478,11 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-05-01</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66.8</v>
+        <v>37626</v>
       </c>
       <c r="C5">
         <f>(B5/B17-1)*100</f>
@@ -492,7 +492,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-03-01</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -506,7 +506,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-02-01</t>
+          <t>2025-03-01</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -520,37 +520,39 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>2025-02-01</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="C8">
+        <f>(B8/B20-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>2025-01-01</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B9" t="n">
         <v>66.8</v>
       </c>
-      <c r="C8">
-        <f>(B8/B20-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="6" t="inlineStr">
+      <c r="C9">
+        <f>(B9/B21-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="6" t="inlineStr">
         <is>
           <t>2024-12-01</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B10" t="n">
         <v>43239</v>
-      </c>
-      <c r="C9">
-        <f>(B9/B21-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="6" t="n">
-        <v>45597</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>45900</v>
       </c>
       <c r="C10">
         <f>(B10/B22-1)*100</f>
@@ -559,10 +561,10 @@
     </row>
     <row r="11">
       <c r="A11" s="6" t="n">
-        <v>45566</v>
+        <v>45597</v>
       </c>
       <c r="B11" s="4" t="n">
-        <v>44200</v>
+        <v>45900</v>
       </c>
       <c r="C11">
         <f>(B11/B23-1)*100</f>
@@ -571,10 +573,10 @@
     </row>
     <row r="12">
       <c r="A12" s="6" t="n">
-        <v>45536</v>
+        <v>45566</v>
       </c>
       <c r="B12" s="4" t="n">
-        <v>41200</v>
+        <v>44200</v>
       </c>
       <c r="C12">
         <f>(B12/B24-1)*100</f>
@@ -583,10 +585,10 @@
     </row>
     <row r="13">
       <c r="A13" s="6" t="n">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="B13" s="4" t="n">
-        <v>40400</v>
+        <v>41200</v>
       </c>
       <c r="C13">
         <f>(B13/B25-1)*100</f>
@@ -595,10 +597,10 @@
     </row>
     <row r="14">
       <c r="A14" s="6" t="n">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="B14" s="4" t="n">
-        <v>39600</v>
+        <v>40400</v>
       </c>
       <c r="C14">
         <f>(B14/B26-1)*100</f>
@@ -607,10 +609,10 @@
     </row>
     <row r="15">
       <c r="A15" s="6" t="n">
-        <v>45444</v>
-      </c>
-      <c r="B15" s="5" t="n">
-        <v>39800</v>
+        <v>45474</v>
+      </c>
+      <c r="B15" s="4" t="n">
+        <v>39600</v>
       </c>
       <c r="C15">
         <f>(B15/B27-1)*100</f>
@@ -619,10 +621,10 @@
     </row>
     <row r="16">
       <c r="A16" s="6" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="B16" s="5" t="n">
-        <v>38300</v>
+        <v>39800</v>
       </c>
       <c r="C16">
         <f>(B16/B28-1)*100</f>
@@ -631,10 +633,10 @@
     </row>
     <row r="17">
       <c r="A17" s="6" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="B17" s="5" t="n">
-        <v>38400</v>
+        <v>38300</v>
       </c>
       <c r="C17">
         <f>(B17/B29-1)*100</f>
@@ -643,10 +645,10 @@
     </row>
     <row r="18">
       <c r="A18" s="6" t="n">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="B18" s="5" t="n">
-        <v>39700</v>
+        <v>38400</v>
       </c>
       <c r="C18">
         <f>(B18/B30-1)*100</f>
@@ -655,10 +657,10 @@
     </row>
     <row r="19">
       <c r="A19" s="6" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="B19" s="5" t="n">
-        <v>39400</v>
+        <v>39700</v>
       </c>
       <c r="C19">
         <f>(B19/B31-1)*100</f>
@@ -667,10 +669,10 @@
     </row>
     <row r="20">
       <c r="A20" s="6" t="n">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="B20" s="5" t="n">
-        <v>40300</v>
+        <v>39400</v>
       </c>
       <c r="C20">
         <f>(B20/B32-1)*100</f>
@@ -679,10 +681,10 @@
     </row>
     <row r="21">
       <c r="A21" s="6" t="n">
-        <v>45261</v>
+        <v>45292</v>
       </c>
       <c r="B21" s="5" t="n">
-        <v>38600</v>
+        <v>40300</v>
       </c>
       <c r="C21">
         <f>(B21/B33-1)*100</f>
@@ -691,10 +693,10 @@
     </row>
     <row r="22">
       <c r="A22" s="6" t="n">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="B22" s="5" t="n">
-        <v>35200</v>
+        <v>38600</v>
       </c>
       <c r="C22">
         <f>(B22/B34-1)*100</f>
@@ -703,10 +705,10 @@
     </row>
     <row r="23">
       <c r="A23" s="6" t="n">
-        <v>45200</v>
+        <v>45231</v>
       </c>
       <c r="B23" s="5" t="n">
-        <v>35400</v>
+        <v>35200</v>
       </c>
       <c r="C23">
         <f>(B23/B35-1)*100</f>
@@ -715,10 +717,10 @@
     </row>
     <row r="24">
       <c r="A24" s="6" t="n">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B24" s="5" t="n">
-        <v>38600</v>
+        <v>35400</v>
       </c>
       <c r="C24">
         <f>(B24/B36-1)*100</f>
@@ -727,10 +729,10 @@
     </row>
     <row r="25">
       <c r="A25" s="6" t="n">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B25" s="5" t="n">
-        <v>39800</v>
+        <v>38600</v>
       </c>
       <c r="C25">
         <f>(B25/B37-1)*100</f>
@@ -739,10 +741,10 @@
     </row>
     <row r="26">
       <c r="A26" s="6" t="n">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B26" s="5" t="n">
-        <v>41300</v>
+        <v>39800</v>
       </c>
       <c r="C26">
         <f>(B26/B38-1)*100</f>
@@ -751,10 +753,10 @@
     </row>
     <row r="27">
       <c r="A27" s="6" t="n">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B27" s="5" t="n">
-        <v>41600</v>
+        <v>41300</v>
       </c>
       <c r="C27">
         <f>(B27/B39-1)*100</f>
@@ -763,10 +765,10 @@
     </row>
     <row r="28">
       <c r="A28" s="6" t="n">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B28" s="5" t="n">
-        <v>41700</v>
+        <v>41600</v>
       </c>
       <c r="C28">
         <f>(B28/B40-1)*100</f>
@@ -775,10 +777,10 @@
     </row>
     <row r="29">
       <c r="A29" s="6" t="n">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B29" s="5" t="n">
-        <v>39600</v>
+        <v>41700</v>
       </c>
       <c r="C29">
         <f>(B29/B41-1)*100</f>
@@ -787,10 +789,10 @@
     </row>
     <row r="30">
       <c r="A30" s="6" t="n">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B30" s="5" t="n">
-        <v>35700</v>
+        <v>39600</v>
       </c>
       <c r="C30">
         <f>(B30/B42-1)*100</f>
@@ -799,10 +801,10 @@
     </row>
     <row r="31">
       <c r="A31" s="6" t="n">
-        <v>44958</v>
+        <v>44986</v>
       </c>
       <c r="B31" s="5" t="n">
-        <v>35000</v>
+        <v>35700</v>
       </c>
       <c r="C31">
         <f>(B31/B43-1)*100</f>
@@ -811,10 +813,10 @@
     </row>
     <row r="32">
       <c r="A32" s="6" t="n">
-        <v>44927</v>
-      </c>
-      <c r="B32" s="1" t="n">
-        <v>35700</v>
+        <v>44958</v>
+      </c>
+      <c r="B32" s="5" t="n">
+        <v>35000</v>
       </c>
       <c r="C32">
         <f>(B32/B44-1)*100</f>
@@ -823,7 +825,7 @@
     </row>
     <row r="33">
       <c r="A33" s="6" t="n">
-        <v>44896</v>
+        <v>44927</v>
       </c>
       <c r="B33" s="1" t="n">
         <v>35700</v>
@@ -835,10 +837,10 @@
     </row>
     <row r="34">
       <c r="A34" s="6" t="n">
-        <v>44866</v>
+        <v>44896</v>
       </c>
       <c r="B34" s="1" t="n">
-        <v>35600</v>
+        <v>35700</v>
       </c>
       <c r="C34">
         <f>(B34/B46-1)*100</f>
@@ -847,10 +849,10 @@
     </row>
     <row r="35">
       <c r="A35" s="6" t="n">
-        <v>44835</v>
+        <v>44866</v>
       </c>
       <c r="B35" s="1" t="n">
-        <v>36400</v>
+        <v>35600</v>
       </c>
       <c r="C35">
         <f>(B35/B47-1)*100</f>
@@ -859,10 +861,10 @@
     </row>
     <row r="36">
       <c r="A36" s="6" t="n">
-        <v>44805</v>
+        <v>44835</v>
       </c>
       <c r="B36" s="1" t="n">
-        <v>36200</v>
+        <v>36400</v>
       </c>
       <c r="C36">
         <f>(B36/B48-1)*100</f>
@@ -871,10 +873,10 @@
     </row>
     <row r="37">
       <c r="A37" s="6" t="n">
-        <v>44774</v>
+        <v>44805</v>
       </c>
       <c r="B37" s="1" t="n">
-        <v>37300</v>
+        <v>36200</v>
       </c>
       <c r="C37">
         <f>(B37/B49-1)*100</f>
@@ -883,10 +885,10 @@
     </row>
     <row r="38">
       <c r="A38" s="6" t="n">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="B38" s="1" t="n">
-        <v>37600</v>
+        <v>37300</v>
       </c>
       <c r="C38">
         <f>(B38/B50-1)*100</f>
@@ -895,10 +897,10 @@
     </row>
     <row r="39">
       <c r="A39" s="6" t="n">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="B39" s="1" t="n">
-        <v>39200</v>
+        <v>37600</v>
       </c>
       <c r="C39">
         <f>(B39/B51-1)*100</f>
@@ -907,10 +909,10 @@
     </row>
     <row r="40">
       <c r="A40" s="6" t="n">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="B40" s="1" t="n">
-        <v>41900</v>
+        <v>39200</v>
       </c>
       <c r="C40">
         <f>(B40/B52-1)*100</f>
@@ -919,10 +921,10 @@
     </row>
     <row r="41">
       <c r="A41" s="6" t="n">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="B41" s="1" t="n">
-        <v>46600</v>
+        <v>41900</v>
       </c>
       <c r="C41">
         <f>(B41/B53-1)*100</f>
@@ -931,10 +933,10 @@
     </row>
     <row r="42">
       <c r="A42" s="6" t="n">
-        <v>44621</v>
+        <v>44652</v>
       </c>
       <c r="B42" s="1" t="n">
-        <v>53700</v>
+        <v>46600</v>
       </c>
       <c r="C42">
         <f>(B42/B54-1)*100</f>
@@ -943,10 +945,10 @@
     </row>
     <row r="43">
       <c r="A43" s="6" t="n">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="B43" s="1" t="n">
-        <v>58200</v>
+        <v>53700</v>
       </c>
       <c r="C43">
         <f>(B43/B55-1)*100</f>
@@ -955,10 +957,10 @@
     </row>
     <row r="44">
       <c r="A44" s="6" t="n">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="B44" s="1" t="n">
-        <v>57100</v>
+        <v>58200</v>
       </c>
       <c r="C44">
         <f>(B44/B56-1)*100</f>
@@ -967,10 +969,10 @@
     </row>
     <row r="45">
       <c r="A45" s="6" t="n">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="B45" s="1" t="n">
-        <v>56700</v>
+        <v>57100</v>
       </c>
       <c r="C45">
         <f>(B45/B57-1)*100</f>
@@ -979,10 +981,10 @@
     </row>
     <row r="46">
       <c r="A46" s="6" t="n">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="B46" s="1" t="n">
-        <v>58400</v>
+        <v>56700</v>
       </c>
       <c r="C46">
         <f>(B46/B58-1)*100</f>
@@ -991,10 +993,10 @@
     </row>
     <row r="47">
       <c r="A47" s="6" t="n">
-        <v>44470</v>
+        <v>44501</v>
       </c>
       <c r="B47" s="1" t="n">
-        <v>57400</v>
+        <v>58400</v>
       </c>
       <c r="C47">
         <f>(B47/B59-1)*100</f>
@@ -1003,10 +1005,10 @@
     </row>
     <row r="48">
       <c r="A48" s="6" t="n">
-        <v>44440</v>
+        <v>44470</v>
       </c>
       <c r="B48" s="1" t="n">
-        <v>53700</v>
+        <v>57400</v>
       </c>
       <c r="C48">
         <f>(B48/B60-1)*100</f>
@@ -1015,10 +1017,10 @@
     </row>
     <row r="49">
       <c r="A49" s="6" t="n">
-        <v>44409</v>
+        <v>44440</v>
       </c>
       <c r="B49" s="1" t="n">
-        <v>51900</v>
+        <v>53700</v>
       </c>
       <c r="C49">
         <f>(B49/B61-1)*100</f>
@@ -1027,10 +1029,10 @@
     </row>
     <row r="50">
       <c r="A50" s="6" t="n">
-        <v>44378</v>
+        <v>44409</v>
       </c>
       <c r="B50" s="1" t="n">
-        <v>51800</v>
+        <v>51900</v>
       </c>
       <c r="C50">
         <f>(B50/B62-1)*100</f>
@@ -1039,10 +1041,10 @@
     </row>
     <row r="51">
       <c r="A51" s="6" t="n">
-        <v>44348</v>
+        <v>44378</v>
       </c>
       <c r="B51" s="1" t="n">
-        <v>52400</v>
+        <v>51800</v>
       </c>
       <c r="C51">
         <f>(B51/B63-1)*100</f>
@@ -1051,10 +1053,10 @@
     </row>
     <row r="52">
       <c r="A52" s="6" t="n">
-        <v>44317</v>
+        <v>44348</v>
       </c>
       <c r="B52" s="1" t="n">
-        <v>56700</v>
+        <v>52400</v>
       </c>
       <c r="C52">
         <f>(B52/B64-1)*100</f>
@@ -1063,10 +1065,10 @@
     </row>
     <row r="53">
       <c r="A53" s="6" t="n">
-        <v>44287</v>
+        <v>44317</v>
       </c>
       <c r="B53" s="1" t="n">
-        <v>60300</v>
+        <v>56700</v>
       </c>
       <c r="C53">
         <f>(B53/B65-1)*100</f>
@@ -1075,10 +1077,10 @@
     </row>
     <row r="54">
       <c r="A54" s="6" t="n">
-        <v>44256</v>
+        <v>44287</v>
       </c>
       <c r="B54" s="1" t="n">
-        <v>66300</v>
+        <v>60300</v>
       </c>
       <c r="C54">
         <f>(B54/B66-1)*100</f>
@@ -1087,10 +1089,10 @@
     </row>
     <row r="55">
       <c r="A55" s="6" t="n">
-        <v>44228</v>
+        <v>44256</v>
       </c>
       <c r="B55" s="1" t="n">
-        <v>62900</v>
+        <v>66300</v>
       </c>
       <c r="C55">
         <f>(B55/B67-1)*100</f>
@@ -1099,10 +1101,10 @@
     </row>
     <row r="56">
       <c r="A56" s="6" t="n">
-        <v>44197</v>
+        <v>44228</v>
       </c>
       <c r="B56" s="1" t="n">
-        <v>62500</v>
+        <v>62900</v>
       </c>
       <c r="C56">
         <f>(B56/B68-1)*100</f>
@@ -1110,7 +1112,12 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="3" t="n"/>
+      <c r="A57" s="6" t="n">
+        <v>44197</v>
+      </c>
+      <c r="B57" s="1" t="n">
+        <v>62500</v>
+      </c>
       <c r="C57">
         <f>(B57/B69-1)*100</f>
         <v/>
@@ -1195,6 +1202,13 @@
     </row>
     <row r="69">
       <c r="A69" s="3" t="n"/>
+      <c r="C69">
+        <f>(B69/B81-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="3" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/home-sales.xlsx
+++ b/data/home-sales.xlsx
@@ -404,7 +404,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C70"/>
+  <dimension ref="A1:C71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,11 +436,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-08-01</t>
+          <t>2025-09-01</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>40714</v>
+        <v>39938</v>
       </c>
       <c r="C2">
         <f>(B2/B14-1)*100</f>
@@ -450,11 +450,11 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-08-01</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>69.3</v>
+        <v>40714</v>
       </c>
       <c r="C3">
         <f>(B3/B15-1)*100</f>
@@ -464,7 +464,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-06-01</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -478,11 +478,11 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-05-01</t>
+          <t>2025-06-01</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>37626</v>
+        <v>69.3</v>
       </c>
       <c r="C5">
         <f>(B5/B17-1)*100</f>
@@ -492,11 +492,11 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-05-01</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>66.8</v>
+        <v>37626</v>
       </c>
       <c r="C6">
         <f>(B6/B18-1)*100</f>
@@ -506,7 +506,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-03-01</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -520,7 +520,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-02-01</t>
+          <t>2025-03-01</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -534,37 +534,39 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>2025-02-01</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="C9">
+        <f>(B9/B21-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
           <t>2025-01-01</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B10" t="n">
         <v>66.8</v>
       </c>
-      <c r="C9">
-        <f>(B9/B21-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="6" t="inlineStr">
+      <c r="C10">
+        <f>(B10/B22-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="6" t="inlineStr">
         <is>
           <t>2024-12-01</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B11" t="n">
         <v>43239</v>
-      </c>
-      <c r="C10">
-        <f>(B10/B22-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="6" t="n">
-        <v>45597</v>
-      </c>
-      <c r="B11" s="4" t="n">
-        <v>45900</v>
       </c>
       <c r="C11">
         <f>(B11/B23-1)*100</f>
@@ -573,10 +575,10 @@
     </row>
     <row r="12">
       <c r="A12" s="6" t="n">
-        <v>45566</v>
+        <v>45597</v>
       </c>
       <c r="B12" s="4" t="n">
-        <v>44200</v>
+        <v>45900</v>
       </c>
       <c r="C12">
         <f>(B12/B24-1)*100</f>
@@ -585,10 +587,10 @@
     </row>
     <row r="13">
       <c r="A13" s="6" t="n">
-        <v>45536</v>
+        <v>45566</v>
       </c>
       <c r="B13" s="4" t="n">
-        <v>41200</v>
+        <v>44200</v>
       </c>
       <c r="C13">
         <f>(B13/B25-1)*100</f>
@@ -597,10 +599,10 @@
     </row>
     <row r="14">
       <c r="A14" s="6" t="n">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="B14" s="4" t="n">
-        <v>40400</v>
+        <v>41200</v>
       </c>
       <c r="C14">
         <f>(B14/B26-1)*100</f>
@@ -609,10 +611,10 @@
     </row>
     <row r="15">
       <c r="A15" s="6" t="n">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="B15" s="4" t="n">
-        <v>39600</v>
+        <v>40400</v>
       </c>
       <c r="C15">
         <f>(B15/B27-1)*100</f>
@@ -621,10 +623,10 @@
     </row>
     <row r="16">
       <c r="A16" s="6" t="n">
-        <v>45444</v>
-      </c>
-      <c r="B16" s="5" t="n">
-        <v>39800</v>
+        <v>45474</v>
+      </c>
+      <c r="B16" s="4" t="n">
+        <v>39600</v>
       </c>
       <c r="C16">
         <f>(B16/B28-1)*100</f>
@@ -633,10 +635,10 @@
     </row>
     <row r="17">
       <c r="A17" s="6" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="B17" s="5" t="n">
-        <v>38300</v>
+        <v>39800</v>
       </c>
       <c r="C17">
         <f>(B17/B29-1)*100</f>
@@ -645,10 +647,10 @@
     </row>
     <row r="18">
       <c r="A18" s="6" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="B18" s="5" t="n">
-        <v>38400</v>
+        <v>38300</v>
       </c>
       <c r="C18">
         <f>(B18/B30-1)*100</f>
@@ -657,10 +659,10 @@
     </row>
     <row r="19">
       <c r="A19" s="6" t="n">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="B19" s="5" t="n">
-        <v>39700</v>
+        <v>38400</v>
       </c>
       <c r="C19">
         <f>(B19/B31-1)*100</f>
@@ -669,10 +671,10 @@
     </row>
     <row r="20">
       <c r="A20" s="6" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="B20" s="5" t="n">
-        <v>39400</v>
+        <v>39700</v>
       </c>
       <c r="C20">
         <f>(B20/B32-1)*100</f>
@@ -681,10 +683,10 @@
     </row>
     <row r="21">
       <c r="A21" s="6" t="n">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="B21" s="5" t="n">
-        <v>40300</v>
+        <v>39400</v>
       </c>
       <c r="C21">
         <f>(B21/B33-1)*100</f>
@@ -693,10 +695,10 @@
     </row>
     <row r="22">
       <c r="A22" s="6" t="n">
-        <v>45261</v>
+        <v>45292</v>
       </c>
       <c r="B22" s="5" t="n">
-        <v>38600</v>
+        <v>40300</v>
       </c>
       <c r="C22">
         <f>(B22/B34-1)*100</f>
@@ -705,10 +707,10 @@
     </row>
     <row r="23">
       <c r="A23" s="6" t="n">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="B23" s="5" t="n">
-        <v>35200</v>
+        <v>38600</v>
       </c>
       <c r="C23">
         <f>(B23/B35-1)*100</f>
@@ -717,10 +719,10 @@
     </row>
     <row r="24">
       <c r="A24" s="6" t="n">
-        <v>45200</v>
+        <v>45231</v>
       </c>
       <c r="B24" s="5" t="n">
-        <v>35400</v>
+        <v>35200</v>
       </c>
       <c r="C24">
         <f>(B24/B36-1)*100</f>
@@ -729,10 +731,10 @@
     </row>
     <row r="25">
       <c r="A25" s="6" t="n">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B25" s="5" t="n">
-        <v>38600</v>
+        <v>35400</v>
       </c>
       <c r="C25">
         <f>(B25/B37-1)*100</f>
@@ -741,10 +743,10 @@
     </row>
     <row r="26">
       <c r="A26" s="6" t="n">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B26" s="5" t="n">
-        <v>39800</v>
+        <v>38600</v>
       </c>
       <c r="C26">
         <f>(B26/B38-1)*100</f>
@@ -753,10 +755,10 @@
     </row>
     <row r="27">
       <c r="A27" s="6" t="n">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B27" s="5" t="n">
-        <v>41300</v>
+        <v>39800</v>
       </c>
       <c r="C27">
         <f>(B27/B39-1)*100</f>
@@ -765,10 +767,10 @@
     </row>
     <row r="28">
       <c r="A28" s="6" t="n">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B28" s="5" t="n">
-        <v>41600</v>
+        <v>41300</v>
       </c>
       <c r="C28">
         <f>(B28/B40-1)*100</f>
@@ -777,10 +779,10 @@
     </row>
     <row r="29">
       <c r="A29" s="6" t="n">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B29" s="5" t="n">
-        <v>41700</v>
+        <v>41600</v>
       </c>
       <c r="C29">
         <f>(B29/B41-1)*100</f>
@@ -789,10 +791,10 @@
     </row>
     <row r="30">
       <c r="A30" s="6" t="n">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B30" s="5" t="n">
-        <v>39600</v>
+        <v>41700</v>
       </c>
       <c r="C30">
         <f>(B30/B42-1)*100</f>
@@ -801,10 +803,10 @@
     </row>
     <row r="31">
       <c r="A31" s="6" t="n">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B31" s="5" t="n">
-        <v>35700</v>
+        <v>39600</v>
       </c>
       <c r="C31">
         <f>(B31/B43-1)*100</f>
@@ -813,10 +815,10 @@
     </row>
     <row r="32">
       <c r="A32" s="6" t="n">
-        <v>44958</v>
+        <v>44986</v>
       </c>
       <c r="B32" s="5" t="n">
-        <v>35000</v>
+        <v>35700</v>
       </c>
       <c r="C32">
         <f>(B32/B44-1)*100</f>
@@ -825,10 +827,10 @@
     </row>
     <row r="33">
       <c r="A33" s="6" t="n">
-        <v>44927</v>
-      </c>
-      <c r="B33" s="1" t="n">
-        <v>35700</v>
+        <v>44958</v>
+      </c>
+      <c r="B33" s="5" t="n">
+        <v>35000</v>
       </c>
       <c r="C33">
         <f>(B33/B45-1)*100</f>
@@ -837,7 +839,7 @@
     </row>
     <row r="34">
       <c r="A34" s="6" t="n">
-        <v>44896</v>
+        <v>44927</v>
       </c>
       <c r="B34" s="1" t="n">
         <v>35700</v>
@@ -849,10 +851,10 @@
     </row>
     <row r="35">
       <c r="A35" s="6" t="n">
-        <v>44866</v>
+        <v>44896</v>
       </c>
       <c r="B35" s="1" t="n">
-        <v>35600</v>
+        <v>35700</v>
       </c>
       <c r="C35">
         <f>(B35/B47-1)*100</f>
@@ -861,10 +863,10 @@
     </row>
     <row r="36">
       <c r="A36" s="6" t="n">
-        <v>44835</v>
+        <v>44866</v>
       </c>
       <c r="B36" s="1" t="n">
-        <v>36400</v>
+        <v>35600</v>
       </c>
       <c r="C36">
         <f>(B36/B48-1)*100</f>
@@ -873,10 +875,10 @@
     </row>
     <row r="37">
       <c r="A37" s="6" t="n">
-        <v>44805</v>
+        <v>44835</v>
       </c>
       <c r="B37" s="1" t="n">
-        <v>36200</v>
+        <v>36400</v>
       </c>
       <c r="C37">
         <f>(B37/B49-1)*100</f>
@@ -885,10 +887,10 @@
     </row>
     <row r="38">
       <c r="A38" s="6" t="n">
-        <v>44774</v>
+        <v>44805</v>
       </c>
       <c r="B38" s="1" t="n">
-        <v>37300</v>
+        <v>36200</v>
       </c>
       <c r="C38">
         <f>(B38/B50-1)*100</f>
@@ -897,10 +899,10 @@
     </row>
     <row r="39">
       <c r="A39" s="6" t="n">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="B39" s="1" t="n">
-        <v>37600</v>
+        <v>37300</v>
       </c>
       <c r="C39">
         <f>(B39/B51-1)*100</f>
@@ -909,10 +911,10 @@
     </row>
     <row r="40">
       <c r="A40" s="6" t="n">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="B40" s="1" t="n">
-        <v>39200</v>
+        <v>37600</v>
       </c>
       <c r="C40">
         <f>(B40/B52-1)*100</f>
@@ -921,10 +923,10 @@
     </row>
     <row r="41">
       <c r="A41" s="6" t="n">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="B41" s="1" t="n">
-        <v>41900</v>
+        <v>39200</v>
       </c>
       <c r="C41">
         <f>(B41/B53-1)*100</f>
@@ -933,10 +935,10 @@
     </row>
     <row r="42">
       <c r="A42" s="6" t="n">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="B42" s="1" t="n">
-        <v>46600</v>
+        <v>41900</v>
       </c>
       <c r="C42">
         <f>(B42/B54-1)*100</f>
@@ -945,10 +947,10 @@
     </row>
     <row r="43">
       <c r="A43" s="6" t="n">
-        <v>44621</v>
+        <v>44652</v>
       </c>
       <c r="B43" s="1" t="n">
-        <v>53700</v>
+        <v>46600</v>
       </c>
       <c r="C43">
         <f>(B43/B55-1)*100</f>
@@ -957,10 +959,10 @@
     </row>
     <row r="44">
       <c r="A44" s="6" t="n">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="B44" s="1" t="n">
-        <v>58200</v>
+        <v>53700</v>
       </c>
       <c r="C44">
         <f>(B44/B56-1)*100</f>
@@ -969,10 +971,10 @@
     </row>
     <row r="45">
       <c r="A45" s="6" t="n">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="B45" s="1" t="n">
-        <v>57100</v>
+        <v>58200</v>
       </c>
       <c r="C45">
         <f>(B45/B57-1)*100</f>
@@ -981,10 +983,10 @@
     </row>
     <row r="46">
       <c r="A46" s="6" t="n">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="B46" s="1" t="n">
-        <v>56700</v>
+        <v>57100</v>
       </c>
       <c r="C46">
         <f>(B46/B58-1)*100</f>
@@ -993,10 +995,10 @@
     </row>
     <row r="47">
       <c r="A47" s="6" t="n">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="B47" s="1" t="n">
-        <v>58400</v>
+        <v>56700</v>
       </c>
       <c r="C47">
         <f>(B47/B59-1)*100</f>
@@ -1005,10 +1007,10 @@
     </row>
     <row r="48">
       <c r="A48" s="6" t="n">
-        <v>44470</v>
+        <v>44501</v>
       </c>
       <c r="B48" s="1" t="n">
-        <v>57400</v>
+        <v>58400</v>
       </c>
       <c r="C48">
         <f>(B48/B60-1)*100</f>
@@ -1017,10 +1019,10 @@
     </row>
     <row r="49">
       <c r="A49" s="6" t="n">
-        <v>44440</v>
+        <v>44470</v>
       </c>
       <c r="B49" s="1" t="n">
-        <v>53700</v>
+        <v>57400</v>
       </c>
       <c r="C49">
         <f>(B49/B61-1)*100</f>
@@ -1029,10 +1031,10 @@
     </row>
     <row r="50">
       <c r="A50" s="6" t="n">
-        <v>44409</v>
+        <v>44440</v>
       </c>
       <c r="B50" s="1" t="n">
-        <v>51900</v>
+        <v>53700</v>
       </c>
       <c r="C50">
         <f>(B50/B62-1)*100</f>
@@ -1041,10 +1043,10 @@
     </row>
     <row r="51">
       <c r="A51" s="6" t="n">
-        <v>44378</v>
+        <v>44409</v>
       </c>
       <c r="B51" s="1" t="n">
-        <v>51800</v>
+        <v>51900</v>
       </c>
       <c r="C51">
         <f>(B51/B63-1)*100</f>
@@ -1053,10 +1055,10 @@
     </row>
     <row r="52">
       <c r="A52" s="6" t="n">
-        <v>44348</v>
+        <v>44378</v>
       </c>
       <c r="B52" s="1" t="n">
-        <v>52400</v>
+        <v>51800</v>
       </c>
       <c r="C52">
         <f>(B52/B64-1)*100</f>
@@ -1065,10 +1067,10 @@
     </row>
     <row r="53">
       <c r="A53" s="6" t="n">
-        <v>44317</v>
+        <v>44348</v>
       </c>
       <c r="B53" s="1" t="n">
-        <v>56700</v>
+        <v>52400</v>
       </c>
       <c r="C53">
         <f>(B53/B65-1)*100</f>
@@ -1077,10 +1079,10 @@
     </row>
     <row r="54">
       <c r="A54" s="6" t="n">
-        <v>44287</v>
+        <v>44317</v>
       </c>
       <c r="B54" s="1" t="n">
-        <v>60300</v>
+        <v>56700</v>
       </c>
       <c r="C54">
         <f>(B54/B66-1)*100</f>
@@ -1089,10 +1091,10 @@
     </row>
     <row r="55">
       <c r="A55" s="6" t="n">
-        <v>44256</v>
+        <v>44287</v>
       </c>
       <c r="B55" s="1" t="n">
-        <v>66300</v>
+        <v>60300</v>
       </c>
       <c r="C55">
         <f>(B55/B67-1)*100</f>
@@ -1101,10 +1103,10 @@
     </row>
     <row r="56">
       <c r="A56" s="6" t="n">
-        <v>44228</v>
+        <v>44256</v>
       </c>
       <c r="B56" s="1" t="n">
-        <v>62900</v>
+        <v>66300</v>
       </c>
       <c r="C56">
         <f>(B56/B68-1)*100</f>
@@ -1113,10 +1115,10 @@
     </row>
     <row r="57">
       <c r="A57" s="6" t="n">
-        <v>44197</v>
+        <v>44228</v>
       </c>
       <c r="B57" s="1" t="n">
-        <v>62500</v>
+        <v>62900</v>
       </c>
       <c r="C57">
         <f>(B57/B69-1)*100</f>
@@ -1124,7 +1126,12 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="3" t="n"/>
+      <c r="A58" s="6" t="n">
+        <v>44197</v>
+      </c>
+      <c r="B58" s="1" t="n">
+        <v>62500</v>
+      </c>
       <c r="C58">
         <f>(B58/B70-1)*100</f>
         <v/>
@@ -1209,6 +1216,13 @@
     </row>
     <row r="70">
       <c r="A70" s="3" t="n"/>
+      <c r="C70">
+        <f>(B70/B82-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="3" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/home-sales.xlsx
+++ b/data/home-sales.xlsx
@@ -404,7 +404,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C71"/>
+  <dimension ref="A1:C72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,11 +436,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>39938</v>
+        <v>69.3</v>
       </c>
       <c r="C2">
         <f>(B2/B14-1)*100</f>
@@ -450,11 +450,11 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-08-01</t>
+          <t>2025-09-01</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>40714</v>
+        <v>39938</v>
       </c>
       <c r="C3">
         <f>(B3/B15-1)*100</f>
@@ -464,11 +464,11 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-08-01</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>69.3</v>
+        <v>40714</v>
       </c>
       <c r="C4">
         <f>(B4/B16-1)*100</f>
@@ -478,7 +478,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-06-01</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -492,11 +492,11 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-05-01</t>
+          <t>2025-06-01</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>37626</v>
+        <v>69.3</v>
       </c>
       <c r="C6">
         <f>(B6/B18-1)*100</f>
@@ -506,11 +506,11 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-05-01</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>66.8</v>
+        <v>37626</v>
       </c>
       <c r="C7">
         <f>(B7/B19-1)*100</f>
@@ -520,7 +520,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-03-01</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -534,7 +534,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-02-01</t>
+          <t>2025-03-01</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -548,7 +548,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2025-02-01</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -560,13 +560,13 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>2024-12-01</t>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>43239</v>
+        <v>66.8</v>
       </c>
       <c r="C11">
         <f>(B11/B23-1)*100</f>
@@ -574,11 +574,13 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="6" t="n">
-        <v>45597</v>
-      </c>
-      <c r="B12" s="4" t="n">
-        <v>45900</v>
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t>2024-12-01</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>43239</v>
       </c>
       <c r="C12">
         <f>(B12/B24-1)*100</f>
@@ -587,10 +589,10 @@
     </row>
     <row r="13">
       <c r="A13" s="6" t="n">
-        <v>45566</v>
+        <v>45597</v>
       </c>
       <c r="B13" s="4" t="n">
-        <v>44200</v>
+        <v>45900</v>
       </c>
       <c r="C13">
         <f>(B13/B25-1)*100</f>
@@ -599,10 +601,10 @@
     </row>
     <row r="14">
       <c r="A14" s="6" t="n">
-        <v>45536</v>
+        <v>45566</v>
       </c>
       <c r="B14" s="4" t="n">
-        <v>41200</v>
+        <v>44200</v>
       </c>
       <c r="C14">
         <f>(B14/B26-1)*100</f>
@@ -611,10 +613,10 @@
     </row>
     <row r="15">
       <c r="A15" s="6" t="n">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="B15" s="4" t="n">
-        <v>40400</v>
+        <v>41200</v>
       </c>
       <c r="C15">
         <f>(B15/B27-1)*100</f>
@@ -623,10 +625,10 @@
     </row>
     <row r="16">
       <c r="A16" s="6" t="n">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="B16" s="4" t="n">
-        <v>39600</v>
+        <v>40400</v>
       </c>
       <c r="C16">
         <f>(B16/B28-1)*100</f>
@@ -635,10 +637,10 @@
     </row>
     <row r="17">
       <c r="A17" s="6" t="n">
-        <v>45444</v>
-      </c>
-      <c r="B17" s="5" t="n">
-        <v>39800</v>
+        <v>45474</v>
+      </c>
+      <c r="B17" s="4" t="n">
+        <v>39600</v>
       </c>
       <c r="C17">
         <f>(B17/B29-1)*100</f>
@@ -647,10 +649,10 @@
     </row>
     <row r="18">
       <c r="A18" s="6" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="B18" s="5" t="n">
-        <v>38300</v>
+        <v>39800</v>
       </c>
       <c r="C18">
         <f>(B18/B30-1)*100</f>
@@ -659,10 +661,10 @@
     </row>
     <row r="19">
       <c r="A19" s="6" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="B19" s="5" t="n">
-        <v>38400</v>
+        <v>38300</v>
       </c>
       <c r="C19">
         <f>(B19/B31-1)*100</f>
@@ -671,10 +673,10 @@
     </row>
     <row r="20">
       <c r="A20" s="6" t="n">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="B20" s="5" t="n">
-        <v>39700</v>
+        <v>38400</v>
       </c>
       <c r="C20">
         <f>(B20/B32-1)*100</f>
@@ -683,10 +685,10 @@
     </row>
     <row r="21">
       <c r="A21" s="6" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="B21" s="5" t="n">
-        <v>39400</v>
+        <v>39700</v>
       </c>
       <c r="C21">
         <f>(B21/B33-1)*100</f>
@@ -695,10 +697,10 @@
     </row>
     <row r="22">
       <c r="A22" s="6" t="n">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="B22" s="5" t="n">
-        <v>40300</v>
+        <v>39400</v>
       </c>
       <c r="C22">
         <f>(B22/B34-1)*100</f>
@@ -707,10 +709,10 @@
     </row>
     <row r="23">
       <c r="A23" s="6" t="n">
-        <v>45261</v>
+        <v>45292</v>
       </c>
       <c r="B23" s="5" t="n">
-        <v>38600</v>
+        <v>40300</v>
       </c>
       <c r="C23">
         <f>(B23/B35-1)*100</f>
@@ -719,10 +721,10 @@
     </row>
     <row r="24">
       <c r="A24" s="6" t="n">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="B24" s="5" t="n">
-        <v>35200</v>
+        <v>38600</v>
       </c>
       <c r="C24">
         <f>(B24/B36-1)*100</f>
@@ -731,10 +733,10 @@
     </row>
     <row r="25">
       <c r="A25" s="6" t="n">
-        <v>45200</v>
+        <v>45231</v>
       </c>
       <c r="B25" s="5" t="n">
-        <v>35400</v>
+        <v>35200</v>
       </c>
       <c r="C25">
         <f>(B25/B37-1)*100</f>
@@ -743,10 +745,10 @@
     </row>
     <row r="26">
       <c r="A26" s="6" t="n">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B26" s="5" t="n">
-        <v>38600</v>
+        <v>35400</v>
       </c>
       <c r="C26">
         <f>(B26/B38-1)*100</f>
@@ -755,10 +757,10 @@
     </row>
     <row r="27">
       <c r="A27" s="6" t="n">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B27" s="5" t="n">
-        <v>39800</v>
+        <v>38600</v>
       </c>
       <c r="C27">
         <f>(B27/B39-1)*100</f>
@@ -767,10 +769,10 @@
     </row>
     <row r="28">
       <c r="A28" s="6" t="n">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B28" s="5" t="n">
-        <v>41300</v>
+        <v>39800</v>
       </c>
       <c r="C28">
         <f>(B28/B40-1)*100</f>
@@ -779,10 +781,10 @@
     </row>
     <row r="29">
       <c r="A29" s="6" t="n">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B29" s="5" t="n">
-        <v>41600</v>
+        <v>41300</v>
       </c>
       <c r="C29">
         <f>(B29/B41-1)*100</f>
@@ -791,10 +793,10 @@
     </row>
     <row r="30">
       <c r="A30" s="6" t="n">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B30" s="5" t="n">
-        <v>41700</v>
+        <v>41600</v>
       </c>
       <c r="C30">
         <f>(B30/B42-1)*100</f>
@@ -803,10 +805,10 @@
     </row>
     <row r="31">
       <c r="A31" s="6" t="n">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B31" s="5" t="n">
-        <v>39600</v>
+        <v>41700</v>
       </c>
       <c r="C31">
         <f>(B31/B43-1)*100</f>
@@ -815,10 +817,10 @@
     </row>
     <row r="32">
       <c r="A32" s="6" t="n">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B32" s="5" t="n">
-        <v>35700</v>
+        <v>39600</v>
       </c>
       <c r="C32">
         <f>(B32/B44-1)*100</f>
@@ -827,10 +829,10 @@
     </row>
     <row r="33">
       <c r="A33" s="6" t="n">
-        <v>44958</v>
+        <v>44986</v>
       </c>
       <c r="B33" s="5" t="n">
-        <v>35000</v>
+        <v>35700</v>
       </c>
       <c r="C33">
         <f>(B33/B45-1)*100</f>
@@ -839,10 +841,10 @@
     </row>
     <row r="34">
       <c r="A34" s="6" t="n">
-        <v>44927</v>
-      </c>
-      <c r="B34" s="1" t="n">
-        <v>35700</v>
+        <v>44958</v>
+      </c>
+      <c r="B34" s="5" t="n">
+        <v>35000</v>
       </c>
       <c r="C34">
         <f>(B34/B46-1)*100</f>
@@ -851,7 +853,7 @@
     </row>
     <row r="35">
       <c r="A35" s="6" t="n">
-        <v>44896</v>
+        <v>44927</v>
       </c>
       <c r="B35" s="1" t="n">
         <v>35700</v>
@@ -863,10 +865,10 @@
     </row>
     <row r="36">
       <c r="A36" s="6" t="n">
-        <v>44866</v>
+        <v>44896</v>
       </c>
       <c r="B36" s="1" t="n">
-        <v>35600</v>
+        <v>35700</v>
       </c>
       <c r="C36">
         <f>(B36/B48-1)*100</f>
@@ -875,10 +877,10 @@
     </row>
     <row r="37">
       <c r="A37" s="6" t="n">
-        <v>44835</v>
+        <v>44866</v>
       </c>
       <c r="B37" s="1" t="n">
-        <v>36400</v>
+        <v>35600</v>
       </c>
       <c r="C37">
         <f>(B37/B49-1)*100</f>
@@ -887,10 +889,10 @@
     </row>
     <row r="38">
       <c r="A38" s="6" t="n">
-        <v>44805</v>
+        <v>44835</v>
       </c>
       <c r="B38" s="1" t="n">
-        <v>36200</v>
+        <v>36400</v>
       </c>
       <c r="C38">
         <f>(B38/B50-1)*100</f>
@@ -899,10 +901,10 @@
     </row>
     <row r="39">
       <c r="A39" s="6" t="n">
-        <v>44774</v>
+        <v>44805</v>
       </c>
       <c r="B39" s="1" t="n">
-        <v>37300</v>
+        <v>36200</v>
       </c>
       <c r="C39">
         <f>(B39/B51-1)*100</f>
@@ -911,10 +913,10 @@
     </row>
     <row r="40">
       <c r="A40" s="6" t="n">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="B40" s="1" t="n">
-        <v>37600</v>
+        <v>37300</v>
       </c>
       <c r="C40">
         <f>(B40/B52-1)*100</f>
@@ -923,10 +925,10 @@
     </row>
     <row r="41">
       <c r="A41" s="6" t="n">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="B41" s="1" t="n">
-        <v>39200</v>
+        <v>37600</v>
       </c>
       <c r="C41">
         <f>(B41/B53-1)*100</f>
@@ -935,10 +937,10 @@
     </row>
     <row r="42">
       <c r="A42" s="6" t="n">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="B42" s="1" t="n">
-        <v>41900</v>
+        <v>39200</v>
       </c>
       <c r="C42">
         <f>(B42/B54-1)*100</f>
@@ -947,10 +949,10 @@
     </row>
     <row r="43">
       <c r="A43" s="6" t="n">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="B43" s="1" t="n">
-        <v>46600</v>
+        <v>41900</v>
       </c>
       <c r="C43">
         <f>(B43/B55-1)*100</f>
@@ -959,10 +961,10 @@
     </row>
     <row r="44">
       <c r="A44" s="6" t="n">
-        <v>44621</v>
+        <v>44652</v>
       </c>
       <c r="B44" s="1" t="n">
-        <v>53700</v>
+        <v>46600</v>
       </c>
       <c r="C44">
         <f>(B44/B56-1)*100</f>
@@ -971,10 +973,10 @@
     </row>
     <row r="45">
       <c r="A45" s="6" t="n">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="B45" s="1" t="n">
-        <v>58200</v>
+        <v>53700</v>
       </c>
       <c r="C45">
         <f>(B45/B57-1)*100</f>
@@ -983,10 +985,10 @@
     </row>
     <row r="46">
       <c r="A46" s="6" t="n">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="B46" s="1" t="n">
-        <v>57100</v>
+        <v>58200</v>
       </c>
       <c r="C46">
         <f>(B46/B58-1)*100</f>
@@ -995,10 +997,10 @@
     </row>
     <row r="47">
       <c r="A47" s="6" t="n">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="B47" s="1" t="n">
-        <v>56700</v>
+        <v>57100</v>
       </c>
       <c r="C47">
         <f>(B47/B59-1)*100</f>
@@ -1007,10 +1009,10 @@
     </row>
     <row r="48">
       <c r="A48" s="6" t="n">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="B48" s="1" t="n">
-        <v>58400</v>
+        <v>56700</v>
       </c>
       <c r="C48">
         <f>(B48/B60-1)*100</f>
@@ -1019,10 +1021,10 @@
     </row>
     <row r="49">
       <c r="A49" s="6" t="n">
-        <v>44470</v>
+        <v>44501</v>
       </c>
       <c r="B49" s="1" t="n">
-        <v>57400</v>
+        <v>58400</v>
       </c>
       <c r="C49">
         <f>(B49/B61-1)*100</f>
@@ -1031,10 +1033,10 @@
     </row>
     <row r="50">
       <c r="A50" s="6" t="n">
-        <v>44440</v>
+        <v>44470</v>
       </c>
       <c r="B50" s="1" t="n">
-        <v>53700</v>
+        <v>57400</v>
       </c>
       <c r="C50">
         <f>(B50/B62-1)*100</f>
@@ -1043,10 +1045,10 @@
     </row>
     <row r="51">
       <c r="A51" s="6" t="n">
-        <v>44409</v>
+        <v>44440</v>
       </c>
       <c r="B51" s="1" t="n">
-        <v>51900</v>
+        <v>53700</v>
       </c>
       <c r="C51">
         <f>(B51/B63-1)*100</f>
@@ -1055,10 +1057,10 @@
     </row>
     <row r="52">
       <c r="A52" s="6" t="n">
-        <v>44378</v>
+        <v>44409</v>
       </c>
       <c r="B52" s="1" t="n">
-        <v>51800</v>
+        <v>51900</v>
       </c>
       <c r="C52">
         <f>(B52/B64-1)*100</f>
@@ -1067,10 +1069,10 @@
     </row>
     <row r="53">
       <c r="A53" s="6" t="n">
-        <v>44348</v>
+        <v>44378</v>
       </c>
       <c r="B53" s="1" t="n">
-        <v>52400</v>
+        <v>51800</v>
       </c>
       <c r="C53">
         <f>(B53/B65-1)*100</f>
@@ -1079,10 +1081,10 @@
     </row>
     <row r="54">
       <c r="A54" s="6" t="n">
-        <v>44317</v>
+        <v>44348</v>
       </c>
       <c r="B54" s="1" t="n">
-        <v>56700</v>
+        <v>52400</v>
       </c>
       <c r="C54">
         <f>(B54/B66-1)*100</f>
@@ -1091,10 +1093,10 @@
     </row>
     <row r="55">
       <c r="A55" s="6" t="n">
-        <v>44287</v>
+        <v>44317</v>
       </c>
       <c r="B55" s="1" t="n">
-        <v>60300</v>
+        <v>56700</v>
       </c>
       <c r="C55">
         <f>(B55/B67-1)*100</f>
@@ -1103,10 +1105,10 @@
     </row>
     <row r="56">
       <c r="A56" s="6" t="n">
-        <v>44256</v>
+        <v>44287</v>
       </c>
       <c r="B56" s="1" t="n">
-        <v>66300</v>
+        <v>60300</v>
       </c>
       <c r="C56">
         <f>(B56/B68-1)*100</f>
@@ -1115,10 +1117,10 @@
     </row>
     <row r="57">
       <c r="A57" s="6" t="n">
-        <v>44228</v>
+        <v>44256</v>
       </c>
       <c r="B57" s="1" t="n">
-        <v>62900</v>
+        <v>66300</v>
       </c>
       <c r="C57">
         <f>(B57/B69-1)*100</f>
@@ -1127,10 +1129,10 @@
     </row>
     <row r="58">
       <c r="A58" s="6" t="n">
-        <v>44197</v>
+        <v>44228</v>
       </c>
       <c r="B58" s="1" t="n">
-        <v>62500</v>
+        <v>62900</v>
       </c>
       <c r="C58">
         <f>(B58/B70-1)*100</f>
@@ -1138,7 +1140,12 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="3" t="n"/>
+      <c r="A59" s="6" t="n">
+        <v>44197</v>
+      </c>
+      <c r="B59" s="1" t="n">
+        <v>62500</v>
+      </c>
       <c r="C59">
         <f>(B59/B71-1)*100</f>
         <v/>
@@ -1223,6 +1230,13 @@
     </row>
     <row r="71">
       <c r="A71" s="3" t="n"/>
+      <c r="C71">
+        <f>(B71/B83-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="3" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/home-sales.xlsx
+++ b/data/home-sales.xlsx
@@ -404,7 +404,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C72"/>
+  <dimension ref="A1:C73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,11 +436,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-10-01</t>
+          <t>2025-11-01</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>69.3</v>
+        <v>66.7</v>
       </c>
       <c r="C2">
         <f>(B2/B14-1)*100</f>
@@ -450,11 +450,11 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>39938</v>
+        <v>69.3</v>
       </c>
       <c r="C3">
         <f>(B3/B15-1)*100</f>
@@ -464,11 +464,11 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-08-01</t>
+          <t>2025-09-01</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>40714</v>
+        <v>39938</v>
       </c>
       <c r="C4">
         <f>(B4/B16-1)*100</f>
@@ -478,11 +478,11 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-08-01</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>69.3</v>
+        <v>40714</v>
       </c>
       <c r="C5">
         <f>(B5/B17-1)*100</f>
@@ -492,7 +492,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-06-01</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -506,11 +506,11 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-05-01</t>
+          <t>2025-06-01</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>37626</v>
+        <v>69.3</v>
       </c>
       <c r="C7">
         <f>(B7/B19-1)*100</f>
@@ -520,11 +520,11 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-05-01</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>66.8</v>
+        <v>37626</v>
       </c>
       <c r="C8">
         <f>(B8/B20-1)*100</f>
@@ -534,7 +534,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-03-01</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -548,7 +548,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-02-01</t>
+          <t>2025-03-01</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -562,7 +562,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2025-02-01</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -574,13 +574,13 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>2024-12-01</t>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>43239</v>
+        <v>66.8</v>
       </c>
       <c r="C12">
         <f>(B12/B24-1)*100</f>
@@ -588,11 +588,13 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="6" t="n">
-        <v>45597</v>
-      </c>
-      <c r="B13" s="4" t="n">
-        <v>45900</v>
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>2024-12-01</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>43239</v>
       </c>
       <c r="C13">
         <f>(B13/B25-1)*100</f>
@@ -601,10 +603,10 @@
     </row>
     <row r="14">
       <c r="A14" s="6" t="n">
-        <v>45566</v>
+        <v>45597</v>
       </c>
       <c r="B14" s="4" t="n">
-        <v>44200</v>
+        <v>45900</v>
       </c>
       <c r="C14">
         <f>(B14/B26-1)*100</f>
@@ -613,10 +615,10 @@
     </row>
     <row r="15">
       <c r="A15" s="6" t="n">
-        <v>45536</v>
+        <v>45566</v>
       </c>
       <c r="B15" s="4" t="n">
-        <v>41200</v>
+        <v>44200</v>
       </c>
       <c r="C15">
         <f>(B15/B27-1)*100</f>
@@ -625,10 +627,10 @@
     </row>
     <row r="16">
       <c r="A16" s="6" t="n">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="B16" s="4" t="n">
-        <v>40400</v>
+        <v>41200</v>
       </c>
       <c r="C16">
         <f>(B16/B28-1)*100</f>
@@ -637,10 +639,10 @@
     </row>
     <row r="17">
       <c r="A17" s="6" t="n">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="B17" s="4" t="n">
-        <v>39600</v>
+        <v>40400</v>
       </c>
       <c r="C17">
         <f>(B17/B29-1)*100</f>
@@ -649,10 +651,10 @@
     </row>
     <row r="18">
       <c r="A18" s="6" t="n">
-        <v>45444</v>
-      </c>
-      <c r="B18" s="5" t="n">
-        <v>39800</v>
+        <v>45474</v>
+      </c>
+      <c r="B18" s="4" t="n">
+        <v>39600</v>
       </c>
       <c r="C18">
         <f>(B18/B30-1)*100</f>
@@ -661,10 +663,10 @@
     </row>
     <row r="19">
       <c r="A19" s="6" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="B19" s="5" t="n">
-        <v>38300</v>
+        <v>39800</v>
       </c>
       <c r="C19">
         <f>(B19/B31-1)*100</f>
@@ -673,10 +675,10 @@
     </row>
     <row r="20">
       <c r="A20" s="6" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="B20" s="5" t="n">
-        <v>38400</v>
+        <v>38300</v>
       </c>
       <c r="C20">
         <f>(B20/B32-1)*100</f>
@@ -685,10 +687,10 @@
     </row>
     <row r="21">
       <c r="A21" s="6" t="n">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="B21" s="5" t="n">
-        <v>39700</v>
+        <v>38400</v>
       </c>
       <c r="C21">
         <f>(B21/B33-1)*100</f>
@@ -697,10 +699,10 @@
     </row>
     <row r="22">
       <c r="A22" s="6" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="B22" s="5" t="n">
-        <v>39400</v>
+        <v>39700</v>
       </c>
       <c r="C22">
         <f>(B22/B34-1)*100</f>
@@ -709,10 +711,10 @@
     </row>
     <row r="23">
       <c r="A23" s="6" t="n">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="B23" s="5" t="n">
-        <v>40300</v>
+        <v>39400</v>
       </c>
       <c r="C23">
         <f>(B23/B35-1)*100</f>
@@ -721,10 +723,10 @@
     </row>
     <row r="24">
       <c r="A24" s="6" t="n">
-        <v>45261</v>
+        <v>45292</v>
       </c>
       <c r="B24" s="5" t="n">
-        <v>38600</v>
+        <v>40300</v>
       </c>
       <c r="C24">
         <f>(B24/B36-1)*100</f>
@@ -733,10 +735,10 @@
     </row>
     <row r="25">
       <c r="A25" s="6" t="n">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="B25" s="5" t="n">
-        <v>35200</v>
+        <v>38600</v>
       </c>
       <c r="C25">
         <f>(B25/B37-1)*100</f>
@@ -745,10 +747,10 @@
     </row>
     <row r="26">
       <c r="A26" s="6" t="n">
-        <v>45200</v>
+        <v>45231</v>
       </c>
       <c r="B26" s="5" t="n">
-        <v>35400</v>
+        <v>35200</v>
       </c>
       <c r="C26">
         <f>(B26/B38-1)*100</f>
@@ -757,10 +759,10 @@
     </row>
     <row r="27">
       <c r="A27" s="6" t="n">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B27" s="5" t="n">
-        <v>38600</v>
+        <v>35400</v>
       </c>
       <c r="C27">
         <f>(B27/B39-1)*100</f>
@@ -769,10 +771,10 @@
     </row>
     <row r="28">
       <c r="A28" s="6" t="n">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B28" s="5" t="n">
-        <v>39800</v>
+        <v>38600</v>
       </c>
       <c r="C28">
         <f>(B28/B40-1)*100</f>
@@ -781,10 +783,10 @@
     </row>
     <row r="29">
       <c r="A29" s="6" t="n">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B29" s="5" t="n">
-        <v>41300</v>
+        <v>39800</v>
       </c>
       <c r="C29">
         <f>(B29/B41-1)*100</f>
@@ -793,10 +795,10 @@
     </row>
     <row r="30">
       <c r="A30" s="6" t="n">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B30" s="5" t="n">
-        <v>41600</v>
+        <v>41300</v>
       </c>
       <c r="C30">
         <f>(B30/B42-1)*100</f>
@@ -805,10 +807,10 @@
     </row>
     <row r="31">
       <c r="A31" s="6" t="n">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B31" s="5" t="n">
-        <v>41700</v>
+        <v>41600</v>
       </c>
       <c r="C31">
         <f>(B31/B43-1)*100</f>
@@ -817,10 +819,10 @@
     </row>
     <row r="32">
       <c r="A32" s="6" t="n">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B32" s="5" t="n">
-        <v>39600</v>
+        <v>41700</v>
       </c>
       <c r="C32">
         <f>(B32/B44-1)*100</f>
@@ -829,10 +831,10 @@
     </row>
     <row r="33">
       <c r="A33" s="6" t="n">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B33" s="5" t="n">
-        <v>35700</v>
+        <v>39600</v>
       </c>
       <c r="C33">
         <f>(B33/B45-1)*100</f>
@@ -841,10 +843,10 @@
     </row>
     <row r="34">
       <c r="A34" s="6" t="n">
-        <v>44958</v>
+        <v>44986</v>
       </c>
       <c r="B34" s="5" t="n">
-        <v>35000</v>
+        <v>35700</v>
       </c>
       <c r="C34">
         <f>(B34/B46-1)*100</f>
@@ -853,10 +855,10 @@
     </row>
     <row r="35">
       <c r="A35" s="6" t="n">
-        <v>44927</v>
-      </c>
-      <c r="B35" s="1" t="n">
-        <v>35700</v>
+        <v>44958</v>
+      </c>
+      <c r="B35" s="5" t="n">
+        <v>35000</v>
       </c>
       <c r="C35">
         <f>(B35/B47-1)*100</f>
@@ -865,7 +867,7 @@
     </row>
     <row r="36">
       <c r="A36" s="6" t="n">
-        <v>44896</v>
+        <v>44927</v>
       </c>
       <c r="B36" s="1" t="n">
         <v>35700</v>
@@ -877,10 +879,10 @@
     </row>
     <row r="37">
       <c r="A37" s="6" t="n">
-        <v>44866</v>
+        <v>44896</v>
       </c>
       <c r="B37" s="1" t="n">
-        <v>35600</v>
+        <v>35700</v>
       </c>
       <c r="C37">
         <f>(B37/B49-1)*100</f>
@@ -889,10 +891,10 @@
     </row>
     <row r="38">
       <c r="A38" s="6" t="n">
-        <v>44835</v>
+        <v>44866</v>
       </c>
       <c r="B38" s="1" t="n">
-        <v>36400</v>
+        <v>35600</v>
       </c>
       <c r="C38">
         <f>(B38/B50-1)*100</f>
@@ -901,10 +903,10 @@
     </row>
     <row r="39">
       <c r="A39" s="6" t="n">
-        <v>44805</v>
+        <v>44835</v>
       </c>
       <c r="B39" s="1" t="n">
-        <v>36200</v>
+        <v>36400</v>
       </c>
       <c r="C39">
         <f>(B39/B51-1)*100</f>
@@ -913,10 +915,10 @@
     </row>
     <row r="40">
       <c r="A40" s="6" t="n">
-        <v>44774</v>
+        <v>44805</v>
       </c>
       <c r="B40" s="1" t="n">
-        <v>37300</v>
+        <v>36200</v>
       </c>
       <c r="C40">
         <f>(B40/B52-1)*100</f>
@@ -925,10 +927,10 @@
     </row>
     <row r="41">
       <c r="A41" s="6" t="n">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="B41" s="1" t="n">
-        <v>37600</v>
+        <v>37300</v>
       </c>
       <c r="C41">
         <f>(B41/B53-1)*100</f>
@@ -937,10 +939,10 @@
     </row>
     <row r="42">
       <c r="A42" s="6" t="n">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="B42" s="1" t="n">
-        <v>39200</v>
+        <v>37600</v>
       </c>
       <c r="C42">
         <f>(B42/B54-1)*100</f>
@@ -949,10 +951,10 @@
     </row>
     <row r="43">
       <c r="A43" s="6" t="n">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="B43" s="1" t="n">
-        <v>41900</v>
+        <v>39200</v>
       </c>
       <c r="C43">
         <f>(B43/B55-1)*100</f>
@@ -961,10 +963,10 @@
     </row>
     <row r="44">
       <c r="A44" s="6" t="n">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="B44" s="1" t="n">
-        <v>46600</v>
+        <v>41900</v>
       </c>
       <c r="C44">
         <f>(B44/B56-1)*100</f>
@@ -973,10 +975,10 @@
     </row>
     <row r="45">
       <c r="A45" s="6" t="n">
-        <v>44621</v>
+        <v>44652</v>
       </c>
       <c r="B45" s="1" t="n">
-        <v>53700</v>
+        <v>46600</v>
       </c>
       <c r="C45">
         <f>(B45/B57-1)*100</f>
@@ -985,10 +987,10 @@
     </row>
     <row r="46">
       <c r="A46" s="6" t="n">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="B46" s="1" t="n">
-        <v>58200</v>
+        <v>53700</v>
       </c>
       <c r="C46">
         <f>(B46/B58-1)*100</f>
@@ -997,10 +999,10 @@
     </row>
     <row r="47">
       <c r="A47" s="6" t="n">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="B47" s="1" t="n">
-        <v>57100</v>
+        <v>58200</v>
       </c>
       <c r="C47">
         <f>(B47/B59-1)*100</f>
@@ -1009,10 +1011,10 @@
     </row>
     <row r="48">
       <c r="A48" s="6" t="n">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="B48" s="1" t="n">
-        <v>56700</v>
+        <v>57100</v>
       </c>
       <c r="C48">
         <f>(B48/B60-1)*100</f>
@@ -1021,10 +1023,10 @@
     </row>
     <row r="49">
       <c r="A49" s="6" t="n">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="B49" s="1" t="n">
-        <v>58400</v>
+        <v>56700</v>
       </c>
       <c r="C49">
         <f>(B49/B61-1)*100</f>
@@ -1033,10 +1035,10 @@
     </row>
     <row r="50">
       <c r="A50" s="6" t="n">
-        <v>44470</v>
+        <v>44501</v>
       </c>
       <c r="B50" s="1" t="n">
-        <v>57400</v>
+        <v>58400</v>
       </c>
       <c r="C50">
         <f>(B50/B62-1)*100</f>
@@ -1045,10 +1047,10 @@
     </row>
     <row r="51">
       <c r="A51" s="6" t="n">
-        <v>44440</v>
+        <v>44470</v>
       </c>
       <c r="B51" s="1" t="n">
-        <v>53700</v>
+        <v>57400</v>
       </c>
       <c r="C51">
         <f>(B51/B63-1)*100</f>
@@ -1057,10 +1059,10 @@
     </row>
     <row r="52">
       <c r="A52" s="6" t="n">
-        <v>44409</v>
+        <v>44440</v>
       </c>
       <c r="B52" s="1" t="n">
-        <v>51900</v>
+        <v>53700</v>
       </c>
       <c r="C52">
         <f>(B52/B64-1)*100</f>
@@ -1069,10 +1071,10 @@
     </row>
     <row r="53">
       <c r="A53" s="6" t="n">
-        <v>44378</v>
+        <v>44409</v>
       </c>
       <c r="B53" s="1" t="n">
-        <v>51800</v>
+        <v>51900</v>
       </c>
       <c r="C53">
         <f>(B53/B65-1)*100</f>
@@ -1081,10 +1083,10 @@
     </row>
     <row r="54">
       <c r="A54" s="6" t="n">
-        <v>44348</v>
+        <v>44378</v>
       </c>
       <c r="B54" s="1" t="n">
-        <v>52400</v>
+        <v>51800</v>
       </c>
       <c r="C54">
         <f>(B54/B66-1)*100</f>
@@ -1093,10 +1095,10 @@
     </row>
     <row r="55">
       <c r="A55" s="6" t="n">
-        <v>44317</v>
+        <v>44348</v>
       </c>
       <c r="B55" s="1" t="n">
-        <v>56700</v>
+        <v>52400</v>
       </c>
       <c r="C55">
         <f>(B55/B67-1)*100</f>
@@ -1105,10 +1107,10 @@
     </row>
     <row r="56">
       <c r="A56" s="6" t="n">
-        <v>44287</v>
+        <v>44317</v>
       </c>
       <c r="B56" s="1" t="n">
-        <v>60300</v>
+        <v>56700</v>
       </c>
       <c r="C56">
         <f>(B56/B68-1)*100</f>
@@ -1117,10 +1119,10 @@
     </row>
     <row r="57">
       <c r="A57" s="6" t="n">
-        <v>44256</v>
+        <v>44287</v>
       </c>
       <c r="B57" s="1" t="n">
-        <v>66300</v>
+        <v>60300</v>
       </c>
       <c r="C57">
         <f>(B57/B69-1)*100</f>
@@ -1129,10 +1131,10 @@
     </row>
     <row r="58">
       <c r="A58" s="6" t="n">
-        <v>44228</v>
+        <v>44256</v>
       </c>
       <c r="B58" s="1" t="n">
-        <v>62900</v>
+        <v>66300</v>
       </c>
       <c r="C58">
         <f>(B58/B70-1)*100</f>
@@ -1141,10 +1143,10 @@
     </row>
     <row r="59">
       <c r="A59" s="6" t="n">
-        <v>44197</v>
+        <v>44228</v>
       </c>
       <c r="B59" s="1" t="n">
-        <v>62500</v>
+        <v>62900</v>
       </c>
       <c r="C59">
         <f>(B59/B71-1)*100</f>
@@ -1152,7 +1154,12 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="3" t="n"/>
+      <c r="A60" s="6" t="n">
+        <v>44197</v>
+      </c>
+      <c r="B60" s="1" t="n">
+        <v>62500</v>
+      </c>
       <c r="C60">
         <f>(B60/B72-1)*100</f>
         <v/>
@@ -1237,6 +1244,13 @@
     </row>
     <row r="72">
       <c r="A72" s="3" t="n"/>
+      <c r="C72">
+        <f>(B72/B84-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="3" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/home-sales.xlsx
+++ b/data/home-sales.xlsx
@@ -404,7 +404,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C73"/>
+  <dimension ref="A1:C74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,11 +436,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-11-01</t>
+          <t>2025-12-01</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>66.7</v>
+        <v>69.3</v>
       </c>
       <c r="C2">
         <f>(B2/B14-1)*100</f>
@@ -450,11 +450,11 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-10-01</t>
+          <t>2025-11-01</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>69.3</v>
+        <v>66.7</v>
       </c>
       <c r="C3">
         <f>(B3/B15-1)*100</f>
@@ -464,11 +464,11 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39938</v>
+        <v>69.3</v>
       </c>
       <c r="C4">
         <f>(B4/B16-1)*100</f>
@@ -478,11 +478,11 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-08-01</t>
+          <t>2025-09-01</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>40714</v>
+        <v>39938</v>
       </c>
       <c r="C5">
         <f>(B5/B17-1)*100</f>
@@ -492,11 +492,11 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-08-01</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>69.3</v>
+        <v>40714</v>
       </c>
       <c r="C6">
         <f>(B6/B18-1)*100</f>
@@ -506,7 +506,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-06-01</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -520,11 +520,11 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-05-01</t>
+          <t>2025-06-01</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>37626</v>
+        <v>69.3</v>
       </c>
       <c r="C8">
         <f>(B8/B20-1)*100</f>
@@ -534,11 +534,11 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-05-01</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>66.8</v>
+        <v>37626</v>
       </c>
       <c r="C9">
         <f>(B9/B21-1)*100</f>
@@ -548,7 +548,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-03-01</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -562,7 +562,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-02-01</t>
+          <t>2025-03-01</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -576,7 +576,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2025-02-01</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -588,13 +588,13 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="6" t="inlineStr">
-        <is>
-          <t>2024-12-01</t>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>43239</v>
+        <v>66.8</v>
       </c>
       <c r="C13">
         <f>(B13/B25-1)*100</f>
@@ -602,11 +602,13 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="6" t="n">
-        <v>45597</v>
-      </c>
-      <c r="B14" s="4" t="n">
-        <v>45900</v>
+      <c r="A14" s="6" t="inlineStr">
+        <is>
+          <t>2024-12-01</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>43239</v>
       </c>
       <c r="C14">
         <f>(B14/B26-1)*100</f>
@@ -615,10 +617,10 @@
     </row>
     <row r="15">
       <c r="A15" s="6" t="n">
-        <v>45566</v>
+        <v>45597</v>
       </c>
       <c r="B15" s="4" t="n">
-        <v>44200</v>
+        <v>45900</v>
       </c>
       <c r="C15">
         <f>(B15/B27-1)*100</f>
@@ -627,10 +629,10 @@
     </row>
     <row r="16">
       <c r="A16" s="6" t="n">
-        <v>45536</v>
+        <v>45566</v>
       </c>
       <c r="B16" s="4" t="n">
-        <v>41200</v>
+        <v>44200</v>
       </c>
       <c r="C16">
         <f>(B16/B28-1)*100</f>
@@ -639,10 +641,10 @@
     </row>
     <row r="17">
       <c r="A17" s="6" t="n">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="B17" s="4" t="n">
-        <v>40400</v>
+        <v>41200</v>
       </c>
       <c r="C17">
         <f>(B17/B29-1)*100</f>
@@ -651,10 +653,10 @@
     </row>
     <row r="18">
       <c r="A18" s="6" t="n">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="B18" s="4" t="n">
-        <v>39600</v>
+        <v>40400</v>
       </c>
       <c r="C18">
         <f>(B18/B30-1)*100</f>
@@ -663,10 +665,10 @@
     </row>
     <row r="19">
       <c r="A19" s="6" t="n">
-        <v>45444</v>
-      </c>
-      <c r="B19" s="5" t="n">
-        <v>39800</v>
+        <v>45474</v>
+      </c>
+      <c r="B19" s="4" t="n">
+        <v>39600</v>
       </c>
       <c r="C19">
         <f>(B19/B31-1)*100</f>
@@ -675,10 +677,10 @@
     </row>
     <row r="20">
       <c r="A20" s="6" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="B20" s="5" t="n">
-        <v>38300</v>
+        <v>39800</v>
       </c>
       <c r="C20">
         <f>(B20/B32-1)*100</f>
@@ -687,10 +689,10 @@
     </row>
     <row r="21">
       <c r="A21" s="6" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="B21" s="5" t="n">
-        <v>38400</v>
+        <v>38300</v>
       </c>
       <c r="C21">
         <f>(B21/B33-1)*100</f>
@@ -699,10 +701,10 @@
     </row>
     <row r="22">
       <c r="A22" s="6" t="n">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="B22" s="5" t="n">
-        <v>39700</v>
+        <v>38400</v>
       </c>
       <c r="C22">
         <f>(B22/B34-1)*100</f>
@@ -711,10 +713,10 @@
     </row>
     <row r="23">
       <c r="A23" s="6" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="B23" s="5" t="n">
-        <v>39400</v>
+        <v>39700</v>
       </c>
       <c r="C23">
         <f>(B23/B35-1)*100</f>
@@ -723,10 +725,10 @@
     </row>
     <row r="24">
       <c r="A24" s="6" t="n">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="B24" s="5" t="n">
-        <v>40300</v>
+        <v>39400</v>
       </c>
       <c r="C24">
         <f>(B24/B36-1)*100</f>
@@ -735,10 +737,10 @@
     </row>
     <row r="25">
       <c r="A25" s="6" t="n">
-        <v>45261</v>
+        <v>45292</v>
       </c>
       <c r="B25" s="5" t="n">
-        <v>38600</v>
+        <v>40300</v>
       </c>
       <c r="C25">
         <f>(B25/B37-1)*100</f>
@@ -747,10 +749,10 @@
     </row>
     <row r="26">
       <c r="A26" s="6" t="n">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="B26" s="5" t="n">
-        <v>35200</v>
+        <v>38600</v>
       </c>
       <c r="C26">
         <f>(B26/B38-1)*100</f>
@@ -759,10 +761,10 @@
     </row>
     <row r="27">
       <c r="A27" s="6" t="n">
-        <v>45200</v>
+        <v>45231</v>
       </c>
       <c r="B27" s="5" t="n">
-        <v>35400</v>
+        <v>35200</v>
       </c>
       <c r="C27">
         <f>(B27/B39-1)*100</f>
@@ -771,10 +773,10 @@
     </row>
     <row r="28">
       <c r="A28" s="6" t="n">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B28" s="5" t="n">
-        <v>38600</v>
+        <v>35400</v>
       </c>
       <c r="C28">
         <f>(B28/B40-1)*100</f>
@@ -783,10 +785,10 @@
     </row>
     <row r="29">
       <c r="A29" s="6" t="n">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B29" s="5" t="n">
-        <v>39800</v>
+        <v>38600</v>
       </c>
       <c r="C29">
         <f>(B29/B41-1)*100</f>
@@ -795,10 +797,10 @@
     </row>
     <row r="30">
       <c r="A30" s="6" t="n">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B30" s="5" t="n">
-        <v>41300</v>
+        <v>39800</v>
       </c>
       <c r="C30">
         <f>(B30/B42-1)*100</f>
@@ -807,10 +809,10 @@
     </row>
     <row r="31">
       <c r="A31" s="6" t="n">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B31" s="5" t="n">
-        <v>41600</v>
+        <v>41300</v>
       </c>
       <c r="C31">
         <f>(B31/B43-1)*100</f>
@@ -819,10 +821,10 @@
     </row>
     <row r="32">
       <c r="A32" s="6" t="n">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B32" s="5" t="n">
-        <v>41700</v>
+        <v>41600</v>
       </c>
       <c r="C32">
         <f>(B32/B44-1)*100</f>
@@ -831,10 +833,10 @@
     </row>
     <row r="33">
       <c r="A33" s="6" t="n">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B33" s="5" t="n">
-        <v>39600</v>
+        <v>41700</v>
       </c>
       <c r="C33">
         <f>(B33/B45-1)*100</f>
@@ -843,10 +845,10 @@
     </row>
     <row r="34">
       <c r="A34" s="6" t="n">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B34" s="5" t="n">
-        <v>35700</v>
+        <v>39600</v>
       </c>
       <c r="C34">
         <f>(B34/B46-1)*100</f>
@@ -855,10 +857,10 @@
     </row>
     <row r="35">
       <c r="A35" s="6" t="n">
-        <v>44958</v>
+        <v>44986</v>
       </c>
       <c r="B35" s="5" t="n">
-        <v>35000</v>
+        <v>35700</v>
       </c>
       <c r="C35">
         <f>(B35/B47-1)*100</f>
@@ -867,10 +869,10 @@
     </row>
     <row r="36">
       <c r="A36" s="6" t="n">
-        <v>44927</v>
-      </c>
-      <c r="B36" s="1" t="n">
-        <v>35700</v>
+        <v>44958</v>
+      </c>
+      <c r="B36" s="5" t="n">
+        <v>35000</v>
       </c>
       <c r="C36">
         <f>(B36/B48-1)*100</f>
@@ -879,7 +881,7 @@
     </row>
     <row r="37">
       <c r="A37" s="6" t="n">
-        <v>44896</v>
+        <v>44927</v>
       </c>
       <c r="B37" s="1" t="n">
         <v>35700</v>
@@ -891,10 +893,10 @@
     </row>
     <row r="38">
       <c r="A38" s="6" t="n">
-        <v>44866</v>
+        <v>44896</v>
       </c>
       <c r="B38" s="1" t="n">
-        <v>35600</v>
+        <v>35700</v>
       </c>
       <c r="C38">
         <f>(B38/B50-1)*100</f>
@@ -903,10 +905,10 @@
     </row>
     <row r="39">
       <c r="A39" s="6" t="n">
-        <v>44835</v>
+        <v>44866</v>
       </c>
       <c r="B39" s="1" t="n">
-        <v>36400</v>
+        <v>35600</v>
       </c>
       <c r="C39">
         <f>(B39/B51-1)*100</f>
@@ -915,10 +917,10 @@
     </row>
     <row r="40">
       <c r="A40" s="6" t="n">
-        <v>44805</v>
+        <v>44835</v>
       </c>
       <c r="B40" s="1" t="n">
-        <v>36200</v>
+        <v>36400</v>
       </c>
       <c r="C40">
         <f>(B40/B52-1)*100</f>
@@ -927,10 +929,10 @@
     </row>
     <row r="41">
       <c r="A41" s="6" t="n">
-        <v>44774</v>
+        <v>44805</v>
       </c>
       <c r="B41" s="1" t="n">
-        <v>37300</v>
+        <v>36200</v>
       </c>
       <c r="C41">
         <f>(B41/B53-1)*100</f>
@@ -939,10 +941,10 @@
     </row>
     <row r="42">
       <c r="A42" s="6" t="n">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="B42" s="1" t="n">
-        <v>37600</v>
+        <v>37300</v>
       </c>
       <c r="C42">
         <f>(B42/B54-1)*100</f>
@@ -951,10 +953,10 @@
     </row>
     <row r="43">
       <c r="A43" s="6" t="n">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="B43" s="1" t="n">
-        <v>39200</v>
+        <v>37600</v>
       </c>
       <c r="C43">
         <f>(B43/B55-1)*100</f>
@@ -963,10 +965,10 @@
     </row>
     <row r="44">
       <c r="A44" s="6" t="n">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="B44" s="1" t="n">
-        <v>41900</v>
+        <v>39200</v>
       </c>
       <c r="C44">
         <f>(B44/B56-1)*100</f>
@@ -975,10 +977,10 @@
     </row>
     <row r="45">
       <c r="A45" s="6" t="n">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="B45" s="1" t="n">
-        <v>46600</v>
+        <v>41900</v>
       </c>
       <c r="C45">
         <f>(B45/B57-1)*100</f>
@@ -987,10 +989,10 @@
     </row>
     <row r="46">
       <c r="A46" s="6" t="n">
-        <v>44621</v>
+        <v>44652</v>
       </c>
       <c r="B46" s="1" t="n">
-        <v>53700</v>
+        <v>46600</v>
       </c>
       <c r="C46">
         <f>(B46/B58-1)*100</f>
@@ -999,10 +1001,10 @@
     </row>
     <row r="47">
       <c r="A47" s="6" t="n">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="B47" s="1" t="n">
-        <v>58200</v>
+        <v>53700</v>
       </c>
       <c r="C47">
         <f>(B47/B59-1)*100</f>
@@ -1011,10 +1013,10 @@
     </row>
     <row r="48">
       <c r="A48" s="6" t="n">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="B48" s="1" t="n">
-        <v>57100</v>
+        <v>58200</v>
       </c>
       <c r="C48">
         <f>(B48/B60-1)*100</f>
@@ -1023,10 +1025,10 @@
     </row>
     <row r="49">
       <c r="A49" s="6" t="n">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="B49" s="1" t="n">
-        <v>56700</v>
+        <v>57100</v>
       </c>
       <c r="C49">
         <f>(B49/B61-1)*100</f>
@@ -1035,10 +1037,10 @@
     </row>
     <row r="50">
       <c r="A50" s="6" t="n">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="B50" s="1" t="n">
-        <v>58400</v>
+        <v>56700</v>
       </c>
       <c r="C50">
         <f>(B50/B62-1)*100</f>
@@ -1047,10 +1049,10 @@
     </row>
     <row r="51">
       <c r="A51" s="6" t="n">
-        <v>44470</v>
+        <v>44501</v>
       </c>
       <c r="B51" s="1" t="n">
-        <v>57400</v>
+        <v>58400</v>
       </c>
       <c r="C51">
         <f>(B51/B63-1)*100</f>
@@ -1059,10 +1061,10 @@
     </row>
     <row r="52">
       <c r="A52" s="6" t="n">
-        <v>44440</v>
+        <v>44470</v>
       </c>
       <c r="B52" s="1" t="n">
-        <v>53700</v>
+        <v>57400</v>
       </c>
       <c r="C52">
         <f>(B52/B64-1)*100</f>
@@ -1071,10 +1073,10 @@
     </row>
     <row r="53">
       <c r="A53" s="6" t="n">
-        <v>44409</v>
+        <v>44440</v>
       </c>
       <c r="B53" s="1" t="n">
-        <v>51900</v>
+        <v>53700</v>
       </c>
       <c r="C53">
         <f>(B53/B65-1)*100</f>
@@ -1083,10 +1085,10 @@
     </row>
     <row r="54">
       <c r="A54" s="6" t="n">
-        <v>44378</v>
+        <v>44409</v>
       </c>
       <c r="B54" s="1" t="n">
-        <v>51800</v>
+        <v>51900</v>
       </c>
       <c r="C54">
         <f>(B54/B66-1)*100</f>
@@ -1095,10 +1097,10 @@
     </row>
     <row r="55">
       <c r="A55" s="6" t="n">
-        <v>44348</v>
+        <v>44378</v>
       </c>
       <c r="B55" s="1" t="n">
-        <v>52400</v>
+        <v>51800</v>
       </c>
       <c r="C55">
         <f>(B55/B67-1)*100</f>
@@ -1107,10 +1109,10 @@
     </row>
     <row r="56">
       <c r="A56" s="6" t="n">
-        <v>44317</v>
+        <v>44348</v>
       </c>
       <c r="B56" s="1" t="n">
-        <v>56700</v>
+        <v>52400</v>
       </c>
       <c r="C56">
         <f>(B56/B68-1)*100</f>
@@ -1119,10 +1121,10 @@
     </row>
     <row r="57">
       <c r="A57" s="6" t="n">
-        <v>44287</v>
+        <v>44317</v>
       </c>
       <c r="B57" s="1" t="n">
-        <v>60300</v>
+        <v>56700</v>
       </c>
       <c r="C57">
         <f>(B57/B69-1)*100</f>
@@ -1131,10 +1133,10 @@
     </row>
     <row r="58">
       <c r="A58" s="6" t="n">
-        <v>44256</v>
+        <v>44287</v>
       </c>
       <c r="B58" s="1" t="n">
-        <v>66300</v>
+        <v>60300</v>
       </c>
       <c r="C58">
         <f>(B58/B70-1)*100</f>
@@ -1143,10 +1145,10 @@
     </row>
     <row r="59">
       <c r="A59" s="6" t="n">
-        <v>44228</v>
+        <v>44256</v>
       </c>
       <c r="B59" s="1" t="n">
-        <v>62900</v>
+        <v>66300</v>
       </c>
       <c r="C59">
         <f>(B59/B71-1)*100</f>
@@ -1155,10 +1157,10 @@
     </row>
     <row r="60">
       <c r="A60" s="6" t="n">
-        <v>44197</v>
+        <v>44228</v>
       </c>
       <c r="B60" s="1" t="n">
-        <v>62500</v>
+        <v>62900</v>
       </c>
       <c r="C60">
         <f>(B60/B72-1)*100</f>
@@ -1166,7 +1168,12 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="3" t="n"/>
+      <c r="A61" s="6" t="n">
+        <v>44197</v>
+      </c>
+      <c r="B61" s="1" t="n">
+        <v>62500</v>
+      </c>
       <c r="C61">
         <f>(B61/B73-1)*100</f>
         <v/>
@@ -1251,6 +1258,13 @@
     </row>
     <row r="73">
       <c r="A73" s="3" t="n"/>
+      <c r="C73">
+        <f>(B73/B85-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="3" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
